--- a/summary.xlsx
+++ b/summary.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\OneDrive\Asztali gép\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30BA8AD-23CA-47D1-8D76-0828B7149B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F7E15-BEA2-48E9-BE2B-258A684DBA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="teszt adatok" sheetId="1" r:id="rId1"/>
     <sheet name="tanító adatok" sheetId="2" r:id="rId2"/>
     <sheet name="tanito adatok elemzese" sheetId="3" r:id="rId3"/>
     <sheet name="összesítő" sheetId="4" r:id="rId4"/>
-    <sheet name="ARIMA" sheetId="5" r:id="rId5"/>
+    <sheet name="osszesito megyenkent" sheetId="8" r:id="rId5"/>
     <sheet name="MLP" sheetId="6" r:id="rId6"/>
-    <sheet name="LSTM" sheetId="7" r:id="rId7"/>
+    <sheet name="AR2" sheetId="5" r:id="rId7"/>
+    <sheet name="ARIMA 2 1 2" sheetId="9" r:id="rId8"/>
+    <sheet name="LSTM" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="260">
   <si>
     <t>idoszak</t>
   </si>
@@ -666,9 +668,6 @@
     <t>lbfgs</t>
   </si>
   <si>
-    <t>normalizálás</t>
-  </si>
-  <si>
     <t>KS teszt p-érték</t>
   </si>
   <si>
@@ -681,9 +680,6 @@
     <t>Kovászna AR2</t>
   </si>
   <si>
-    <t>Hargita ARIMA 2 1 2</t>
-  </si>
-  <si>
     <t>Hargita AR(2)</t>
   </si>
   <si>
@@ -717,17 +713,126 @@
     <t>Maros LSTM</t>
   </si>
   <si>
-    <t>U = 64, E = 250</t>
+    <t>Hargita AR2</t>
+  </si>
+  <si>
+    <t>Maros AR2</t>
+  </si>
+  <si>
+    <t>AR (2)</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>2022 08</t>
+  </si>
+  <si>
+    <t>2022 09</t>
+  </si>
+  <si>
+    <t>2022 10</t>
+  </si>
+  <si>
+    <t>2022 11</t>
+  </si>
+  <si>
+    <t>2022 12</t>
+  </si>
+  <si>
+    <t>2023 01</t>
+  </si>
+  <si>
+    <t>2023 02</t>
+  </si>
+  <si>
+    <t>2023 03</t>
+  </si>
+  <si>
+    <t>2023 04</t>
+  </si>
+  <si>
+    <t>2023 05</t>
+  </si>
+  <si>
+    <t>2023 06</t>
+  </si>
+  <si>
+    <t>2023 07</t>
+  </si>
+  <si>
+    <t>hónap</t>
+  </si>
+  <si>
+    <t>Mért</t>
+  </si>
+  <si>
+    <t>átlag:</t>
+  </si>
+  <si>
+    <t>szórás:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maros MLP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hargita MLP </t>
+  </si>
+  <si>
+    <t>Kovászna MLP</t>
+  </si>
+  <si>
+    <t>White-teszt p-értékei a reziduumokra</t>
+  </si>
+  <si>
+    <t>Kolmogorov–Szmirnov-próba</t>
+  </si>
+  <si>
+    <t>legksiebb p-érték a Ljung-Box tesztnél, az első három lépésre</t>
+  </si>
+  <si>
+    <t>hibák</t>
+  </si>
+  <si>
+    <t>KS teszt p -értéke</t>
+  </si>
+  <si>
+    <t>White-teszt p-értéke</t>
+  </si>
+  <si>
+    <t>Ljung-Box teszt min. p-értéke</t>
+  </si>
+  <si>
+    <t>Kovászna ARIMA(2, 1, 2)</t>
+  </si>
+  <si>
+    <t>0.99 - 1.03</t>
+  </si>
+  <si>
+    <t>Hargita ARIMA(2, 1, 2)</t>
+  </si>
+  <si>
+    <t>0.67 - 1.05</t>
+  </si>
+  <si>
+    <t>Maros ARIMA(2, 1, 2)</t>
+  </si>
+  <si>
+    <t>Standard hiba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,8 +938,43 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,8 +1017,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1751,9 +1897,18 @@
       <right style="medium">
         <color rgb="FFDBDBDB"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFDBDBDB"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color rgb="FFDBDBDB"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1765,7 +1920,7 @@
         <color rgb="FFDBDBDB"/>
       </right>
       <top style="medium">
-        <color rgb="FFDBDBDB"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1776,17 +1931,141 @@
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FFDBDBDB"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDBDBDB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDBDBDB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2075,9 +2354,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2087,76 +2363,7 @@
     <xf numFmtId="2" fontId="14" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2165,12 +2372,271 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2660,16 +3126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>416626</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>194271</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>749136</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1011382</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>101929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2684,7 +3150,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2692,15 +3158,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9711" t="5756" r="8807"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9223169" y="4450585"/>
-          <a:ext cx="8953996" cy="4345072"/>
+          <a:off x="14796654" y="4378036"/>
+          <a:ext cx="7315201" cy="4078184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,15 +3186,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1097768</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79052</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>385128</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2452256</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>97754</xdr:rowOff>
+      <xdr:rowOff>180881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2745,7 +3209,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2753,15 +3217,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9472" t="5301" r="7970"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1097768" y="4973781"/>
-          <a:ext cx="9193360" cy="4285902"/>
+          <a:off x="0" y="4502727"/>
+          <a:ext cx="7578438" cy="4032445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,16 +3249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133598</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>621465</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>997528</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>146463</xdr:rowOff>
+      <xdr:rowOff>104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2811,7 +3273,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2819,15 +3281,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="8877" t="4819" r="8687"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9165771" y="133598"/>
-          <a:ext cx="8883723" cy="4144488"/>
+          <a:off x="14755091" y="290946"/>
+          <a:ext cx="7342910" cy="3928754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,20 +3308,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122534</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2644635</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>223473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341965</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>211430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Becslések grafikonja">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBFB378-06F6-4024-9DA1-4E23E8842C67}"/>
@@ -2881,14 +3341,12 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13658851" y="9171284"/>
-          <a:ext cx="9163049" cy="4198006"/>
+          <a:off x="7770817" y="4338273"/>
+          <a:ext cx="6927717" cy="4227448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,605 +3369,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1013114</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>17515</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553C2395-670F-0B24-9DAF-41B3338B8B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12030" r="12030"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1013114" y="3866135"/>
-          <a:ext cx="8211242" cy="5045998"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>642504</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>5888</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3085499-5904-B80F-0035-AAF6779C3D1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19938423" y="3686395"/>
-          <a:ext cx="10158845" cy="4673784"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>742356</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB19BBAE-45C4-E263-CBC9-F5E9DB7A486B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9772650" y="3752850"/>
-          <a:ext cx="10781706" cy="5227320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>221673</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>129887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>420563</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>110076</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE6A0D2-35E5-55EF-11C3-27C28E5877A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21031200" y="8664287"/>
-          <a:ext cx="8844127" cy="3042044"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>44722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2BE800-6D01-31A2-0D44-E2D12914B8CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27870150" y="12617722"/>
-          <a:ext cx="5410200" cy="2869928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>789433</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>160258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0DB917-74A2-43B4-5FB1-5B6B9365E2EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10706100" y="9220200"/>
-          <a:ext cx="8809483" cy="2751058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>294280</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69856ED9-0D84-5919-5487-DA10C7BC3C93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16897349" y="12496800"/>
-          <a:ext cx="5380631" cy="2838450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7EA4DF-6CA9-763A-22C9-67EC28ADC33E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="12298680"/>
-          <a:ext cx="6115050" cy="4762500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C54FF5-822F-C38E-6655-7CF78F6107C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11490960" y="12466320"/>
-          <a:ext cx="6096000" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70210DA-B719-9E7F-999B-33FA21BB9C35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22250400" y="12283440"/>
-          <a:ext cx="6096000" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762753</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>84086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EE13BF-A112-EC2F-C4AC-12A2251B57EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="9585960"/>
-          <a:ext cx="8687553" cy="3071126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>267070</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>118317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE31AA8-F3C1-19B0-39C0-EAF869A88BAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5772150" y="12782550"/>
-          <a:ext cx="4267570" cy="2385267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4132,6 +3991,605 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1013114</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553C2395-670F-0B24-9DAF-41B3338B8B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12030" r="12030"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1013114" y="3866135"/>
+          <a:ext cx="8211242" cy="5045998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>642504</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3085499-5904-B80F-0035-AAF6779C3D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19938423" y="3686395"/>
+          <a:ext cx="10158845" cy="4673784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>742356</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB19BBAE-45C4-E263-CBC9-F5E9DB7A486B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9772650" y="3752850"/>
+          <a:ext cx="10781706" cy="5227320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>420563</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>110076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE6A0D2-35E5-55EF-11C3-27C28E5877A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21031200" y="8664287"/>
+          <a:ext cx="8844127" cy="3042044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2BE800-6D01-31A2-0D44-E2D12914B8CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27870150" y="12617722"/>
+          <a:ext cx="5410200" cy="2869928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>789433</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>160258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0DB917-74A2-43B4-5FB1-5B6B9365E2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="9220200"/>
+          <a:ext cx="8809483" cy="2751058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>294280</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69856ED9-0D84-5919-5487-DA10C7BC3C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16897349" y="12496800"/>
+          <a:ext cx="5380631" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7EA4DF-6CA9-763A-22C9-67EC28ADC33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="12622530"/>
+          <a:ext cx="6115050" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C54FF5-822F-C38E-6655-7CF78F6107C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11490960" y="12466320"/>
+          <a:ext cx="6096000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70210DA-B719-9E7F-999B-33FA21BB9C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22250400" y="12283440"/>
+          <a:ext cx="6096000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762753</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>84086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EE13BF-A112-EC2F-C4AC-12A2251B57EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="9585960"/>
+          <a:ext cx="8687553" cy="3071126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1048120</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>175467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE31AA8-F3C1-19B0-39C0-EAF869A88BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="13030200"/>
+          <a:ext cx="4267570" cy="2385267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4379,13 +4837,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>207816</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>128151</xdr:rowOff>
+      <xdr:rowOff>128152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>166254</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83548</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>174173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4408,8 +4866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8742216" y="7762006"/>
-          <a:ext cx="4835238" cy="3626429"/>
+          <a:off x="8742216" y="7911438"/>
+          <a:ext cx="4142932" cy="3191992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5242,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD52327-7AD8-4736-8B4E-8CA911AAE236}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D152"/>
+    <sheetView topLeftCell="A147" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7388,8 +7846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60708DF5-AA5B-4AE5-85E0-4F57B5D094D9}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7550,11 +8008,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="182"/>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
@@ -7617,10 +8075,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7632,299 +8090,357 @@
     <col min="5" max="5" width="9.77734375" style="121" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="239" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="G1" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="246" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="243">
         <v>123.7</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="243">
         <v>0.47525843302588</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="240">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E2" s="118">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="249">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G2" s="124" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="G2" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="247" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="244">
         <v>114.95</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="244">
         <v>0.74341004063698302</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="241">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="E3" s="119">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="250">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="G3" s="125" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="G3" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="248" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="245">
         <v>3.54</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="245">
         <v>0.67167091994257599</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="242">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="E4" s="120">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="251">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="238"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="246" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="243">
+        <v>92.59</v>
+      </c>
+      <c r="C5" s="243">
+        <v>0.39308247498409599</v>
+      </c>
+      <c r="D5" s="240">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="E5" s="71">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="F5" s="249">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="G5" s="255" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="252">
+        <v>107.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="247" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="244">
+        <v>103.58</v>
+      </c>
+      <c r="C6" s="244">
+        <v>0.70295279473146599</v>
+      </c>
+      <c r="D6" s="241">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="F6" s="250">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G6" s="256" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="253">
+        <v>116.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="248" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="245">
+        <v>1.35</v>
+      </c>
+      <c r="C7" s="245">
+        <v>0.67501028322620404</v>
+      </c>
+      <c r="D7" s="242">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E7" s="74">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F7" s="251">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G7" s="257">
+        <f>-5.08 - 5.51</f>
+        <v>-10.59</v>
+      </c>
+      <c r="H7" s="254">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="232"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="105"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="105"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="146"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="105"/>
-    </row>
-    <row r="6" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76" t="s">
+      <c r="D9" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="71">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="E10" s="118">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F10" s="72">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="106"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.98</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E11" s="119">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F11" s="73">
+        <v>2.01E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.72</v>
+      </c>
+      <c r="D12" s="74">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E12" s="120">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F12" s="75">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="106"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B14" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="H14" s="128"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="B15" s="33">
+        <v>0.52950909172968996</v>
+      </c>
+      <c r="C15" s="34">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="D15" s="119">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="E15" s="34">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="44">
-        <v>0.98</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0.7</v>
-      </c>
-      <c r="D7" s="71">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="E7" s="118">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="F7" s="72">
+      <c r="B16" s="33">
+        <v>0.73337506270383401</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D16" s="119">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="G7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="106">
-        <v>0.46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.98</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1.01E-2</v>
-      </c>
-      <c r="E8" s="119">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="F8" s="73">
-        <v>2.01E-2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="107">
-        <v>0.62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="38">
-        <v>1</v>
-      </c>
-      <c r="C9" s="38">
-        <v>0.72</v>
-      </c>
-      <c r="D9" s="74">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E9" s="120">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F9" s="75">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="106">
-        <v>0.77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="H11" s="152" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="E16" s="34">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="33">
-        <v>0.52950909172968996</v>
-      </c>
-      <c r="C12" s="34">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="D12" s="34">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="E12" s="34">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="33">
-        <v>0.73337506270383401</v>
-      </c>
-      <c r="C13" s="34">
-        <v>1.78E-2</v>
-      </c>
-      <c r="D13" s="34">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="E13" s="34">
-        <v>2.87E-2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="B17" s="33">
         <v>0.51678559984472106</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C17" s="34">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D17" s="119">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E17" s="34">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -7935,11 +8451,2374 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A093AE-2E50-418D-93EB-C99F35A216AE}">
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="210" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="185"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="68">
+        <v>0</v>
+      </c>
+      <c r="P2" s="166" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="167" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="168" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="219">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3" s="220">
+        <v>4.53</v>
+      </c>
+      <c r="D3" s="220">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E3" s="221">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F3" s="219">
+        <v>3.9</v>
+      </c>
+      <c r="G3" s="220">
+        <v>3.84</v>
+      </c>
+      <c r="H3" s="220">
+        <v>3.88</v>
+      </c>
+      <c r="I3" s="221">
+        <v>3.79</v>
+      </c>
+      <c r="J3" s="220">
+        <v>2.8</v>
+      </c>
+      <c r="K3" s="220">
+        <v>2.72</v>
+      </c>
+      <c r="L3" s="220">
+        <v>2.71</v>
+      </c>
+      <c r="M3" s="221">
+        <v>2.69</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="158">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="Q3" s="169">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="R3" s="159">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="222">
+        <v>4.3</v>
+      </c>
+      <c r="C4" s="223">
+        <v>4.63</v>
+      </c>
+      <c r="D4" s="223">
+        <v>4.59</v>
+      </c>
+      <c r="E4" s="224">
+        <v>4.63</v>
+      </c>
+      <c r="F4" s="222">
+        <v>4</v>
+      </c>
+      <c r="G4" s="223">
+        <v>3.97</v>
+      </c>
+      <c r="H4" s="223">
+        <v>3.98</v>
+      </c>
+      <c r="I4" s="224">
+        <v>3.92</v>
+      </c>
+      <c r="J4" s="223">
+        <v>2.9</v>
+      </c>
+      <c r="K4" s="223">
+        <v>2.84</v>
+      </c>
+      <c r="L4" s="223">
+        <v>2.79</v>
+      </c>
+      <c r="M4" s="224">
+        <v>2.75</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="160">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="Q4" s="145">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="R4" s="146">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="219">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="220">
+        <v>4.29</v>
+      </c>
+      <c r="D5" s="220">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="221">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F5" s="219">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="220">
+        <v>4.07</v>
+      </c>
+      <c r="H5" s="220">
+        <v>4.09</v>
+      </c>
+      <c r="I5" s="221">
+        <v>3.99</v>
+      </c>
+      <c r="J5" s="220">
+        <v>3.1</v>
+      </c>
+      <c r="K5" s="220">
+        <v>2.94</v>
+      </c>
+      <c r="L5" s="220">
+        <v>2.9</v>
+      </c>
+      <c r="M5" s="221">
+        <v>2.83</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="161">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="Q5" s="151">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R5" s="152">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="222">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C6" s="223">
+        <v>4.21</v>
+      </c>
+      <c r="D6" s="223">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E6" s="224">
+        <v>4.22</v>
+      </c>
+      <c r="F6" s="222">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G6" s="223">
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="223">
+        <v>4.24</v>
+      </c>
+      <c r="I6" s="224">
+        <v>4.22</v>
+      </c>
+      <c r="J6" s="223">
+        <v>3.2</v>
+      </c>
+      <c r="K6" s="223">
+        <v>3.17</v>
+      </c>
+      <c r="L6" s="223">
+        <v>3.08</v>
+      </c>
+      <c r="M6" s="224">
+        <v>3</v>
+      </c>
+      <c r="O6" s="153" t="s">
+        <v>246</v>
+      </c>
+      <c r="P6" s="162">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="Q6" s="154">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="R6" s="155">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="219">
+        <v>4</v>
+      </c>
+      <c r="C7" s="220">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D7" s="220">
+        <v>4</v>
+      </c>
+      <c r="E7" s="221">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F7" s="219">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G7" s="220">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="220">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I7" s="221">
+        <v>4.46</v>
+      </c>
+      <c r="J7" s="220">
+        <v>3.2</v>
+      </c>
+      <c r="K7" s="220">
+        <v>3.24</v>
+      </c>
+      <c r="L7" s="220">
+        <v>3.17</v>
+      </c>
+      <c r="M7" s="221">
+        <v>3.13</v>
+      </c>
+      <c r="O7" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="163">
+        <v>1.01E-2</v>
+      </c>
+      <c r="Q7" s="147">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="R7" s="148">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="222">
+        <v>3.8</v>
+      </c>
+      <c r="C8" s="223">
+        <v>4.01</v>
+      </c>
+      <c r="D8" s="223">
+        <v>3.94</v>
+      </c>
+      <c r="E8" s="224">
+        <v>3.99</v>
+      </c>
+      <c r="F8" s="222">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="223">
+        <v>4.43</v>
+      </c>
+      <c r="H8" s="223">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I8" s="224">
+        <v>4.45</v>
+      </c>
+      <c r="J8" s="223">
+        <v>3.1</v>
+      </c>
+      <c r="K8" s="223">
+        <v>3.22</v>
+      </c>
+      <c r="L8" s="223">
+        <v>3.11</v>
+      </c>
+      <c r="M8" s="224">
+        <v>3.17</v>
+      </c>
+      <c r="O8" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="164">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q8" s="156">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="R8" s="157">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="219">
+        <v>3.8</v>
+      </c>
+      <c r="C9" s="220">
+        <v>3.8</v>
+      </c>
+      <c r="D9" s="220">
+        <v>3.74</v>
+      </c>
+      <c r="E9" s="221">
+        <v>3.71</v>
+      </c>
+      <c r="F9" s="219">
+        <v>4.3</v>
+      </c>
+      <c r="G9" s="220">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H9" s="220">
+        <v>4.38</v>
+      </c>
+      <c r="I9" s="221">
+        <v>4.51</v>
+      </c>
+      <c r="J9" s="220">
+        <v>3.1</v>
+      </c>
+      <c r="K9" s="220">
+        <v>3.09</v>
+      </c>
+      <c r="L9" s="220">
+        <v>2.97</v>
+      </c>
+      <c r="M9" s="221">
+        <v>3.05</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="160">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="Q9" s="145">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="R9" s="146">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="222">
+        <v>3.8</v>
+      </c>
+      <c r="C10" s="223">
+        <v>3.82</v>
+      </c>
+      <c r="D10" s="223">
+        <v>3.92</v>
+      </c>
+      <c r="E10" s="224">
+        <v>3.76</v>
+      </c>
+      <c r="F10" s="222">
+        <v>4.2</v>
+      </c>
+      <c r="G10" s="223">
+        <v>4.26</v>
+      </c>
+      <c r="H10" s="223">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I10" s="224">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J10" s="223">
+        <v>3</v>
+      </c>
+      <c r="K10" s="223">
+        <v>3.12</v>
+      </c>
+      <c r="L10" s="223">
+        <v>2.96</v>
+      </c>
+      <c r="M10" s="224">
+        <v>3.07</v>
+      </c>
+      <c r="O10" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="160">
+        <v>1.78E-2</v>
+      </c>
+      <c r="Q10" s="145">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R10" s="146">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="219">
+        <v>3.8</v>
+      </c>
+      <c r="C11" s="220">
+        <v>3.82</v>
+      </c>
+      <c r="D11" s="220">
+        <v>3.9</v>
+      </c>
+      <c r="E11" s="221">
+        <v>3.75</v>
+      </c>
+      <c r="F11" s="219">
+        <v>4</v>
+      </c>
+      <c r="G11" s="220">
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="220">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I11" s="221">
+        <v>4.08</v>
+      </c>
+      <c r="J11" s="220">
+        <v>2.7</v>
+      </c>
+      <c r="K11" s="220">
+        <v>2.99</v>
+      </c>
+      <c r="L11" s="220">
+        <v>2.89</v>
+      </c>
+      <c r="M11" s="221">
+        <v>2.99</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="165">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="Q11" s="149">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="R11" s="150">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="222">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="223">
+        <v>3.82</v>
+      </c>
+      <c r="D12" s="223">
+        <v>3.9</v>
+      </c>
+      <c r="E12" s="224">
+        <v>3.75</v>
+      </c>
+      <c r="F12" s="222">
+        <v>3.8</v>
+      </c>
+      <c r="G12" s="223">
+        <v>3.97</v>
+      </c>
+      <c r="H12" s="223">
+        <v>3.99</v>
+      </c>
+      <c r="I12" s="224">
+        <v>3.95</v>
+      </c>
+      <c r="J12" s="223">
+        <v>2.7</v>
+      </c>
+      <c r="K12" s="223">
+        <v>2.64</v>
+      </c>
+      <c r="L12" s="223">
+        <v>2.66</v>
+      </c>
+      <c r="M12" s="224">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="141" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="219">
+        <v>4.2</v>
+      </c>
+      <c r="C13" s="220">
+        <v>3.82</v>
+      </c>
+      <c r="D13" s="220">
+        <v>3.9</v>
+      </c>
+      <c r="E13" s="221">
+        <v>3.75</v>
+      </c>
+      <c r="F13" s="219">
+        <v>3.8</v>
+      </c>
+      <c r="G13" s="220">
+        <v>3.77</v>
+      </c>
+      <c r="H13" s="220">
+        <v>3.76</v>
+      </c>
+      <c r="I13" s="221">
+        <v>3.82</v>
+      </c>
+      <c r="J13" s="220">
+        <v>2.7</v>
+      </c>
+      <c r="K13" s="220">
+        <v>2.72</v>
+      </c>
+      <c r="L13" s="220">
+        <v>2.69</v>
+      </c>
+      <c r="M13" s="221">
+        <v>2.68</v>
+      </c>
+      <c r="T13" s="189" t="s">
+        <v>249</v>
+      </c>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="191"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="225">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C14" s="226">
+        <v>4.26</v>
+      </c>
+      <c r="D14" s="226">
+        <v>4.47</v>
+      </c>
+      <c r="E14" s="227">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F14" s="225">
+        <v>3.7</v>
+      </c>
+      <c r="G14" s="226">
+        <v>3.84</v>
+      </c>
+      <c r="H14" s="226">
+        <v>3.79</v>
+      </c>
+      <c r="I14" s="227">
+        <v>3.84</v>
+      </c>
+      <c r="J14" s="226">
+        <v>2.7</v>
+      </c>
+      <c r="K14" s="226">
+        <v>2.72</v>
+      </c>
+      <c r="L14" s="226">
+        <v>2.68</v>
+      </c>
+      <c r="M14" s="227">
+        <v>2.7</v>
+      </c>
+      <c r="O14" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="188"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="194"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="228">
+        <f>AVERAGE(B3:B14)</f>
+        <v>4.1083333333333325</v>
+      </c>
+      <c r="C15" s="229">
+        <f t="shared" ref="C15:M15" si="0">AVERAGE(C3:C14)</f>
+        <v>4.0933333333333328</v>
+      </c>
+      <c r="D15" s="229">
+        <f t="shared" si="0"/>
+        <v>4.1049999999999995</v>
+      </c>
+      <c r="E15" s="230">
+        <f t="shared" si="0"/>
+        <v>4.0916666666666659</v>
+      </c>
+      <c r="F15" s="228">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15" s="229">
+        <f t="shared" si="0"/>
+        <v>4.142500000000001</v>
+      </c>
+      <c r="H15" s="229">
+        <f t="shared" si="0"/>
+        <v>4.0991666666666662</v>
+      </c>
+      <c r="I15" s="230">
+        <f t="shared" si="0"/>
+        <v>4.1083333333333334</v>
+      </c>
+      <c r="J15" s="228">
+        <f t="shared" si="0"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="K15" s="229">
+        <f t="shared" si="0"/>
+        <v>2.9508333333333332</v>
+      </c>
+      <c r="L15" s="229">
+        <f t="shared" si="0"/>
+        <v>2.8841666666666672</v>
+      </c>
+      <c r="M15" s="230">
+        <f t="shared" si="0"/>
+        <v>2.894166666666667</v>
+      </c>
+      <c r="O15" s="170" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="R15" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="T15" s="170" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="V15" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" s="168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="225">
+        <f>_xlfn.STDEV.P(B3:B14)</f>
+        <v>0.3426814199158682</v>
+      </c>
+      <c r="C16" s="226">
+        <f t="shared" ref="C16:M16" si="1">_xlfn.STDEV.P(C3:C14)</f>
+        <v>0.28149402993471984</v>
+      </c>
+      <c r="D16" s="226">
+        <f t="shared" si="1"/>
+        <v>0.27651100038395088</v>
+      </c>
+      <c r="E16" s="227">
+        <f t="shared" si="1"/>
+        <v>0.35032921025166536</v>
+      </c>
+      <c r="F16" s="225">
+        <f t="shared" si="1"/>
+        <v>0.25819888974716121</v>
+      </c>
+      <c r="G16" s="226">
+        <f t="shared" si="1"/>
+        <v>0.26032431695867359</v>
+      </c>
+      <c r="H16" s="226">
+        <f t="shared" si="1"/>
+        <v>0.21472689372523626</v>
+      </c>
+      <c r="I16" s="227">
+        <f t="shared" si="1"/>
+        <v>0.25366754270545178</v>
+      </c>
+      <c r="J16" s="225">
+        <f t="shared" si="1"/>
+        <v>0.19720265943665388</v>
+      </c>
+      <c r="K16" s="226">
+        <f t="shared" si="1"/>
+        <v>0.20866473641279737</v>
+      </c>
+      <c r="L16" s="226">
+        <f t="shared" si="1"/>
+        <v>0.17158371782375567</v>
+      </c>
+      <c r="M16" s="227">
+        <f t="shared" si="1"/>
+        <v>0.18432120213246098</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="171">
+        <v>0.03</v>
+      </c>
+      <c r="Q16">
+        <v>0.02</v>
+      </c>
+      <c r="R16" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="T16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0.12</v>
+      </c>
+      <c r="V16">
+        <v>0.36</v>
+      </c>
+      <c r="W16" s="172">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O17" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0.39</v>
+      </c>
+      <c r="Q17">
+        <v>0.7</v>
+      </c>
+      <c r="R17" s="39">
+        <v>0.63</v>
+      </c>
+      <c r="T17" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>0.18</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
+      </c>
+      <c r="W17" s="173">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="133">
+        <v>0.67</v>
+      </c>
+      <c r="Q18" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="R18" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="T18" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="133">
+        <v>0.43</v>
+      </c>
+      <c r="V18" s="133">
+        <v>0.37</v>
+      </c>
+      <c r="W18" s="40">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="210" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" s="187"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="188"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="141">
+        <v>6.9999999999999396E-2</v>
+      </c>
+      <c r="C21" s="140">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D21" s="142">
+        <v>-0.13000000000000078</v>
+      </c>
+      <c r="E21" s="141">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="F21" s="140">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G21" s="142">
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="H21" s="140">
+        <v>7.9999999999999627E-2</v>
+      </c>
+      <c r="I21" s="140">
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="J21" s="142">
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="O21" s="170" t="s">
+        <v>202</v>
+      </c>
+      <c r="P21" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q21" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="R21" s="168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="60">
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="C22">
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="D22" s="39">
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="E22" s="60">
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G22" s="39">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="171">
+        <v>0.03</v>
+      </c>
+      <c r="Q22">
+        <v>0.45</v>
+      </c>
+      <c r="R22" s="39">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="141">
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="C23" s="140">
+        <v>0</v>
+      </c>
+      <c r="D23" s="142">
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="E23" s="141">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="F23" s="140">
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="G23" s="142">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H23" s="140">
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="I23" s="140">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J23" s="142">
+        <v>0.27</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q23">
+        <v>0.98</v>
+      </c>
+      <c r="R23" s="39">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="60">
+        <v>-0.11000000000000032</v>
+      </c>
+      <c r="C24">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="D24" s="39">
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="F24">
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G24" s="39">
+        <v>0.1800000000000006</v>
+      </c>
+      <c r="H24">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J24" s="39">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="133">
+        <v>0.8</v>
+      </c>
+      <c r="Q24" s="133">
+        <v>0.7</v>
+      </c>
+      <c r="R24" s="40">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="141">
+        <v>-0.11000000000000032</v>
+      </c>
+      <c r="C25" s="140">
+        <v>0</v>
+      </c>
+      <c r="D25" s="142">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="E25" s="141">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="F25" s="140">
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="G25" s="142">
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="H25" s="140">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I25" s="140">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J25" s="142">
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="60">
+        <v>-4.01</v>
+      </c>
+      <c r="C26">
+        <v>-0.14000000000000012</v>
+      </c>
+      <c r="D26" s="39">
+        <v>-0.19000000000000039</v>
+      </c>
+      <c r="E26" s="60">
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.13999999999999968</v>
+      </c>
+      <c r="G26" s="39">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I26">
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="J26" s="39">
+        <v>-6.999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="141">
+        <v>0</v>
+      </c>
+      <c r="C27" s="140">
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="D27" s="142">
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="E27" s="141">
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="F27" s="140">
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="G27" s="142">
+        <v>-0.20999999999999996</v>
+      </c>
+      <c r="H27" s="140">
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="I27" s="140">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="J27" s="142">
+        <v>5.0000000000000266E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="60">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="C28">
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="D28" s="39">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E28" s="60">
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="F28">
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="G28" s="39">
+        <v>-6.9999999999999396E-2</v>
+      </c>
+      <c r="H28">
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I28">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J28" s="39">
+        <v>-6.999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="141">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="C29" s="140">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="D29" s="142">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="E29" s="141">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="F29" s="140">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="G29" s="142">
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="H29" s="140">
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="I29" s="140">
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="J29" s="142">
+        <v>-0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="60">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="C30">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="D30" s="39">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="E30" s="60">
+        <v>-0.17000000000000037</v>
+      </c>
+      <c r="F30">
+        <v>-0.19000000000000039</v>
+      </c>
+      <c r="G30" s="39">
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="H30">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I30">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J30" s="39">
+        <v>3.0000000000000249E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="141" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="141">
+        <v>0.38000000000000034</v>
+      </c>
+      <c r="C31" s="140">
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="D31" s="142">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="E31" s="141">
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="F31" s="140">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G31" s="142">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H31" s="140">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="I31" s="140">
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="J31" s="142">
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="47">
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="C32" s="133">
+        <v>0.4300000000000006</v>
+      </c>
+      <c r="D32" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="47">
+        <v>-0.13999999999999968</v>
+      </c>
+      <c r="F32" s="133">
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="G32" s="40">
+        <v>-0.13999999999999968</v>
+      </c>
+      <c r="H32" s="133">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="I32" s="133">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="211"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="210" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="184"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="184"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="212">
+        <f>AVERAGE(B21:B32)</f>
+        <v>-0.30166666666666658</v>
+      </c>
+      <c r="C35" s="213">
+        <f>AVERAGE(C21:C32)</f>
+        <v>3.3333333333333361E-3</v>
+      </c>
+      <c r="D35" s="214">
+        <f>AVERAGE(D21:D32)</f>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="E35" s="212">
+        <f>AVERAGE(E21:E32)</f>
+        <v>-4.2499999999999906E-2</v>
+      </c>
+      <c r="F35" s="215">
+        <f>AVERAGE(F21:F32)</f>
+        <v>8.3333333333338955E-4</v>
+      </c>
+      <c r="G35" s="214">
+        <f>AVERAGE(G21:G32)</f>
+        <v>-8.3333333333332291E-3</v>
+      </c>
+      <c r="H35" s="213">
+        <f>AVERAGE(H21:H32)</f>
+        <v>-1.7499999999999998E-2</v>
+      </c>
+      <c r="I35" s="213">
+        <f>AVERAGE(I21:I32)</f>
+        <v>4.9166666666666727E-2</v>
+      </c>
+      <c r="J35" s="214">
+        <f>AVERAGE(J21:J32)</f>
+        <v>3.9166666666666759E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="175">
+        <f>P22</f>
+        <v>0.03</v>
+      </c>
+      <c r="C36" s="137">
+        <f>Q22</f>
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="137">
+        <f>R22</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E36" s="48">
+        <f>P23</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F36" s="58">
+        <f>Q23</f>
+        <v>0.98</v>
+      </c>
+      <c r="G36" s="46">
+        <f>R23</f>
+        <v>0.92</v>
+      </c>
+      <c r="H36" s="137">
+        <f>P24</f>
+        <v>0.8</v>
+      </c>
+      <c r="I36" s="137">
+        <f>Q24</f>
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="46">
+        <f>R24</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="216">
+        <f>P16</f>
+        <v>0.03</v>
+      </c>
+      <c r="C37" s="217">
+        <f>Q16</f>
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="218">
+        <f>R16</f>
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="174">
+        <f>P17</f>
+        <v>0.39</v>
+      </c>
+      <c r="F37" s="176">
+        <f>Q17</f>
+        <v>0.7</v>
+      </c>
+      <c r="G37" s="218">
+        <f>R17</f>
+        <v>0.63</v>
+      </c>
+      <c r="H37" s="217">
+        <f>P18</f>
+        <v>0.67</v>
+      </c>
+      <c r="I37" s="217">
+        <f>Q18</f>
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="218">
+        <f>R18</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="179" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="48">
+        <f>U16</f>
+        <v>0.12</v>
+      </c>
+      <c r="C38" s="137">
+        <f>V16</f>
+        <v>0.36</v>
+      </c>
+      <c r="D38" s="177">
+        <f>W16</f>
+        <v>0.03</v>
+      </c>
+      <c r="E38" s="48">
+        <f>U17</f>
+        <v>0.18</v>
+      </c>
+      <c r="F38" s="58">
+        <f>V17</f>
+        <v>0.15</v>
+      </c>
+      <c r="G38" s="178">
+        <f>W17</f>
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="137">
+        <f>U18</f>
+        <v>0.43</v>
+      </c>
+      <c r="I38" s="137">
+        <f>V18</f>
+        <v>0.37</v>
+      </c>
+      <c r="J38" s="46">
+        <f>W18</f>
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522180D-F88B-4A26-9A14-CAA2DCEBA3C7}">
+  <dimension ref="A1:W108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R88" sqref="R88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="51"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3" s="84">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D3" s="93">
+        <f t="shared" ref="D3:D14" si="0">B3-C3</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E3" s="83">
+        <v>3.9</v>
+      </c>
+      <c r="F3" s="84">
+        <v>3.88</v>
+      </c>
+      <c r="G3" s="85">
+        <f>E3-F3</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H3" s="83">
+        <v>2.8</v>
+      </c>
+      <c r="I3" s="84">
+        <v>2.71</v>
+      </c>
+      <c r="J3" s="85">
+        <f t="shared" ref="J3:J14" si="1">H3-I3</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="L3" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="86">
+        <v>4.3</v>
+      </c>
+      <c r="C4" s="82">
+        <v>4.59</v>
+      </c>
+      <c r="D4" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="E4" s="86">
+        <v>4</v>
+      </c>
+      <c r="F4" s="82">
+        <v>3.98</v>
+      </c>
+      <c r="G4" s="87">
+        <f t="shared" ref="G4:G14" si="2">E4-F4</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H4" s="86">
+        <v>2.9</v>
+      </c>
+      <c r="I4" s="82">
+        <v>2.79</v>
+      </c>
+      <c r="J4" s="87">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="82">
+        <v>4.2</v>
+      </c>
+      <c r="D5" s="94">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="82">
+        <v>4.09</v>
+      </c>
+      <c r="G5" s="87">
+        <f t="shared" si="2"/>
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="H5" s="86">
+        <v>3.1</v>
+      </c>
+      <c r="I5" s="82">
+        <v>2.9</v>
+      </c>
+      <c r="J5" s="87">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="86">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C6" s="82">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D6" s="94">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="E6" s="86">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="82">
+        <v>4.24</v>
+      </c>
+      <c r="G6" s="87">
+        <f t="shared" si="2"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="H6" s="86">
+        <v>3.2</v>
+      </c>
+      <c r="I6" s="82">
+        <v>3.08</v>
+      </c>
+      <c r="J6" s="87">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="54">
+        <v>1</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0.36</v>
+      </c>
+      <c r="N6" s="54">
+        <v>0.39</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0.37</v>
+      </c>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="86">
+        <v>4</v>
+      </c>
+      <c r="C7" s="82">
+        <v>4</v>
+      </c>
+      <c r="D7" s="94">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="86">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7" s="82">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G7" s="87">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="H7" s="86">
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="82">
+        <v>3.17</v>
+      </c>
+      <c r="J7" s="87">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="54">
+        <v>2</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0.63</v>
+      </c>
+      <c r="N7" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="C8" s="82">
+        <v>3.94</v>
+      </c>
+      <c r="D8" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.14000000000000012</v>
+      </c>
+      <c r="E8" s="86">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="82">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G8" s="87">
+        <f t="shared" si="2"/>
+        <v>0.13999999999999968</v>
+      </c>
+      <c r="H8" s="86">
+        <v>3.1</v>
+      </c>
+      <c r="I8" s="82">
+        <v>3.11</v>
+      </c>
+      <c r="J8" s="87">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="55">
+        <v>3</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0.68</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0.26</v>
+      </c>
+      <c r="O8" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="C9" s="82">
+        <v>3.74</v>
+      </c>
+      <c r="D9" s="94">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="E9" s="86">
+        <v>4.3</v>
+      </c>
+      <c r="F9" s="82">
+        <v>4.38</v>
+      </c>
+      <c r="G9" s="87">
+        <f t="shared" si="2"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="H9" s="86">
+        <v>3.1</v>
+      </c>
+      <c r="I9" s="82">
+        <v>2.97</v>
+      </c>
+      <c r="J9" s="87">
+        <f t="shared" si="1"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="C10" s="82">
+        <v>3.92</v>
+      </c>
+      <c r="D10" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="E10" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="F10" s="82">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G10" s="87">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="H10" s="86">
+        <v>3</v>
+      </c>
+      <c r="I10" s="82">
+        <v>2.96</v>
+      </c>
+      <c r="J10" s="87">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="C11" s="82">
+        <v>3.9</v>
+      </c>
+      <c r="D11" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="E11" s="86">
+        <v>4</v>
+      </c>
+      <c r="F11" s="82">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="87">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="H11" s="86">
+        <v>2.7</v>
+      </c>
+      <c r="I11" s="82">
+        <v>2.89</v>
+      </c>
+      <c r="J11" s="87">
+        <f t="shared" si="1"/>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="L11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="82">
+        <v>3.9</v>
+      </c>
+      <c r="D12" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="E12" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="F12" s="82">
+        <v>3.99</v>
+      </c>
+      <c r="G12" s="87">
+        <f t="shared" si="2"/>
+        <v>-0.19000000000000039</v>
+      </c>
+      <c r="H12" s="86">
+        <v>2.7</v>
+      </c>
+      <c r="I12" s="82">
+        <v>2.66</v>
+      </c>
+      <c r="J12" s="87">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="88">
+        <v>4.2</v>
+      </c>
+      <c r="C13" s="89">
+        <v>3.9</v>
+      </c>
+      <c r="D13" s="95">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="E13" s="86">
+        <v>3.8</v>
+      </c>
+      <c r="F13" s="82">
+        <v>3.76</v>
+      </c>
+      <c r="G13" s="87">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H13" s="86">
+        <v>2.7</v>
+      </c>
+      <c r="I13" s="82">
+        <v>2.69</v>
+      </c>
+      <c r="J13" s="87">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="91">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C14" s="92">
+        <v>4.47</v>
+      </c>
+      <c r="D14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.4300000000000006</v>
+      </c>
+      <c r="E14" s="88">
+        <v>3.7</v>
+      </c>
+      <c r="F14" s="89">
+        <v>3.79</v>
+      </c>
+      <c r="G14" s="90">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="H14" s="88">
+        <v>2.7</v>
+      </c>
+      <c r="I14" s="89">
+        <v>2.68</v>
+      </c>
+      <c r="J14" s="90">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="108">
+        <f>AVERAGE(B3:B14)</f>
+        <v>4.1083333333333325</v>
+      </c>
+      <c r="C15" s="108">
+        <f>AVERAGE(C3:C14)</f>
+        <v>4.1049999999999995</v>
+      </c>
+      <c r="D15" s="116">
+        <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
+        <v>3.3333333333333361E-3</v>
+      </c>
+      <c r="E15" s="114">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F15" s="108">
+        <f t="shared" si="3"/>
+        <v>4.0991666666666662</v>
+      </c>
+      <c r="G15" s="109">
+        <f t="shared" si="3"/>
+        <v>8.3333333333338955E-4</v>
+      </c>
+      <c r="H15" s="108">
+        <f t="shared" si="3"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="I15" s="108">
+        <f>AVERAGE(I3:I14)</f>
+        <v>2.8841666666666672</v>
+      </c>
+      <c r="J15" s="109">
+        <f t="shared" si="3"/>
+        <v>4.9166666666666727E-2</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="117">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="112">
+        <v>0.98</v>
+      </c>
+      <c r="J16" s="112">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="115"/>
+      <c r="G17" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D100" s="98"/>
+      <c r="E100" s="99"/>
+    </row>
+    <row r="101" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D101" s="100"/>
+      <c r="E101" s="101"/>
+    </row>
+    <row r="102" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D102" s="100"/>
+      <c r="E102" s="101"/>
+    </row>
+    <row r="103" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="100"/>
+      <c r="E103" s="101"/>
+    </row>
+    <row r="104" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D104" s="100"/>
+      <c r="E104" s="101"/>
+    </row>
+    <row r="105" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D105" s="100"/>
+      <c r="E105" s="101"/>
+    </row>
+    <row r="106" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D106" s="100"/>
+      <c r="E106" s="101"/>
+    </row>
+    <row r="107" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="100"/>
+      <c r="E107" s="101"/>
+    </row>
+    <row r="108" spans="4:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="D108" s="102"/>
+      <c r="E108" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L3:O4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M6:O8">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>"&gt;=0.05"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>"&lt;0.05"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A86CC4-8F03-4DC3-9AA8-DB821712665C}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7951,26 +10830,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="133" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="198" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="198" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199"/>
       <c r="K1" s="51"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="132"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
     </row>
     <row r="2" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
@@ -8037,12 +10916,12 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="138" t="s">
+      <c r="L3" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="207"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
@@ -8079,10 +10958,10 @@
         <f t="shared" si="2"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="143"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="209"/>
       <c r="Q4" s="33"/>
       <c r="R4" s="33"/>
       <c r="S4" s="33"/>
@@ -8465,7 +11344,7 @@
       <c r="L13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="154">
+      <c r="M13" s="130">
         <v>0.03</v>
       </c>
       <c r="Q13" s="33"/>
@@ -8560,20 +11439,20 @@
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="127">
+      <c r="D17" s="126">
         <v>2.7E-2</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="122">
         <v>0.58309999999999995</v>
       </c>
       <c r="J17" s="111">
@@ -8607,716 +11486,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522180D-F88B-4A26-9A14-CAA2DCEBA3C7}">
-  <dimension ref="A1:W108"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F045DFA-AA87-4342-BAAF-AC7CC90E04F0}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="144" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="144" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+    <row r="1" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="198" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="198" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199"/>
       <c r="K1" s="51"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="66" t="s">
         <v>196</v>
       </c>
       <c r="K2" s="51"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="83">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C3" s="84">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="D3" s="93">
+    </row>
+    <row r="3" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="39">
         <f t="shared" ref="D3:D14" si="0">B3-C3</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="E3" s="83">
-        <v>3.9</v>
-      </c>
-      <c r="F3" s="84">
-        <v>3.88</v>
-      </c>
-      <c r="G3" s="85">
-        <f>E3-F3</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H3" s="83">
-        <v>2.8</v>
-      </c>
-      <c r="I3" s="84">
-        <v>2.71</v>
-      </c>
-      <c r="J3" s="85">
-        <f t="shared" ref="J3:J14" si="1">H3-I3</f>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="L3" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="45">
+        <f t="shared" ref="G3:G14" si="1">E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="45">
+        <f t="shared" ref="J3:J14" si="2">H3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86">
-        <v>4.3</v>
-      </c>
-      <c r="C4" s="82">
-        <v>4.59</v>
-      </c>
-      <c r="D4" s="94">
-        <f t="shared" si="0"/>
-        <v>-0.29000000000000004</v>
-      </c>
-      <c r="E4" s="86">
-        <v>4</v>
-      </c>
-      <c r="F4" s="82">
-        <v>3.98</v>
-      </c>
-      <c r="G4" s="87">
-        <f t="shared" ref="G4:G14" si="2">E4-F4</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H4" s="86">
-        <v>2.9</v>
-      </c>
-      <c r="I4" s="82">
-        <v>2.79</v>
-      </c>
-      <c r="J4" s="87">
-        <f t="shared" si="1"/>
-        <v>0.10999999999999988</v>
-      </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="82">
-        <v>4.2</v>
-      </c>
-      <c r="D5" s="94">
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="207"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="F5" s="82">
-        <v>4.09</v>
-      </c>
-      <c r="G5" s="87">
+      <c r="E4" s="33"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="39">
         <f t="shared" si="2"/>
-        <v>0.11000000000000032</v>
-      </c>
-      <c r="H5" s="86">
-        <v>3.1</v>
-      </c>
-      <c r="I5" s="82">
-        <v>2.9</v>
-      </c>
-      <c r="J5" s="87">
+        <v>0</v>
+      </c>
+      <c r="L4" s="208"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="209"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="86">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C6" s="82">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D6" s="94">
+    </row>
+    <row r="6" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="39">
         <f t="shared" si="0"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="E6" s="86">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F6" s="82">
-        <v>4.24</v>
-      </c>
-      <c r="G6" s="87">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="39">
         <f t="shared" si="2"/>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="H6" s="86">
-        <v>3.2</v>
-      </c>
-      <c r="I6" s="82">
-        <v>3.08</v>
-      </c>
-      <c r="J6" s="87">
-        <f t="shared" si="1"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="K6" s="39"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="54">
         <v>1</v>
       </c>
-      <c r="M6" s="54">
-        <v>0.36</v>
-      </c>
-      <c r="N6" s="54">
-        <v>0.39</v>
-      </c>
-      <c r="O6" s="52">
-        <v>0.37</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="86">
-        <v>4</v>
-      </c>
-      <c r="C7" s="82">
-        <v>4</v>
-      </c>
-      <c r="D7" s="94">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="86">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F7" s="82">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G7" s="87">
+      <c r="E7" s="33"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="39">
         <f t="shared" si="2"/>
-        <v>1.0000000000000675E-2</v>
-      </c>
-      <c r="H7" s="86">
-        <v>3.2</v>
-      </c>
-      <c r="I7" s="82">
-        <v>3.17</v>
-      </c>
-      <c r="J7" s="87">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="K7" s="39"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="54">
         <v>2</v>
       </c>
-      <c r="M7" s="54">
-        <v>0.63</v>
-      </c>
-      <c r="N7" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="C8" s="82">
-        <v>3.94</v>
-      </c>
-      <c r="D8" s="94">
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="56"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="39">
         <f t="shared" si="0"/>
-        <v>-0.14000000000000012</v>
-      </c>
-      <c r="E8" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="82">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="G8" s="87">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="39">
         <f t="shared" si="2"/>
-        <v>0.13999999999999968</v>
-      </c>
-      <c r="H8" s="86">
-        <v>3.1</v>
-      </c>
-      <c r="I8" s="82">
-        <v>3.11</v>
-      </c>
-      <c r="J8" s="87">
-        <f t="shared" si="1"/>
-        <v>-9.9999999999997868E-3</v>
-      </c>
-      <c r="K8" s="39"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="55">
         <v>3</v>
       </c>
-      <c r="M8" s="55">
-        <v>0.68</v>
-      </c>
-      <c r="N8" s="55">
-        <v>0.26</v>
-      </c>
-      <c r="O8" s="53">
-        <v>0.68</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="C9" s="82">
-        <v>3.74</v>
-      </c>
-      <c r="D9" s="94">
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="39">
         <f t="shared" si="0"/>
-        <v>5.9999999999999609E-2</v>
-      </c>
-      <c r="E9" s="86">
-        <v>4.3</v>
-      </c>
-      <c r="F9" s="82">
-        <v>4.38</v>
-      </c>
-      <c r="G9" s="87">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="39">
         <f t="shared" si="2"/>
-        <v>-8.0000000000000071E-2</v>
-      </c>
-      <c r="H9" s="86">
-        <v>3.1</v>
-      </c>
-      <c r="I9" s="82">
-        <v>2.97</v>
-      </c>
-      <c r="J9" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48">
+        <f>AVERAGE(G3:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
-        <v>0.12999999999999989</v>
-      </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="C10" s="82">
-        <v>3.92</v>
-      </c>
-      <c r="D10" s="94">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
-        <v>-0.12000000000000011</v>
-      </c>
-      <c r="E10" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="F10" s="82">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G10" s="87">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="39">
         <f t="shared" si="2"/>
-        <v>-3.0000000000000249E-2</v>
-      </c>
-      <c r="H10" s="86">
-        <v>3</v>
-      </c>
-      <c r="I10" s="82">
-        <v>2.96</v>
-      </c>
-      <c r="J10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="C11" s="82">
-        <v>3.9</v>
-      </c>
-      <c r="D11" s="94">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="39">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="E11" s="86">
-        <v>4</v>
-      </c>
-      <c r="F11" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G11" s="87">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39">
         <f t="shared" si="2"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="H11" s="86">
-        <v>2.7</v>
-      </c>
-      <c r="I11" s="82">
-        <v>2.89</v>
-      </c>
-      <c r="J11" s="87">
-        <f t="shared" si="1"/>
-        <v>-0.18999999999999995</v>
-      </c>
-      <c r="L11" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="C12" s="82">
-        <v>3.9</v>
-      </c>
-      <c r="D12" s="94">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="E12" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="F12" s="82">
-        <v>3.99</v>
-      </c>
-      <c r="G12" s="87">
-        <f t="shared" si="2"/>
-        <v>-0.19000000000000039</v>
-      </c>
-      <c r="H12" s="86">
-        <v>2.7</v>
-      </c>
-      <c r="I12" s="82">
-        <v>2.66</v>
-      </c>
-      <c r="J12" s="87">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="M12" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="88">
-        <v>4.2</v>
-      </c>
-      <c r="C13" s="89">
-        <v>3.9</v>
-      </c>
-      <c r="D13" s="95">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="E13" s="86">
-        <v>3.8</v>
-      </c>
-      <c r="F13" s="82">
-        <v>3.76</v>
-      </c>
-      <c r="G13" s="87">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="H13" s="86">
-        <v>2.7</v>
-      </c>
-      <c r="I13" s="82">
-        <v>2.69</v>
-      </c>
-      <c r="J13" s="87">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000231E-2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="91">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C14" s="92">
-        <v>4.47</v>
-      </c>
-      <c r="D14" s="96">
+      <c r="M13" s="130"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="40">
         <f t="shared" si="0"/>
-        <v>0.4300000000000006</v>
-      </c>
-      <c r="E14" s="88">
-        <v>3.7</v>
-      </c>
-      <c r="F14" s="89">
-        <v>3.79</v>
-      </c>
-      <c r="G14" s="90">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40">
         <f t="shared" si="2"/>
-        <v>-8.9999999999999858E-2</v>
-      </c>
-      <c r="H14" s="88">
-        <v>2.7</v>
-      </c>
-      <c r="I14" s="89">
-        <v>2.68</v>
-      </c>
-      <c r="J14" s="90">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="39">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="48" t="e">
         <f>AVERAGE(B3:B14)</f>
-        <v>4.1083333333333325</v>
-      </c>
-      <c r="C15" s="108">
-        <f>AVERAGE(C3:C14)</f>
-        <v>4.1049999999999995</v>
-      </c>
-      <c r="D15" s="116">
-        <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
-        <v>3.3333333333333361E-3</v>
-      </c>
-      <c r="E15" s="114">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="48" t="e">
+        <f t="shared" ref="C15:J15" si="3">AVERAGE(C3:C14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="48">
         <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F15" s="108">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48" t="e">
         <f t="shared" si="3"/>
-        <v>4.0991666666666662</v>
-      </c>
-      <c r="G15" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="48" t="e">
         <f t="shared" si="3"/>
-        <v>8.3333333333338955E-4</v>
-      </c>
-      <c r="H15" s="108">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="48" t="e">
         <f t="shared" si="3"/>
-        <v>2.9333333333333336</v>
-      </c>
-      <c r="I15" s="108">
-        <f>AVERAGE(I3:I14)</f>
-        <v>2.8841666666666672</v>
-      </c>
-      <c r="J15" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="48" t="e">
         <f t="shared" si="3"/>
-        <v>4.9166666666666727E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="40">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="117">
-        <v>0.45</v>
-      </c>
-      <c r="G16" s="112">
-        <v>0.98</v>
-      </c>
-      <c r="J16" s="112">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="113" t="s">
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="G17" s="113" t="s">
+      <c r="G16" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D100" s="98"/>
-      <c r="E100" s="99"/>
-    </row>
-    <row r="101" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D101" s="100"/>
-      <c r="E101" s="101"/>
-    </row>
-    <row r="102" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D102" s="100"/>
-      <c r="E102" s="101"/>
-    </row>
-    <row r="103" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D103" s="100"/>
-      <c r="E103" s="101"/>
-    </row>
-    <row r="104" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D104" s="100"/>
-      <c r="E104" s="101"/>
-    </row>
-    <row r="105" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D105" s="100"/>
-      <c r="E105" s="101"/>
-    </row>
-    <row r="106" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D106" s="100"/>
-      <c r="E106" s="101"/>
-    </row>
-    <row r="107" spans="4:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D107" s="100"/>
-      <c r="E107" s="101"/>
-    </row>
-    <row r="108" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D108" s="102"/>
-      <c r="E108" s="103"/>
+    <row r="17" spans="4:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G17" s="122">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="J17" s="111">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9334,36 +11918,35 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF7217-6579-4043-9043-94ED9D7FA082}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK82" sqref="AK82"/>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="144" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="144" t="s">
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199"/>
       <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:22" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -9418,7 +12001,7 @@
         <v>3.79</v>
       </c>
       <c r="G3" s="85">
-        <f>E3-F3</f>
+        <f t="shared" ref="G3:G14" si="1">E3-F3</f>
         <v>0.10999999999999988</v>
       </c>
       <c r="H3" s="83">
@@ -9428,15 +12011,15 @@
         <v>2.69</v>
       </c>
       <c r="J3" s="85">
-        <f t="shared" ref="J3:J14" si="1">H3-I3</f>
+        <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
@@ -9460,7 +12043,7 @@
         <v>3.92</v>
       </c>
       <c r="G4" s="87">
-        <f>E4-F4</f>
+        <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="H4" s="86">
@@ -9470,13 +12053,13 @@
         <v>2.75</v>
       </c>
       <c r="J4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
       <c r="Q4" s="33"/>
       <c r="R4" s="33"/>
       <c r="S4" s="33"/>
@@ -9502,7 +12085,7 @@
         <v>3.99</v>
       </c>
       <c r="G5" s="87">
-        <f>E5-F5</f>
+        <f t="shared" si="1"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="H5" s="86">
@@ -9512,7 +12095,7 @@
         <v>2.83</v>
       </c>
       <c r="J5" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
       <c r="K5" s="39"/>
@@ -9553,7 +12136,7 @@
         <v>4.22</v>
       </c>
       <c r="G6" s="87">
-        <f>E6-F6</f>
+        <f t="shared" si="1"/>
         <v>0.1800000000000006</v>
       </c>
       <c r="H6" s="86">
@@ -9563,14 +12146,14 @@
         <v>3</v>
       </c>
       <c r="J6" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="54">
         <v>1</v>
       </c>
-      <c r="M6" s="155">
+      <c r="M6" s="131">
         <v>0.03</v>
       </c>
       <c r="N6" s="54">
@@ -9604,7 +12187,7 @@
         <v>4.46</v>
       </c>
       <c r="G7" s="87">
-        <f>E7-F7</f>
+        <f t="shared" si="1"/>
         <v>-5.9999999999999609E-2</v>
       </c>
       <c r="H7" s="86">
@@ -9614,7 +12197,7 @@
         <v>3.13</v>
       </c>
       <c r="J7" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="K7" s="39"/>
@@ -9655,7 +12238,7 @@
         <v>4.45</v>
       </c>
       <c r="G8" s="87">
-        <f>E8-F8</f>
+        <f t="shared" si="1"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="H8" s="86">
@@ -9665,7 +12248,7 @@
         <v>3.17</v>
       </c>
       <c r="J8" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.999999999999984E-2</v>
       </c>
       <c r="K8" s="39"/>
@@ -9706,7 +12289,7 @@
         <v>4.51</v>
       </c>
       <c r="G9" s="87">
-        <f>E9-F9</f>
+        <f t="shared" si="1"/>
         <v>-0.20999999999999996</v>
       </c>
       <c r="H9" s="86">
@@ -9716,7 +12299,7 @@
         <v>3.05</v>
       </c>
       <c r="J9" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="Q9" s="33"/>
@@ -9744,7 +12327,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="G10" s="87">
-        <f>E10-F10</f>
+        <f t="shared" si="1"/>
         <v>-6.9999999999999396E-2</v>
       </c>
       <c r="H10" s="86">
@@ -9754,7 +12337,7 @@
         <v>3.07</v>
       </c>
       <c r="J10" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.999999999999984E-2</v>
       </c>
       <c r="Q10" s="33"/>
@@ -9782,7 +12365,7 @@
         <v>4.08</v>
       </c>
       <c r="G11" s="87">
-        <f>E11-F11</f>
+        <f t="shared" si="1"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="H11" s="86">
@@ -9792,7 +12375,7 @@
         <v>2.99</v>
       </c>
       <c r="J11" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="L11" t="s">
@@ -9823,7 +12406,7 @@
         <v>3.95</v>
       </c>
       <c r="G12" s="87">
-        <f>E12-F12</f>
+        <f t="shared" si="1"/>
         <v>-0.15000000000000036</v>
       </c>
       <c r="H12" s="86">
@@ -9833,7 +12416,7 @@
         <v>2.67</v>
       </c>
       <c r="J12" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000249E-2</v>
       </c>
       <c r="L12" s="70" t="s">
@@ -9867,7 +12450,7 @@
         <v>3.82</v>
       </c>
       <c r="G13" s="87">
-        <f>E13-F13</f>
+        <f t="shared" si="1"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="H13" s="86">
@@ -9877,13 +12460,13 @@
         <v>2.68</v>
       </c>
       <c r="J13" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="L13" s="153" t="s">
+      <c r="L13" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="154">
+      <c r="M13" s="130">
         <v>0.01</v>
       </c>
       <c r="Q13" s="33"/>
@@ -9911,7 +12494,7 @@
         <v>3.84</v>
       </c>
       <c r="G14" s="90">
-        <f>E14-F14</f>
+        <f t="shared" si="1"/>
         <v>-0.13999999999999968</v>
       </c>
       <c r="H14" s="88">
@@ -9921,7 +12504,7 @@
         <v>2.7</v>
       </c>
       <c r="J14" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="60" t="s">
@@ -9946,11 +12529,11 @@
         <v>4.0916666666666659</v>
       </c>
       <c r="D15" s="116">
-        <f t="shared" ref="D15:J15" si="2">AVERAGE(D3:D14)</f>
+        <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
         <v>1.6666666666666607E-2</v>
       </c>
       <c r="E15" s="114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="F15" s="108">
@@ -9958,11 +12541,11 @@
         <v>4.1083333333333334</v>
       </c>
       <c r="G15" s="109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.3333333333332291E-3</v>
       </c>
       <c r="H15" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
       <c r="I15" s="108">
@@ -9970,7 +12553,7 @@
         <v>2.894166666666667</v>
       </c>
       <c r="J15" s="109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9166666666666759E-2</v>
       </c>
       <c r="L15" s="47" t="s">
@@ -9995,14 +12578,14 @@
     </row>
     <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="115"/>
       <c r="G17" s="113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D5C7D-2961-4D13-9A6A-9E4D5A0B483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A3109-3415-4EEB-B8B2-1E9EBE4FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
@@ -2213,7 +2213,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2524,96 +2524,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2660,15 +2570,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,21 +2580,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2746,7 +2632,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2830,8 +2716,7 @@
     </xf>
     <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2922,6 +2807,117 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7755,13 +7751,13 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="178">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C2" s="211">
+      <c r="C2" s="178">
         <v>3.9</v>
       </c>
-      <c r="D2" s="210">
+      <c r="D2" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -7769,13 +7765,13 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="178">
         <v>4.3</v>
       </c>
-      <c r="C3" s="211">
+      <c r="C3" s="178">
         <v>4</v>
       </c>
-      <c r="D3" s="210">
+      <c r="D3" s="177">
         <v>2.9</v>
       </c>
     </row>
@@ -7783,13 +7779,13 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="178">
         <v>4.2</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="178">
         <v>4.2</v>
       </c>
-      <c r="D4" s="210">
+      <c r="D4" s="177">
         <v>3.1</v>
       </c>
     </row>
@@ -7797,13 +7793,13 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="211">
+      <c r="B5" s="178">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C5" s="211">
+      <c r="C5" s="178">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="210">
+      <c r="D5" s="177">
         <v>3.2</v>
       </c>
     </row>
@@ -7811,13 +7807,13 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="211">
+      <c r="B6" s="178">
         <v>4</v>
       </c>
-      <c r="C6" s="211">
+      <c r="C6" s="178">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D6" s="210">
+      <c r="D6" s="177">
         <v>3.2</v>
       </c>
     </row>
@@ -7825,13 +7821,13 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211">
+      <c r="B7" s="178">
         <v>3.8</v>
       </c>
-      <c r="C7" s="211">
+      <c r="C7" s="178">
         <v>4.5</v>
       </c>
-      <c r="D7" s="210">
+      <c r="D7" s="177">
         <v>3.1</v>
       </c>
     </row>
@@ -7839,13 +7835,13 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="211">
+      <c r="B8" s="178">
         <v>3.8</v>
       </c>
-      <c r="C8" s="211">
+      <c r="C8" s="178">
         <v>4.3</v>
       </c>
-      <c r="D8" s="210">
+      <c r="D8" s="177">
         <v>3.1</v>
       </c>
     </row>
@@ -7853,13 +7849,13 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="211">
+      <c r="B9" s="178">
         <v>3.8</v>
       </c>
-      <c r="C9" s="211">
+      <c r="C9" s="178">
         <v>4.2</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="177">
         <v>3</v>
       </c>
     </row>
@@ -7867,13 +7863,13 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="211">
+      <c r="B10" s="178">
         <v>3.8</v>
       </c>
-      <c r="C10" s="211">
+      <c r="C10" s="178">
         <v>4</v>
       </c>
-      <c r="D10" s="210">
+      <c r="D10" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -7881,13 +7877,13 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="178">
         <v>3.8</v>
       </c>
-      <c r="C11" s="211">
+      <c r="C11" s="178">
         <v>3.8</v>
       </c>
-      <c r="D11" s="210">
+      <c r="D11" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -7895,13 +7891,13 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="211">
+      <c r="B12" s="178">
         <v>4.2</v>
       </c>
-      <c r="C12" s="211">
+      <c r="C12" s="178">
         <v>3.8</v>
       </c>
-      <c r="D12" s="210">
+      <c r="D12" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -7909,13 +7905,13 @@
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="212">
+      <c r="B13" s="179">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C13" s="212">
+      <c r="C13" s="179">
         <v>3.7</v>
       </c>
-      <c r="D13" s="213">
+      <c r="D13" s="180">
         <v>2.7</v>
       </c>
     </row>
@@ -7939,163 +7935,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="304" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="218" t="s">
+      <c r="C1" s="305"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="307" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="218" t="s">
+      <c r="F1" s="307"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="219"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="308"/>
       <c r="K1" s="45"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
     </row>
     <row r="2" spans="1:21" ht="30.75" thickBot="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="183" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="223" t="s">
+      <c r="H2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="223" t="s">
+      <c r="I2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="224" t="s">
+      <c r="J2" s="186" t="s">
         <v>195</v>
       </c>
       <c r="K2" s="45"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
     </row>
     <row r="3" spans="1:21" ht="18" thickBot="1">
-      <c r="B3" s="225">
+      <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="226">
+      <c r="C3" s="188">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D3" s="227">
+      <c r="D3" s="189">
         <f>B3-C3</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="E3" s="228">
+      <c r="E3" s="190">
         <v>3.9</v>
       </c>
-      <c r="F3" s="229">
+      <c r="F3" s="191">
         <v>3.8</v>
       </c>
-      <c r="G3" s="230">
+      <c r="G3" s="192">
         <f t="shared" ref="G3:G14" si="0">E3-F3</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H3" s="228">
+      <c r="H3" s="190">
         <v>2.8</v>
       </c>
-      <c r="I3" s="229">
+      <c r="I3" s="191">
         <v>2.7</v>
       </c>
-      <c r="J3" s="230">
+      <c r="J3" s="192">
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="299" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="187"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="301"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1">
-      <c r="B4" s="225">
+      <c r="B4" s="187">
         <v>4.3</v>
       </c>
-      <c r="C4" s="231">
+      <c r="C4" s="193">
         <v>4.62</v>
       </c>
-      <c r="D4" s="227">
+      <c r="D4" s="189">
         <f t="shared" ref="D4:D14" si="2">B4-C4</f>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="E4" s="231">
+      <c r="E4" s="193">
         <v>4</v>
       </c>
-      <c r="F4" s="232">
+      <c r="F4" s="194">
         <v>3.93</v>
       </c>
-      <c r="G4" s="227">
+      <c r="G4" s="189">
         <f t="shared" si="0"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="H4" s="231">
+      <c r="H4" s="193">
         <v>2.9</v>
       </c>
-      <c r="I4" s="232">
+      <c r="I4" s="194">
         <v>2.83</v>
       </c>
-      <c r="J4" s="227">
+      <c r="J4" s="189">
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="189"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="303"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1">
-      <c r="B5" s="225">
+      <c r="B5" s="187">
         <v>4.2</v>
       </c>
-      <c r="C5" s="231">
+      <c r="C5" s="193">
         <v>4.26</v>
       </c>
-      <c r="D5" s="227">
+      <c r="D5" s="189">
         <f t="shared" si="2"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-      <c r="E5" s="231">
+      <c r="E5" s="193">
         <v>4.2</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="194">
         <v>4.0199999999999996</v>
       </c>
-      <c r="G5" s="227">
+      <c r="G5" s="189">
         <f t="shared" si="0"/>
         <v>0.1800000000000006</v>
       </c>
-      <c r="H5" s="231">
+      <c r="H5" s="193">
         <v>3.1</v>
       </c>
-      <c r="I5" s="232">
+      <c r="I5" s="194">
         <v>2.92</v>
       </c>
-      <c r="J5" s="227">
+      <c r="J5" s="189">
         <f t="shared" si="1"/>
         <v>0.18000000000000016</v>
       </c>
@@ -8111,37 +8107,37 @@
       <c r="O5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="209"/>
-      <c r="U5" s="209"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1">
-      <c r="B6" s="225">
+      <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="231">
+      <c r="C6" s="193">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D6" s="227">
+      <c r="D6" s="189">
         <f t="shared" si="2"/>
         <v>-0.13000000000000078</v>
       </c>
-      <c r="E6" s="231">
+      <c r="E6" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="194">
         <v>4.25</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="189">
         <f t="shared" si="0"/>
         <v>0.15000000000000036</v>
       </c>
-      <c r="H6" s="231">
+      <c r="H6" s="193">
         <v>3.2</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="194">
         <v>3.15</v>
       </c>
-      <c r="J6" s="227">
+      <c r="J6" s="189">
         <f t="shared" si="1"/>
         <v>5.0000000000000266E-2</v>
       </c>
@@ -8157,37 +8153,37 @@
       <c r="O6" s="46">
         <v>0.4</v>
       </c>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1">
-      <c r="B7" s="225">
+      <c r="B7" s="187">
         <v>4</v>
       </c>
-      <c r="C7" s="231">
+      <c r="C7" s="193">
         <v>4.12</v>
       </c>
-      <c r="D7" s="227">
+      <c r="D7" s="189">
         <f t="shared" si="2"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="E7" s="231">
+      <c r="E7" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="232">
+      <c r="F7" s="194">
         <v>4.43</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="189">
         <f t="shared" si="0"/>
         <v>-2.9999999999999361E-2</v>
       </c>
-      <c r="H7" s="231">
+      <c r="H7" s="193">
         <v>3.2</v>
       </c>
-      <c r="I7" s="232">
+      <c r="I7" s="194">
         <v>3.22</v>
       </c>
-      <c r="J7" s="227">
+      <c r="J7" s="189">
         <f t="shared" si="1"/>
         <v>-2.0000000000000018E-2</v>
       </c>
@@ -8203,37 +8199,37 @@
       <c r="O7" s="50">
         <v>0.69</v>
       </c>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
-      <c r="B8" s="225">
+      <c r="B8" s="187">
         <v>3.8</v>
       </c>
-      <c r="C8" s="231">
+      <c r="C8" s="193">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="189">
         <f t="shared" si="2"/>
         <v>-0.21999999999999975</v>
       </c>
-      <c r="E8" s="231">
+      <c r="E8" s="193">
         <v>4.5</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="194">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G8" s="227">
+      <c r="G8" s="189">
         <f t="shared" si="0"/>
         <v>0.15000000000000036</v>
       </c>
-      <c r="H8" s="231">
+      <c r="H8" s="193">
         <v>3.1</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="194">
         <v>3.2</v>
       </c>
-      <c r="J8" s="227">
+      <c r="J8" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
@@ -8249,180 +8245,180 @@
       <c r="O8" s="47">
         <v>0.79</v>
       </c>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1">
-      <c r="B9" s="225">
+      <c r="B9" s="187">
         <v>3.8</v>
       </c>
-      <c r="C9" s="231">
+      <c r="C9" s="193">
         <v>3.8</v>
       </c>
-      <c r="D9" s="227">
+      <c r="D9" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="231">
+      <c r="E9" s="193">
         <v>4.3</v>
       </c>
-      <c r="F9" s="232">
+      <c r="F9" s="194">
         <v>4.5</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="189">
         <f t="shared" si="0"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="H9" s="231">
+      <c r="H9" s="193">
         <v>3.1</v>
       </c>
-      <c r="I9" s="232">
+      <c r="I9" s="194">
         <v>3.07</v>
       </c>
-      <c r="J9" s="227">
+      <c r="J9" s="189">
         <f t="shared" si="1"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>1.6666666666668162E-3</v>
       </c>
-      <c r="B10" s="225">
+      <c r="B10" s="187">
         <v>3.8</v>
       </c>
-      <c r="C10" s="231">
+      <c r="C10" s="193">
         <v>3.84</v>
       </c>
-      <c r="D10" s="227">
+      <c r="D10" s="189">
         <f t="shared" si="2"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="E10" s="231">
+      <c r="E10" s="193">
         <v>4.2</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="194">
         <v>4.2</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="189">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="231">
+      <c r="H10" s="193">
         <v>3</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="194">
         <v>3.1</v>
       </c>
-      <c r="J10" s="227">
+      <c r="J10" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
     </row>
     <row r="11" spans="1:21" ht="18" thickBot="1">
-      <c r="B11" s="225">
+      <c r="B11" s="187">
         <v>3.8</v>
       </c>
-      <c r="C11" s="231">
+      <c r="C11" s="193">
         <v>3.82</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="189">
         <f t="shared" si="2"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="E11" s="231">
+      <c r="E11" s="193">
         <v>4</v>
       </c>
-      <c r="F11" s="232">
+      <c r="F11" s="194">
         <v>4.16</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="189">
         <f t="shared" si="0"/>
         <v>-0.16000000000000014</v>
       </c>
-      <c r="H11" s="231">
+      <c r="H11" s="193">
         <v>2.7</v>
       </c>
-      <c r="I11" s="232">
+      <c r="I11" s="194">
         <v>2.97</v>
       </c>
-      <c r="J11" s="227">
+      <c r="J11" s="189">
         <f t="shared" si="1"/>
         <v>-0.27</v>
       </c>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1">
-      <c r="B12" s="225">
+      <c r="B12" s="187">
         <v>3.8</v>
       </c>
-      <c r="C12" s="231">
+      <c r="C12" s="193">
         <v>3.81</v>
       </c>
-      <c r="D12" s="227">
+      <c r="D12" s="189">
         <f t="shared" si="2"/>
         <v>-1.0000000000000231E-2</v>
       </c>
-      <c r="E12" s="231">
+      <c r="E12" s="193">
         <v>3.8</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="194">
         <v>3.94</v>
       </c>
-      <c r="G12" s="227">
+      <c r="G12" s="189">
         <f t="shared" si="0"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="H12" s="231">
+      <c r="H12" s="193">
         <v>2.7</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="194">
         <v>2.62</v>
       </c>
-      <c r="J12" s="227">
+      <c r="J12" s="189">
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="L12" t="s">
         <v>200</v>
       </c>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1">
-      <c r="B13" s="225">
+      <c r="B13" s="187">
         <v>4.2</v>
       </c>
-      <c r="C13" s="231">
+      <c r="C13" s="193">
         <v>3.8</v>
       </c>
-      <c r="D13" s="227">
+      <c r="D13" s="189">
         <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="E13" s="231">
+      <c r="E13" s="193">
         <v>3.8</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="194">
         <v>3.76</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="189">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="H13" s="231">
+      <c r="H13" s="193">
         <v>2.7</v>
       </c>
-      <c r="I13" s="232">
+      <c r="I13" s="194">
         <v>2.7</v>
       </c>
-      <c r="J13" s="227">
+      <c r="J13" s="189">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8432,37 +8428,37 @@
       <c r="M13" s="102">
         <v>0.03</v>
       </c>
-      <c r="T13" s="209"/>
-      <c r="U13" s="209"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1">
-      <c r="B14" s="225">
+      <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="233">
+      <c r="C14" s="195">
         <v>4.25</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="189">
         <f t="shared" si="2"/>
         <v>0.65000000000000036</v>
       </c>
-      <c r="E14" s="233">
+      <c r="E14" s="195">
         <v>3.7</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="196">
         <v>3.84</v>
       </c>
-      <c r="G14" s="235">
+      <c r="G14" s="197">
         <f t="shared" si="0"/>
         <v>-0.13999999999999968</v>
       </c>
-      <c r="H14" s="233">
+      <c r="H14" s="195">
         <v>2.7</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="196">
         <v>2.7</v>
       </c>
-      <c r="J14" s="235">
+      <c r="J14" s="197">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8472,46 +8468,46 @@
       <c r="M14" s="34">
         <v>0.46</v>
       </c>
-      <c r="T14" s="209"/>
-      <c r="U14" s="209"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="237">
+      <c r="B15" s="199">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="237">
-        <f t="shared" ref="C15:J15" si="3">AVERAGE(C3:C14)</f>
+      <c r="C15" s="199">
+        <f t="shared" ref="C15:H15" si="3">AVERAGE(C3:C14)</f>
         <v>4.0941666666666672</v>
       </c>
-      <c r="D15" s="276">
+      <c r="D15" s="204">
         <f t="shared" si="3"/>
         <v>1.4166666666666661E-2</v>
       </c>
-      <c r="E15" s="236">
+      <c r="E15" s="198">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="237">
+      <c r="F15" s="199">
         <f t="shared" si="3"/>
         <v>4.0983333333333327</v>
       </c>
-      <c r="G15" s="242">
+      <c r="G15" s="204">
         <f>AVERAGE(G3:G14)</f>
         <v>1.6666666666668162E-3</v>
       </c>
-      <c r="H15" s="237">
+      <c r="H15" s="199">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="237">
+      <c r="I15" s="199">
         <f>AVERAGE(I3:I14)</f>
         <v>2.9316666666666671</v>
       </c>
-      <c r="J15" s="243">
+      <c r="J15" s="205">
         <f>AVERAGE(J3:J14)</f>
         <v>1.6666666666666681E-3</v>
       </c>
@@ -8523,36 +8519,36 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238" t="s">
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238" t="s">
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
       <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="239">
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="201">
         <v>0.73</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="240">
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="202">
         <v>0.78</v>
       </c>
     </row>
@@ -8591,163 +8587,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="304" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="218" t="s">
+      <c r="C1" s="305"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="307" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="218" t="s">
+      <c r="F1" s="307"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="307" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="219"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="308"/>
       <c r="K1" s="45"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
     </row>
     <row r="2" spans="1:21" ht="30.75" thickBot="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="183" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="223" t="s">
+      <c r="H2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="223" t="s">
+      <c r="I2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="224" t="s">
+      <c r="J2" s="186" t="s">
         <v>195</v>
       </c>
       <c r="K2" s="45"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
     </row>
     <row r="3" spans="1:21" ht="18" thickBot="1">
-      <c r="B3" s="225">
+      <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="226">
+      <c r="C3" s="188">
         <v>4.55</v>
       </c>
-      <c r="D3" s="227">
+      <c r="D3" s="189">
         <f>B3-C3</f>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="E3" s="228">
+      <c r="E3" s="190">
         <v>3.9</v>
       </c>
-      <c r="F3" s="229">
+      <c r="F3" s="191">
         <v>3.8</v>
       </c>
-      <c r="G3" s="230">
+      <c r="G3" s="192">
         <f t="shared" ref="G3:G14" si="0">E3-F3</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H3" s="228">
+      <c r="H3" s="190">
         <v>2.8</v>
       </c>
-      <c r="I3" s="229">
+      <c r="I3" s="191">
         <v>2.7</v>
       </c>
-      <c r="J3" s="230">
+      <c r="J3" s="192">
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="299" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="187"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="301"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1">
-      <c r="B4" s="225">
+      <c r="B4" s="187">
         <v>4.3</v>
       </c>
-      <c r="C4" s="231">
+      <c r="C4" s="193">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D4" s="227">
+      <c r="D4" s="189">
         <f t="shared" ref="D4:D14" si="2">B4-C4</f>
         <v>-0.29999999999999982</v>
       </c>
-      <c r="E4" s="231">
+      <c r="E4" s="193">
         <v>4</v>
       </c>
-      <c r="F4" s="232">
+      <c r="F4" s="194">
         <v>3.93</v>
       </c>
-      <c r="G4" s="227">
+      <c r="G4" s="189">
         <f t="shared" si="0"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="H4" s="231">
+      <c r="H4" s="193">
         <v>2.9</v>
       </c>
-      <c r="I4" s="232">
+      <c r="I4" s="194">
         <v>2.82</v>
       </c>
-      <c r="J4" s="227">
+      <c r="J4" s="189">
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="189"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="303"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1">
-      <c r="B5" s="225">
+      <c r="B5" s="187">
         <v>4.2</v>
       </c>
-      <c r="C5" s="231">
+      <c r="C5" s="193">
         <v>4.25</v>
       </c>
-      <c r="D5" s="227">
+      <c r="D5" s="189">
         <f t="shared" si="2"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="E5" s="231">
+      <c r="E5" s="193">
         <v>4.2</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="194">
         <v>4.03</v>
       </c>
-      <c r="G5" s="227">
+      <c r="G5" s="189">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="H5" s="231">
+      <c r="H5" s="193">
         <v>3.1</v>
       </c>
-      <c r="I5" s="232">
+      <c r="I5" s="194">
         <v>2.92</v>
       </c>
-      <c r="J5" s="227">
+      <c r="J5" s="189">
         <f t="shared" si="1"/>
         <v>0.18000000000000016</v>
       </c>
@@ -8763,37 +8759,37 @@
       <c r="O5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="209"/>
-      <c r="U5" s="209"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1">
-      <c r="B6" s="225">
+      <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="231">
+      <c r="C6" s="193">
         <v>4.22</v>
       </c>
-      <c r="D6" s="227">
+      <c r="D6" s="189">
         <f t="shared" si="2"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="E6" s="231">
+      <c r="E6" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="194">
         <v>4.26</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="189">
         <f t="shared" si="0"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="H6" s="231">
+      <c r="H6" s="193">
         <v>3.2</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="194">
         <v>3.15</v>
       </c>
-      <c r="J6" s="227">
+      <c r="J6" s="189">
         <f t="shared" si="1"/>
         <v>5.0000000000000266E-2</v>
       </c>
@@ -8809,37 +8805,37 @@
       <c r="O6" s="46">
         <v>0.4</v>
       </c>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1">
-      <c r="B7" s="225">
+      <c r="B7" s="187">
         <v>4</v>
       </c>
-      <c r="C7" s="231">
+      <c r="C7" s="193">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D7" s="227">
+      <c r="D7" s="189">
         <f t="shared" si="2"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="E7" s="231">
+      <c r="E7" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="232">
+      <c r="F7" s="194">
         <v>4.46</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="189">
         <f t="shared" si="0"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-      <c r="H7" s="231">
+      <c r="H7" s="193">
         <v>3.2</v>
       </c>
-      <c r="I7" s="232">
+      <c r="I7" s="194">
         <v>3.23</v>
       </c>
-      <c r="J7" s="227">
+      <c r="J7" s="189">
         <f t="shared" si="1"/>
         <v>-2.9999999999999805E-2</v>
       </c>
@@ -8855,37 +8851,37 @@
       <c r="O7" s="50">
         <v>0.69</v>
       </c>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
-      <c r="B8" s="225">
+      <c r="B8" s="187">
         <v>3.8</v>
       </c>
-      <c r="C8" s="231">
+      <c r="C8" s="193">
         <v>4</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="189">
         <f t="shared" si="2"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="E8" s="231">
+      <c r="E8" s="193">
         <v>4.5</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="194">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G8" s="227">
+      <c r="G8" s="189">
         <f t="shared" si="0"/>
         <v>0.11000000000000032</v>
       </c>
-      <c r="H8" s="231">
+      <c r="H8" s="193">
         <v>3.1</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="194">
         <v>3.2</v>
       </c>
-      <c r="J8" s="227">
+      <c r="J8" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
@@ -8901,180 +8897,180 @@
       <c r="O8" s="47">
         <v>0.8</v>
       </c>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1">
-      <c r="B9" s="225">
+      <c r="B9" s="187">
         <v>3.8</v>
       </c>
-      <c r="C9" s="231">
+      <c r="C9" s="193">
         <v>3.79</v>
       </c>
-      <c r="D9" s="227">
+      <c r="D9" s="189">
         <f t="shared" si="2"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="E9" s="231">
+      <c r="E9" s="193">
         <v>4.3</v>
       </c>
-      <c r="F9" s="232">
+      <c r="F9" s="194">
         <v>4.53</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="189">
         <f t="shared" si="0"/>
         <v>-0.23000000000000043</v>
       </c>
-      <c r="H9" s="231">
+      <c r="H9" s="193">
         <v>3.1</v>
       </c>
-      <c r="I9" s="232">
+      <c r="I9" s="194">
         <v>3.08</v>
       </c>
-      <c r="J9" s="227">
+      <c r="J9" s="189">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333333037E-3</v>
       </c>
-      <c r="B10" s="225">
+      <c r="B10" s="187">
         <v>3.8</v>
       </c>
-      <c r="C10" s="231">
+      <c r="C10" s="193">
         <v>3.82</v>
       </c>
-      <c r="D10" s="227">
+      <c r="D10" s="189">
         <f t="shared" si="2"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="E10" s="231">
+      <c r="E10" s="193">
         <v>4.2</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="194">
         <v>4.2300000000000004</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="189">
         <f t="shared" si="0"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="H10" s="231">
+      <c r="H10" s="193">
         <v>3</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="194">
         <v>3.1</v>
       </c>
-      <c r="J10" s="227">
+      <c r="J10" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
     </row>
     <row r="11" spans="1:21" ht="18" thickBot="1">
-      <c r="B11" s="225">
+      <c r="B11" s="187">
         <v>3.8</v>
       </c>
-      <c r="C11" s="231">
+      <c r="C11" s="193">
         <v>3.8</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="231">
+      <c r="E11" s="193">
         <v>4</v>
       </c>
-      <c r="F11" s="232">
+      <c r="F11" s="194">
         <v>4.18</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="189">
         <f t="shared" si="0"/>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="H11" s="231">
+      <c r="H11" s="193">
         <v>2.7</v>
       </c>
-      <c r="I11" s="232">
+      <c r="I11" s="194">
         <v>2.98</v>
       </c>
-      <c r="J11" s="227">
+      <c r="J11" s="189">
         <f t="shared" si="1"/>
         <v>-0.2799999999999998</v>
       </c>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1">
-      <c r="B12" s="225">
+      <c r="B12" s="187">
         <v>3.8</v>
       </c>
-      <c r="C12" s="231">
+      <c r="C12" s="193">
         <v>3.8</v>
       </c>
-      <c r="D12" s="227">
+      <c r="D12" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="231">
+      <c r="E12" s="193">
         <v>3.8</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="194">
         <v>3.94</v>
       </c>
-      <c r="G12" s="227">
+      <c r="G12" s="189">
         <f t="shared" si="0"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="H12" s="231">
+      <c r="H12" s="193">
         <v>2.7</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="194">
         <v>2.62</v>
       </c>
-      <c r="J12" s="227">
+      <c r="J12" s="189">
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="L12" t="s">
         <v>200</v>
       </c>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1">
-      <c r="B13" s="225">
+      <c r="B13" s="187">
         <v>4.2</v>
       </c>
-      <c r="C13" s="231">
+      <c r="C13" s="193">
         <v>3.8</v>
       </c>
-      <c r="D13" s="227">
+      <c r="D13" s="189">
         <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="E13" s="231">
+      <c r="E13" s="193">
         <v>3.8</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="194">
         <v>3.74</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="189">
         <f t="shared" si="0"/>
         <v>5.9999999999999609E-2</v>
       </c>
-      <c r="H13" s="231">
+      <c r="H13" s="193">
         <v>2.7</v>
       </c>
-      <c r="I13" s="232">
+      <c r="I13" s="194">
         <v>2.7</v>
       </c>
-      <c r="J13" s="227">
+      <c r="J13" s="189">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9084,37 +9080,37 @@
       <c r="M13" s="102">
         <v>0.03</v>
       </c>
-      <c r="T13" s="209"/>
-      <c r="U13" s="209"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1">
-      <c r="B14" s="225">
+      <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="233">
+      <c r="C14" s="195">
         <v>4.25</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="189">
         <f t="shared" si="2"/>
         <v>0.65000000000000036</v>
       </c>
-      <c r="E14" s="233">
+      <c r="E14" s="195">
         <v>3.7</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="196">
         <v>3.81</v>
       </c>
-      <c r="G14" s="235">
+      <c r="G14" s="197">
         <f t="shared" si="0"/>
         <v>-0.10999999999999988</v>
       </c>
-      <c r="H14" s="233">
+      <c r="H14" s="195">
         <v>2.7</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="196">
         <v>2.7</v>
       </c>
-      <c r="J14" s="235">
+      <c r="J14" s="197">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9124,46 +9120,46 @@
       <c r="M14" s="34">
         <v>0.42</v>
       </c>
-      <c r="T14" s="209"/>
-      <c r="U14" s="209"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="237">
+      <c r="B15" s="199">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="237">
-        <f t="shared" ref="C15:J15" si="3">AVERAGE(C3:C14)</f>
+      <c r="C15" s="199">
+        <f t="shared" ref="C15:H15" si="3">AVERAGE(C3:C14)</f>
         <v>4.0816666666666661</v>
       </c>
-      <c r="D15" s="276">
+      <c r="D15" s="204">
         <f t="shared" si="3"/>
         <v>2.6666666666666727E-2</v>
       </c>
-      <c r="E15" s="236">
+      <c r="E15" s="198">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="237">
+      <c r="F15" s="199">
         <f t="shared" si="3"/>
         <v>4.1083333333333343</v>
       </c>
-      <c r="G15" s="242">
+      <c r="G15" s="204">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333333037E-3</v>
       </c>
-      <c r="H15" s="237">
+      <c r="H15" s="199">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="237">
+      <c r="I15" s="199">
         <f>AVERAGE(I3:I14)</f>
         <v>2.933333333333334</v>
       </c>
-      <c r="J15" s="243">
+      <c r="J15" s="205">
         <f>AVERAGE(J3:J14)</f>
         <v>3.7007434154171883E-17</v>
       </c>
@@ -9175,36 +9171,36 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238" t="s">
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238" t="s">
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="291">
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="252">
         <v>0.19</v>
       </c>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="239">
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="201">
         <v>0.69</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="240">
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="202">
         <v>0.84</v>
       </c>
     </row>
@@ -9259,13 +9255,13 @@
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="178">
         <v>12.2</v>
       </c>
-      <c r="C2" s="211">
+      <c r="C2" s="178">
         <v>12.2</v>
       </c>
-      <c r="D2" s="210">
+      <c r="D2" s="177">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -9273,13 +9269,13 @@
       <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="178">
         <v>12.5</v>
       </c>
-      <c r="C3" s="211">
+      <c r="C3" s="178">
         <v>12.5</v>
       </c>
-      <c r="D3" s="210">
+      <c r="D3" s="177">
         <v>8.4</v>
       </c>
     </row>
@@ -9287,13 +9283,13 @@
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="178">
         <v>12.3</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="178">
         <v>12.3</v>
       </c>
-      <c r="D4" s="210">
+      <c r="D4" s="177">
         <v>8.5</v>
       </c>
     </row>
@@ -9301,13 +9297,13 @@
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="211">
+      <c r="B5" s="178">
         <v>11.9</v>
       </c>
-      <c r="C5" s="211">
+      <c r="C5" s="178">
         <v>11.9</v>
       </c>
-      <c r="D5" s="210">
+      <c r="D5" s="177">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -9315,13 +9311,13 @@
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="211">
+      <c r="B6" s="178">
         <v>11.1</v>
       </c>
-      <c r="C6" s="211">
+      <c r="C6" s="178">
         <v>11.1</v>
       </c>
-      <c r="D6" s="210">
+      <c r="D6" s="177">
         <v>7.9</v>
       </c>
     </row>
@@ -9329,13 +9325,13 @@
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="211">
+      <c r="B7" s="178">
         <v>10.9</v>
       </c>
-      <c r="C7" s="211">
+      <c r="C7" s="178">
         <v>10.9</v>
       </c>
-      <c r="D7" s="210">
+      <c r="D7" s="177">
         <v>7.8</v>
       </c>
     </row>
@@ -9343,13 +9339,13 @@
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="211">
+      <c r="B8" s="178">
         <v>11.4</v>
       </c>
-      <c r="C8" s="211">
+      <c r="C8" s="178">
         <v>11.4</v>
       </c>
-      <c r="D8" s="210">
+      <c r="D8" s="177">
         <v>7.9</v>
       </c>
     </row>
@@ -9357,13 +9353,13 @@
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="211">
+      <c r="B9" s="178">
         <v>11.2</v>
       </c>
-      <c r="C9" s="211">
+      <c r="C9" s="178">
         <v>11.2</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="177">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -9371,13 +9367,13 @@
       <c r="A10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="211">
+      <c r="B10" s="178">
         <v>10.7</v>
       </c>
-      <c r="C10" s="211">
+      <c r="C10" s="178">
         <v>10.7</v>
       </c>
-      <c r="D10" s="210">
+      <c r="D10" s="177">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -9385,13 +9381,13 @@
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="178">
         <v>9.4</v>
       </c>
-      <c r="C11" s="211">
+      <c r="C11" s="178">
         <v>9.4</v>
       </c>
-      <c r="D11" s="210">
+      <c r="D11" s="177">
         <v>8.4</v>
       </c>
     </row>
@@ -9399,13 +9395,13 @@
       <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="211">
+      <c r="B12" s="178">
         <v>9.4</v>
       </c>
-      <c r="C12" s="211">
+      <c r="C12" s="178">
         <v>9.4</v>
       </c>
-      <c r="D12" s="210">
+      <c r="D12" s="177">
         <v>8.4</v>
       </c>
     </row>
@@ -9413,13 +9409,13 @@
       <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="211">
+      <c r="B13" s="178">
         <v>10</v>
       </c>
-      <c r="C13" s="211">
+      <c r="C13" s="178">
         <v>10</v>
       </c>
-      <c r="D13" s="210">
+      <c r="D13" s="177">
         <v>8</v>
       </c>
     </row>
@@ -9427,13 +9423,13 @@
       <c r="A14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="211">
+      <c r="B14" s="178">
         <v>10.3</v>
       </c>
-      <c r="C14" s="211">
+      <c r="C14" s="178">
         <v>10.3</v>
       </c>
-      <c r="D14" s="210">
+      <c r="D14" s="177">
         <v>7.7</v>
       </c>
     </row>
@@ -9441,13 +9437,13 @@
       <c r="A15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="211">
+      <c r="B15" s="178">
         <v>10</v>
       </c>
-      <c r="C15" s="211">
+      <c r="C15" s="178">
         <v>10</v>
       </c>
-      <c r="D15" s="210">
+      <c r="D15" s="177">
         <v>7.4</v>
       </c>
     </row>
@@ -9455,13 +9451,13 @@
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="211">
+      <c r="B16" s="178">
         <v>9.5</v>
       </c>
-      <c r="C16" s="211">
+      <c r="C16" s="178">
         <v>9.5</v>
       </c>
-      <c r="D16" s="210">
+      <c r="D16" s="177">
         <v>6.7</v>
       </c>
     </row>
@@ -9469,13 +9465,13 @@
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="211">
+      <c r="B17" s="178">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C17" s="211">
+      <c r="C17" s="178">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D17" s="210">
+      <c r="D17" s="177">
         <v>6.4</v>
       </c>
     </row>
@@ -9483,13 +9479,13 @@
       <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="211">
+      <c r="B18" s="178">
         <v>8.4</v>
       </c>
-      <c r="C18" s="211">
+      <c r="C18" s="178">
         <v>8.4</v>
       </c>
-      <c r="D18" s="210">
+      <c r="D18" s="177">
         <v>6</v>
       </c>
     </row>
@@ -9497,13 +9493,13 @@
       <c r="A19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="211">
+      <c r="B19" s="178">
         <v>8.4</v>
       </c>
-      <c r="C19" s="211">
+      <c r="C19" s="178">
         <v>8.4</v>
       </c>
-      <c r="D19" s="210">
+      <c r="D19" s="177">
         <v>5.9</v>
       </c>
     </row>
@@ -9511,13 +9507,13 @@
       <c r="A20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="211">
+      <c r="B20" s="178">
         <v>7.7</v>
       </c>
-      <c r="C20" s="211">
+      <c r="C20" s="178">
         <v>7.7</v>
       </c>
-      <c r="D20" s="210">
+      <c r="D20" s="177">
         <v>5.8</v>
       </c>
     </row>
@@ -9525,13 +9521,13 @@
       <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="211">
+      <c r="B21" s="178">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C21" s="211">
+      <c r="C21" s="178">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D21" s="210">
+      <c r="D21" s="177">
         <v>5.6</v>
       </c>
     </row>
@@ -9539,13 +9535,13 @@
       <c r="A22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="211">
+      <c r="B22" s="178">
         <v>7.9</v>
       </c>
-      <c r="C22" s="211">
+      <c r="C22" s="178">
         <v>7.9</v>
       </c>
-      <c r="D22" s="210">
+      <c r="D22" s="177">
         <v>5.5</v>
       </c>
     </row>
@@ -9553,13 +9549,13 @@
       <c r="A23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="211">
+      <c r="B23" s="178">
         <v>7.8</v>
       </c>
-      <c r="C23" s="211">
+      <c r="C23" s="178">
         <v>7.8</v>
       </c>
-      <c r="D23" s="210">
+      <c r="D23" s="177">
         <v>5.8</v>
       </c>
     </row>
@@ -9567,13 +9563,13 @@
       <c r="A24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="211">
+      <c r="B24" s="178">
         <v>8</v>
       </c>
-      <c r="C24" s="211">
+      <c r="C24" s="178">
         <v>8</v>
       </c>
-      <c r="D24" s="210">
+      <c r="D24" s="177">
         <v>5.9</v>
       </c>
     </row>
@@ -9581,13 +9577,13 @@
       <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="211">
+      <c r="B25" s="178">
         <v>8.6</v>
       </c>
-      <c r="C25" s="211">
+      <c r="C25" s="178">
         <v>8.6</v>
       </c>
-      <c r="D25" s="210">
+      <c r="D25" s="177">
         <v>6</v>
       </c>
     </row>
@@ -9595,13 +9591,13 @@
       <c r="A26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="211">
+      <c r="B26" s="178">
         <v>7.5</v>
       </c>
-      <c r="C26" s="211">
+      <c r="C26" s="178">
         <v>7.5</v>
       </c>
-      <c r="D26" s="210">
+      <c r="D26" s="177">
         <v>6.8</v>
       </c>
     </row>
@@ -9609,13 +9605,13 @@
       <c r="A27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="211">
+      <c r="B27" s="178">
         <v>8.5</v>
       </c>
-      <c r="C27" s="211">
+      <c r="C27" s="178">
         <v>8.5</v>
       </c>
-      <c r="D27" s="210">
+      <c r="D27" s="177">
         <v>6.7</v>
       </c>
     </row>
@@ -9623,13 +9619,13 @@
       <c r="A28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="211">
+      <c r="B28" s="178">
         <v>8.5</v>
       </c>
-      <c r="C28" s="211">
+      <c r="C28" s="178">
         <v>8.5</v>
       </c>
-      <c r="D28" s="210">
+      <c r="D28" s="177">
         <v>6.1</v>
       </c>
     </row>
@@ -9637,13 +9633,13 @@
       <c r="A29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="211">
+      <c r="B29" s="178">
         <v>8</v>
       </c>
-      <c r="C29" s="211">
+      <c r="C29" s="178">
         <v>8</v>
       </c>
-      <c r="D29" s="210">
+      <c r="D29" s="177">
         <v>5.7</v>
       </c>
     </row>
@@ -9651,13 +9647,13 @@
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="211">
+      <c r="B30" s="178">
         <v>7.9</v>
       </c>
-      <c r="C30" s="211">
+      <c r="C30" s="178">
         <v>7.9</v>
       </c>
-      <c r="D30" s="210">
+      <c r="D30" s="177">
         <v>5.3</v>
       </c>
     </row>
@@ -9665,13 +9661,13 @@
       <c r="A31" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="211">
+      <c r="B31" s="178">
         <v>7.7</v>
       </c>
-      <c r="C31" s="211">
+      <c r="C31" s="178">
         <v>7.7</v>
       </c>
-      <c r="D31" s="210">
+      <c r="D31" s="177">
         <v>5.2</v>
       </c>
     </row>
@@ -9679,13 +9675,13 @@
       <c r="A32" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="211">
+      <c r="B32" s="178">
         <v>8</v>
       </c>
-      <c r="C32" s="211">
+      <c r="C32" s="178">
         <v>8</v>
       </c>
-      <c r="D32" s="210">
+      <c r="D32" s="177">
         <v>5.2</v>
       </c>
     </row>
@@ -9693,13 +9689,13 @@
       <c r="A33" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="211">
+      <c r="B33" s="178">
         <v>7.9</v>
       </c>
-      <c r="C33" s="211">
+      <c r="C33" s="178">
         <v>7.9</v>
       </c>
-      <c r="D33" s="210">
+      <c r="D33" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -9707,13 +9703,13 @@
       <c r="A34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="211">
+      <c r="B34" s="178">
         <v>7.5</v>
       </c>
-      <c r="C34" s="211">
+      <c r="C34" s="178">
         <v>7.5</v>
       </c>
-      <c r="D34" s="210">
+      <c r="D34" s="177">
         <v>5.5</v>
       </c>
     </row>
@@ -9721,13 +9717,13 @@
       <c r="A35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="211">
+      <c r="B35" s="178">
         <v>7.3</v>
       </c>
-      <c r="C35" s="211">
+      <c r="C35" s="178">
         <v>7.3</v>
       </c>
-      <c r="D35" s="210">
+      <c r="D35" s="177">
         <v>5.9</v>
       </c>
     </row>
@@ -9735,13 +9731,13 @@
       <c r="A36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="211">
+      <c r="B36" s="178">
         <v>7.8</v>
       </c>
-      <c r="C36" s="211">
+      <c r="C36" s="178">
         <v>7.8</v>
       </c>
-      <c r="D36" s="210">
+      <c r="D36" s="177">
         <v>6.1</v>
       </c>
     </row>
@@ -9749,13 +9745,13 @@
       <c r="A37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="211">
+      <c r="B37" s="178">
         <v>7.6</v>
       </c>
-      <c r="C37" s="211">
+      <c r="C37" s="178">
         <v>7.6</v>
       </c>
-      <c r="D37" s="210">
+      <c r="D37" s="177">
         <v>6</v>
       </c>
     </row>
@@ -9763,13 +9759,13 @@
       <c r="A38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="211">
+      <c r="B38" s="178">
         <v>8</v>
       </c>
-      <c r="C38" s="211">
+      <c r="C38" s="178">
         <v>8</v>
       </c>
-      <c r="D38" s="210">
+      <c r="D38" s="177">
         <v>6.3</v>
       </c>
     </row>
@@ -9777,13 +9773,13 @@
       <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="211">
+      <c r="B39" s="178">
         <v>7.8</v>
       </c>
-      <c r="C39" s="211">
+      <c r="C39" s="178">
         <v>7.8</v>
       </c>
-      <c r="D39" s="210">
+      <c r="D39" s="177">
         <v>6.2</v>
       </c>
     </row>
@@ -9791,13 +9787,13 @@
       <c r="A40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="211">
+      <c r="B40" s="178">
         <v>7.5</v>
       </c>
-      <c r="C40" s="211">
+      <c r="C40" s="178">
         <v>7.5</v>
       </c>
-      <c r="D40" s="210">
+      <c r="D40" s="177">
         <v>5.8</v>
       </c>
     </row>
@@ -9805,13 +9801,13 @@
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="211">
+      <c r="B41" s="178">
         <v>6.9</v>
       </c>
-      <c r="C41" s="211">
+      <c r="C41" s="178">
         <v>6.9</v>
       </c>
-      <c r="D41" s="210">
+      <c r="D41" s="177">
         <v>5.5</v>
       </c>
     </row>
@@ -9819,13 +9815,13 @@
       <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="211">
+      <c r="B42" s="178">
         <v>6.7</v>
       </c>
-      <c r="C42" s="211">
+      <c r="C42" s="178">
         <v>6.7</v>
       </c>
-      <c r="D42" s="210">
+      <c r="D42" s="177">
         <v>5.3</v>
       </c>
     </row>
@@ -9833,13 +9829,13 @@
       <c r="A43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="211">
+      <c r="B43" s="178">
         <v>6.5</v>
       </c>
-      <c r="C43" s="211">
+      <c r="C43" s="178">
         <v>6.5</v>
       </c>
-      <c r="D43" s="210">
+      <c r="D43" s="177">
         <v>5.3</v>
       </c>
     </row>
@@ -9847,13 +9843,13 @@
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="211">
+      <c r="B44" s="178">
         <v>7.2</v>
       </c>
-      <c r="C44" s="211">
+      <c r="C44" s="178">
         <v>7.2</v>
       </c>
-      <c r="D44" s="210">
+      <c r="D44" s="177">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -9861,13 +9857,13 @@
       <c r="A45" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B45" s="211">
+      <c r="B45" s="178">
         <v>7</v>
       </c>
-      <c r="C45" s="211">
+      <c r="C45" s="178">
         <v>7</v>
       </c>
-      <c r="D45" s="210">
+      <c r="D45" s="177">
         <v>5.2</v>
       </c>
     </row>
@@ -9875,13 +9871,13 @@
       <c r="A46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="211">
+      <c r="B46" s="178">
         <v>7</v>
       </c>
-      <c r="C46" s="211">
+      <c r="C46" s="178">
         <v>7</v>
       </c>
-      <c r="D46" s="210">
+      <c r="D46" s="177">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -9889,13 +9885,13 @@
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="211">
+      <c r="B47" s="178">
         <v>6.9</v>
       </c>
-      <c r="C47" s="211">
+      <c r="C47" s="178">
         <v>6.9</v>
       </c>
-      <c r="D47" s="210">
+      <c r="D47" s="177">
         <v>5.7</v>
       </c>
     </row>
@@ -9903,13 +9899,13 @@
       <c r="A48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="211">
+      <c r="B48" s="178">
         <v>7</v>
       </c>
-      <c r="C48" s="211">
+      <c r="C48" s="178">
         <v>7</v>
       </c>
-      <c r="D48" s="210">
+      <c r="D48" s="177">
         <v>5.9</v>
       </c>
     </row>
@@ -9917,13 +9913,13 @@
       <c r="A49" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="211">
+      <c r="B49" s="178">
         <v>7.4</v>
       </c>
-      <c r="C49" s="211">
+      <c r="C49" s="178">
         <v>7.4</v>
       </c>
-      <c r="D49" s="210">
+      <c r="D49" s="177">
         <v>5.5</v>
       </c>
     </row>
@@ -9931,13 +9927,13 @@
       <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="211">
+      <c r="B50" s="178">
         <v>7.8</v>
       </c>
-      <c r="C50" s="211">
+      <c r="C50" s="178">
         <v>7.8</v>
       </c>
-      <c r="D50" s="210">
+      <c r="D50" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -9945,13 +9941,13 @@
       <c r="A51" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="211">
+      <c r="B51" s="178">
         <v>7.7</v>
       </c>
-      <c r="C51" s="211">
+      <c r="C51" s="178">
         <v>7.7</v>
       </c>
-      <c r="D51" s="210">
+      <c r="D51" s="177">
         <v>6</v>
       </c>
     </row>
@@ -9959,13 +9955,13 @@
       <c r="A52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="211">
+      <c r="B52" s="178">
         <v>7</v>
       </c>
-      <c r="C52" s="211">
+      <c r="C52" s="178">
         <v>7</v>
       </c>
-      <c r="D52" s="210">
+      <c r="D52" s="177">
         <v>6</v>
       </c>
     </row>
@@ -9973,13 +9969,13 @@
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="211">
+      <c r="B53" s="178">
         <v>6.5</v>
       </c>
-      <c r="C53" s="211">
+      <c r="C53" s="178">
         <v>6.5</v>
       </c>
-      <c r="D53" s="210">
+      <c r="D53" s="177">
         <v>5.6</v>
       </c>
     </row>
@@ -9987,13 +9983,13 @@
       <c r="A54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="211">
+      <c r="B54" s="178">
         <v>6.1</v>
       </c>
-      <c r="C54" s="211">
+      <c r="C54" s="178">
         <v>6.1</v>
       </c>
-      <c r="D54" s="210">
+      <c r="D54" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -10001,13 +9997,13 @@
       <c r="A55" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="211">
+      <c r="B55" s="178">
         <v>6.2</v>
       </c>
-      <c r="C55" s="211">
+      <c r="C55" s="178">
         <v>6.2</v>
       </c>
-      <c r="D55" s="210">
+      <c r="D55" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -10015,13 +10011,13 @@
       <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="211">
+      <c r="B56" s="178">
         <v>6.7</v>
       </c>
-      <c r="C56" s="211">
+      <c r="C56" s="178">
         <v>6.7</v>
       </c>
-      <c r="D56" s="210">
+      <c r="D56" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -10029,13 +10025,13 @@
       <c r="A57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="211">
+      <c r="B57" s="178">
         <v>6.6</v>
       </c>
-      <c r="C57" s="211">
+      <c r="C57" s="178">
         <v>6.6</v>
       </c>
-      <c r="D57" s="210">
+      <c r="D57" s="177">
         <v>5.4</v>
       </c>
     </row>
@@ -10043,13 +10039,13 @@
       <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="211">
+      <c r="B58" s="178">
         <v>6.5</v>
       </c>
-      <c r="C58" s="211">
+      <c r="C58" s="178">
         <v>6.5</v>
       </c>
-      <c r="D58" s="210">
+      <c r="D58" s="177">
         <v>5.5</v>
       </c>
     </row>
@@ -10057,13 +10053,13 @@
       <c r="A59" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B59" s="211">
+      <c r="B59" s="178">
         <v>6</v>
       </c>
-      <c r="C59" s="211">
+      <c r="C59" s="178">
         <v>6</v>
       </c>
-      <c r="D59" s="210">
+      <c r="D59" s="177">
         <v>5.8</v>
       </c>
     </row>
@@ -10071,13 +10067,13 @@
       <c r="A60" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="211">
+      <c r="B60" s="178">
         <v>6.2</v>
       </c>
-      <c r="C60" s="211">
+      <c r="C60" s="178">
         <v>6.2</v>
       </c>
-      <c r="D60" s="210">
+      <c r="D60" s="177">
         <v>5.9</v>
       </c>
     </row>
@@ -10085,13 +10081,13 @@
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="211">
+      <c r="B61" s="178">
         <v>6.5</v>
       </c>
-      <c r="C61" s="211">
+      <c r="C61" s="178">
         <v>6.5</v>
       </c>
-      <c r="D61" s="210">
+      <c r="D61" s="177">
         <v>5.8</v>
       </c>
     </row>
@@ -10099,13 +10095,13 @@
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="211">
+      <c r="B62" s="178">
         <v>6.8</v>
       </c>
-      <c r="C62" s="211">
+      <c r="C62" s="178">
         <v>6.8</v>
       </c>
-      <c r="D62" s="210">
+      <c r="D62" s="177">
         <v>6.3</v>
       </c>
     </row>
@@ -10113,13 +10109,13 @@
       <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="211">
+      <c r="B63" s="178">
         <v>6.5</v>
       </c>
-      <c r="C63" s="211">
+      <c r="C63" s="178">
         <v>6.5</v>
       </c>
-      <c r="D63" s="210">
+      <c r="D63" s="177">
         <v>6.8</v>
       </c>
     </row>
@@ -10127,13 +10123,13 @@
       <c r="A64" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="211">
+      <c r="B64" s="178">
         <v>6.5</v>
       </c>
-      <c r="C64" s="211">
+      <c r="C64" s="178">
         <v>6.5</v>
       </c>
-      <c r="D64" s="210">
+      <c r="D64" s="177">
         <v>7</v>
       </c>
     </row>
@@ -10141,13 +10137,13 @@
       <c r="A65" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="211">
+      <c r="B65" s="178">
         <v>6.1</v>
       </c>
-      <c r="C65" s="211">
+      <c r="C65" s="178">
         <v>6.1</v>
       </c>
-      <c r="D65" s="210">
+      <c r="D65" s="177">
         <v>6.9</v>
       </c>
     </row>
@@ -10155,13 +10151,13 @@
       <c r="A66" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="211">
+      <c r="B66" s="178">
         <v>5.6</v>
       </c>
-      <c r="C66" s="211">
+      <c r="C66" s="178">
         <v>5.6</v>
       </c>
-      <c r="D66" s="210">
+      <c r="D66" s="177">
         <v>6.2</v>
       </c>
     </row>
@@ -10169,13 +10165,13 @@
       <c r="A67" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="211">
+      <c r="B67" s="178">
         <v>6</v>
       </c>
-      <c r="C67" s="211">
+      <c r="C67" s="178">
         <v>6</v>
       </c>
-      <c r="D67" s="210">
+      <c r="D67" s="177">
         <v>6</v>
       </c>
     </row>
@@ -10183,13 +10179,13 @@
       <c r="A68" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="211">
+      <c r="B68" s="178">
         <v>6.6</v>
       </c>
-      <c r="C68" s="211">
+      <c r="C68" s="178">
         <v>6.6</v>
       </c>
-      <c r="D68" s="210">
+      <c r="D68" s="177">
         <v>5.6</v>
       </c>
     </row>
@@ -10197,13 +10193,13 @@
       <c r="A69" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="211">
+      <c r="B69" s="178">
         <v>6.4</v>
       </c>
-      <c r="C69" s="211">
+      <c r="C69" s="178">
         <v>6.4</v>
       </c>
-      <c r="D69" s="210">
+      <c r="D69" s="177">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -10211,13 +10207,13 @@
       <c r="A70" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B70" s="211">
+      <c r="B70" s="178">
         <v>6.2</v>
       </c>
-      <c r="C70" s="211">
+      <c r="C70" s="178">
         <v>6.2</v>
       </c>
-      <c r="D70" s="210">
+      <c r="D70" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10225,13 +10221,13 @@
       <c r="A71" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="211">
+      <c r="B71" s="178">
         <v>5.6</v>
       </c>
-      <c r="C71" s="211">
+      <c r="C71" s="178">
         <v>5.6</v>
       </c>
-      <c r="D71" s="210">
+      <c r="D71" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10239,13 +10235,13 @@
       <c r="A72" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="211">
+      <c r="B72" s="178">
         <v>5.4</v>
       </c>
-      <c r="C72" s="211">
+      <c r="C72" s="178">
         <v>5.4</v>
       </c>
-      <c r="D72" s="210">
+      <c r="D72" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10253,13 +10249,13 @@
       <c r="A73" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="211">
+      <c r="B73" s="178">
         <v>5.7</v>
       </c>
-      <c r="C73" s="211">
+      <c r="C73" s="178">
         <v>5.7</v>
       </c>
-      <c r="D73" s="210">
+      <c r="D73" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10267,13 +10263,13 @@
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="211">
+      <c r="B74" s="178">
         <v>5.5</v>
       </c>
-      <c r="C74" s="211">
+      <c r="C74" s="178">
         <v>5.5</v>
       </c>
-      <c r="D74" s="210">
+      <c r="D74" s="177">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10281,13 +10277,13 @@
       <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="211">
+      <c r="B75" s="178">
         <v>5.5</v>
       </c>
-      <c r="C75" s="211">
+      <c r="C75" s="178">
         <v>5.5</v>
       </c>
-      <c r="D75" s="210">
+      <c r="D75" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10295,13 +10291,13 @@
       <c r="A76" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="211">
+      <c r="B76" s="178">
         <v>5.3</v>
       </c>
-      <c r="C76" s="211">
+      <c r="C76" s="178">
         <v>5.3</v>
       </c>
-      <c r="D76" s="210">
+      <c r="D76" s="177">
         <v>4.5</v>
       </c>
     </row>
@@ -10309,13 +10305,13 @@
       <c r="A77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="211">
+      <c r="B77" s="178">
         <v>4.8</v>
       </c>
-      <c r="C77" s="211">
+      <c r="C77" s="178">
         <v>4.8</v>
       </c>
-      <c r="D77" s="210">
+      <c r="D77" s="177">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10323,13 +10319,13 @@
       <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="211">
+      <c r="B78" s="178">
         <v>4.5</v>
       </c>
-      <c r="C78" s="211">
+      <c r="C78" s="178">
         <v>4.5</v>
       </c>
-      <c r="D78" s="210">
+      <c r="D78" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10337,13 +10333,13 @@
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="211">
+      <c r="B79" s="178">
         <v>4.7</v>
       </c>
-      <c r="C79" s="211">
+      <c r="C79" s="178">
         <v>4.7</v>
       </c>
-      <c r="D79" s="210">
+      <c r="D79" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10351,13 +10347,13 @@
       <c r="A80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="211">
+      <c r="B80" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C80" s="211">
+      <c r="C80" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D80" s="210">
+      <c r="D80" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10365,13 +10361,13 @@
       <c r="A81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="211">
+      <c r="B81" s="178">
         <v>5.2</v>
       </c>
-      <c r="C81" s="211">
+      <c r="C81" s="178">
         <v>5.2</v>
       </c>
-      <c r="D81" s="210">
+      <c r="D81" s="177">
         <v>4.8</v>
       </c>
     </row>
@@ -10379,13 +10375,13 @@
       <c r="A82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="211">
+      <c r="B82" s="178">
         <v>5</v>
       </c>
-      <c r="C82" s="211">
+      <c r="C82" s="178">
         <v>5</v>
       </c>
-      <c r="D82" s="210">
+      <c r="D82" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10393,13 +10389,13 @@
       <c r="A83" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="211">
+      <c r="B83" s="178">
         <v>4.8</v>
       </c>
-      <c r="C83" s="211">
+      <c r="C83" s="178">
         <v>4.8</v>
       </c>
-      <c r="D83" s="210">
+      <c r="D83" s="177">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10407,13 +10403,13 @@
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="211">
+      <c r="B84" s="178">
         <v>5</v>
       </c>
-      <c r="C84" s="211">
+      <c r="C84" s="178">
         <v>5</v>
       </c>
-      <c r="D84" s="210">
+      <c r="D84" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10421,13 +10417,13 @@
       <c r="A85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="211">
+      <c r="B85" s="178">
         <v>5.2</v>
       </c>
-      <c r="C85" s="211">
+      <c r="C85" s="178">
         <v>5.2</v>
       </c>
-      <c r="D85" s="210">
+      <c r="D85" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10435,13 +10431,13 @@
       <c r="A86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="211">
+      <c r="B86" s="178">
         <v>5.2</v>
       </c>
-      <c r="C86" s="211">
+      <c r="C86" s="178">
         <v>5.2</v>
       </c>
-      <c r="D86" s="210">
+      <c r="D86" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10449,13 +10445,13 @@
       <c r="A87" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="211">
+      <c r="B87" s="178">
         <v>5</v>
       </c>
-      <c r="C87" s="211">
+      <c r="C87" s="178">
         <v>5</v>
       </c>
-      <c r="D87" s="210">
+      <c r="D87" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10463,13 +10459,13 @@
       <c r="A88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="211">
+      <c r="B88" s="178">
         <v>4.5</v>
       </c>
-      <c r="C88" s="211">
+      <c r="C88" s="178">
         <v>4.5</v>
       </c>
-      <c r="D88" s="210">
+      <c r="D88" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10477,13 +10473,13 @@
       <c r="A89" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="211">
+      <c r="B89" s="178">
         <v>4.3</v>
       </c>
-      <c r="C89" s="211">
+      <c r="C89" s="178">
         <v>4.3</v>
       </c>
-      <c r="D89" s="210">
+      <c r="D89" s="177">
         <v>4.7</v>
       </c>
     </row>
@@ -10491,13 +10487,13 @@
       <c r="A90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="211">
+      <c r="B90" s="178">
         <v>4.2</v>
       </c>
-      <c r="C90" s="211">
+      <c r="C90" s="178">
         <v>4.2</v>
       </c>
-      <c r="D90" s="210">
+      <c r="D90" s="177">
         <v>4.5</v>
       </c>
     </row>
@@ -10505,13 +10501,13 @@
       <c r="A91" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="211">
+      <c r="B91" s="178">
         <v>3.8</v>
       </c>
-      <c r="C91" s="211">
+      <c r="C91" s="178">
         <v>3.8</v>
       </c>
-      <c r="D91" s="210">
+      <c r="D91" s="177">
         <v>4.5</v>
       </c>
     </row>
@@ -10519,13 +10515,13 @@
       <c r="A92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="211">
+      <c r="B92" s="178">
         <v>4.3</v>
       </c>
-      <c r="C92" s="211">
+      <c r="C92" s="178">
         <v>4.3</v>
       </c>
-      <c r="D92" s="210">
+      <c r="D92" s="177">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -10533,13 +10529,13 @@
       <c r="A93" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="211">
+      <c r="B93" s="178">
         <v>4.5</v>
       </c>
-      <c r="C93" s="211">
+      <c r="C93" s="178">
         <v>4.5</v>
       </c>
-      <c r="D93" s="210">
+      <c r="D93" s="177">
         <v>4.2</v>
       </c>
     </row>
@@ -10547,13 +10543,13 @@
       <c r="A94" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="211">
+      <c r="B94" s="178">
         <v>4.3</v>
       </c>
-      <c r="C94" s="211">
+      <c r="C94" s="178">
         <v>4.3</v>
       </c>
-      <c r="D94" s="210">
+      <c r="D94" s="177">
         <v>4.2</v>
       </c>
     </row>
@@ -10561,13 +10557,13 @@
       <c r="A95" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="211">
+      <c r="B95" s="178">
         <v>4.2</v>
       </c>
-      <c r="C95" s="211">
+      <c r="C95" s="178">
         <v>4.2</v>
       </c>
-      <c r="D95" s="210">
+      <c r="D95" s="177">
         <v>4</v>
       </c>
     </row>
@@ -10575,13 +10571,13 @@
       <c r="A96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="211">
+      <c r="B96" s="178">
         <v>4.2</v>
       </c>
-      <c r="C96" s="211">
+      <c r="C96" s="178">
         <v>4.2</v>
       </c>
-      <c r="D96" s="210">
+      <c r="D96" s="177">
         <v>4</v>
       </c>
     </row>
@@ -10589,13 +10585,13 @@
       <c r="A97" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="211">
+      <c r="B97" s="178">
         <v>4.2</v>
       </c>
-      <c r="C97" s="211">
+      <c r="C97" s="178">
         <v>4.2</v>
       </c>
-      <c r="D97" s="210">
+      <c r="D97" s="177">
         <v>4</v>
       </c>
     </row>
@@ -10603,13 +10599,13 @@
       <c r="A98" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="211">
+      <c r="B98" s="178">
         <v>4.2</v>
       </c>
-      <c r="C98" s="211">
+      <c r="C98" s="178">
         <v>4.2</v>
       </c>
-      <c r="D98" s="210">
+      <c r="D98" s="177">
         <v>3.9</v>
       </c>
     </row>
@@ -10617,13 +10613,13 @@
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="211">
+      <c r="B99" s="178">
         <v>4</v>
       </c>
-      <c r="C99" s="211">
+      <c r="C99" s="178">
         <v>4</v>
       </c>
-      <c r="D99" s="210">
+      <c r="D99" s="177">
         <v>3.9</v>
       </c>
     </row>
@@ -10631,13 +10627,13 @@
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="211">
+      <c r="B100" s="178">
         <v>3.9</v>
       </c>
-      <c r="C100" s="211">
+      <c r="C100" s="178">
         <v>3.9</v>
       </c>
-      <c r="D100" s="210">
+      <c r="D100" s="177">
         <v>3.8</v>
       </c>
     </row>
@@ -10645,13 +10641,13 @@
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="211">
+      <c r="B101" s="178">
         <v>3.6</v>
       </c>
-      <c r="C101" s="211">
+      <c r="C101" s="178">
         <v>3.6</v>
       </c>
-      <c r="D101" s="210">
+      <c r="D101" s="177">
         <v>3.7</v>
       </c>
     </row>
@@ -10659,13 +10655,13 @@
       <c r="A102" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B102" s="211">
+      <c r="B102" s="178">
         <v>3.4</v>
       </c>
-      <c r="C102" s="211">
+      <c r="C102" s="178">
         <v>3.4</v>
       </c>
-      <c r="D102" s="210">
+      <c r="D102" s="177">
         <v>3.7</v>
       </c>
     </row>
@@ -10673,13 +10669,13 @@
       <c r="A103" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B103" s="211">
+      <c r="B103" s="178">
         <v>3.6</v>
       </c>
-      <c r="C103" s="211">
+      <c r="C103" s="178">
         <v>3.6</v>
       </c>
-      <c r="D103" s="210">
+      <c r="D103" s="177">
         <v>3.6</v>
       </c>
     </row>
@@ -10687,13 +10683,13 @@
       <c r="A104" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="211">
+      <c r="B104" s="178">
         <v>3.7</v>
       </c>
-      <c r="C104" s="211">
+      <c r="C104" s="178">
         <v>3.7</v>
       </c>
-      <c r="D104" s="210">
+      <c r="D104" s="177">
         <v>3.3</v>
       </c>
     </row>
@@ -10701,13 +10697,13 @@
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B105" s="211">
+      <c r="B105" s="178">
         <v>3.6</v>
       </c>
-      <c r="C105" s="211">
+      <c r="C105" s="178">
         <v>3.6</v>
       </c>
-      <c r="D105" s="210">
+      <c r="D105" s="177">
         <v>3.2</v>
       </c>
     </row>
@@ -10715,13 +10711,13 @@
       <c r="A106" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B106" s="211">
+      <c r="B106" s="178">
         <v>3.5</v>
       </c>
-      <c r="C106" s="211">
+      <c r="C106" s="178">
         <v>3.5</v>
       </c>
-      <c r="D106" s="210">
+      <c r="D106" s="177">
         <v>3</v>
       </c>
     </row>
@@ -10729,13 +10725,13 @@
       <c r="A107" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B107" s="211">
+      <c r="B107" s="178">
         <v>3.5</v>
       </c>
-      <c r="C107" s="211">
+      <c r="C107" s="178">
         <v>3.5</v>
       </c>
-      <c r="D107" s="210">
+      <c r="D107" s="177">
         <v>3</v>
       </c>
     </row>
@@ -10743,13 +10739,13 @@
       <c r="A108" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="211">
+      <c r="B108" s="178">
         <v>3.6</v>
       </c>
-      <c r="C108" s="211">
+      <c r="C108" s="178">
         <v>3.6</v>
       </c>
-      <c r="D108" s="210">
+      <c r="D108" s="177">
         <v>3</v>
       </c>
     </row>
@@ -10757,13 +10753,13 @@
       <c r="A109" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="211">
+      <c r="B109" s="178">
         <v>3.6</v>
       </c>
-      <c r="C109" s="211">
+      <c r="C109" s="178">
         <v>3.6</v>
       </c>
-      <c r="D109" s="210">
+      <c r="D109" s="177">
         <v>3</v>
       </c>
     </row>
@@ -10771,13 +10767,13 @@
       <c r="A110" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="211">
+      <c r="B110" s="178">
         <v>3.7</v>
       </c>
-      <c r="C110" s="211">
+      <c r="C110" s="178">
         <v>3.7</v>
       </c>
-      <c r="D110" s="210">
+      <c r="D110" s="177">
         <v>3</v>
       </c>
     </row>
@@ -10785,13 +10781,13 @@
       <c r="A111" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="211">
+      <c r="B111" s="178">
         <v>3.6</v>
       </c>
-      <c r="C111" s="211">
+      <c r="C111" s="178">
         <v>3.6</v>
       </c>
-      <c r="D111" s="210">
+      <c r="D111" s="177">
         <v>2.9</v>
       </c>
     </row>
@@ -10799,13 +10795,13 @@
       <c r="A112" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B112" s="211">
+      <c r="B112" s="178">
         <v>3.5</v>
       </c>
-      <c r="C112" s="211">
+      <c r="C112" s="178">
         <v>3.5</v>
       </c>
-      <c r="D112" s="210">
+      <c r="D112" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -10813,13 +10809,13 @@
       <c r="A113" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B113" s="211">
+      <c r="B113" s="178">
         <v>3.1</v>
       </c>
-      <c r="C113" s="211">
+      <c r="C113" s="178">
         <v>3.1</v>
       </c>
-      <c r="D113" s="210">
+      <c r="D113" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10827,13 +10823,13 @@
       <c r="A114" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="211">
+      <c r="B114" s="178">
         <v>3</v>
       </c>
-      <c r="C114" s="211">
+      <c r="C114" s="178">
         <v>3</v>
       </c>
-      <c r="D114" s="210">
+      <c r="D114" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10841,13 +10837,13 @@
       <c r="A115" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="211">
+      <c r="B115" s="178">
         <v>3.1</v>
       </c>
-      <c r="C115" s="211">
+      <c r="C115" s="178">
         <v>3.1</v>
       </c>
-      <c r="D115" s="210">
+      <c r="D115" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10855,13 +10851,13 @@
       <c r="A116" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B116" s="211">
+      <c r="B116" s="178">
         <v>3.2</v>
       </c>
-      <c r="C116" s="211">
+      <c r="C116" s="178">
         <v>3.2</v>
       </c>
-      <c r="D116" s="210">
+      <c r="D116" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -10869,13 +10865,13 @@
       <c r="A117" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B117" s="211">
+      <c r="B117" s="178">
         <v>3.2</v>
       </c>
-      <c r="C117" s="211">
+      <c r="C117" s="178">
         <v>3.2</v>
       </c>
-      <c r="D117" s="210">
+      <c r="D117" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10883,13 +10879,13 @@
       <c r="A118" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="211">
+      <c r="B118" s="178">
         <v>3.3</v>
       </c>
-      <c r="C118" s="211">
+      <c r="C118" s="178">
         <v>3.3</v>
       </c>
-      <c r="D118" s="210">
+      <c r="D118" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10897,13 +10893,13 @@
       <c r="A119" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B119" s="211">
+      <c r="B119" s="178">
         <v>3.3</v>
       </c>
-      <c r="C119" s="211">
+      <c r="C119" s="178">
         <v>3.3</v>
       </c>
-      <c r="D119" s="210">
+      <c r="D119" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -10911,13 +10907,13 @@
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="211">
+      <c r="B120" s="178">
         <v>3.3</v>
       </c>
-      <c r="C120" s="211">
+      <c r="C120" s="178">
         <v>3.3</v>
       </c>
-      <c r="D120" s="210">
+      <c r="D120" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -10925,13 +10921,13 @@
       <c r="A121" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B121" s="211">
+      <c r="B121" s="178">
         <v>3.3</v>
       </c>
-      <c r="C121" s="211">
+      <c r="C121" s="178">
         <v>3.3</v>
       </c>
-      <c r="D121" s="210">
+      <c r="D121" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -10939,13 +10935,13 @@
       <c r="A122" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="211">
+      <c r="B122" s="178">
         <v>3.1</v>
       </c>
-      <c r="C122" s="211">
+      <c r="C122" s="178">
         <v>3.1</v>
       </c>
-      <c r="D122" s="210">
+      <c r="D122" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -10953,13 +10949,13 @@
       <c r="A123" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B123" s="211">
+      <c r="B123" s="178">
         <v>3.1</v>
       </c>
-      <c r="C123" s="211">
+      <c r="C123" s="178">
         <v>3.1</v>
       </c>
-      <c r="D123" s="210">
+      <c r="D123" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -10967,13 +10963,13 @@
       <c r="A124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B124" s="211">
+      <c r="B124" s="178">
         <v>3.1</v>
       </c>
-      <c r="C124" s="211">
+      <c r="C124" s="178">
         <v>3.1</v>
       </c>
-      <c r="D124" s="210">
+      <c r="D124" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -10981,13 +10977,13 @@
       <c r="A125" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="211">
+      <c r="B125" s="178">
         <v>3.4</v>
       </c>
-      <c r="C125" s="211">
+      <c r="C125" s="178">
         <v>3.4</v>
       </c>
-      <c r="D125" s="210">
+      <c r="D125" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -10995,13 +10991,13 @@
       <c r="A126" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="211">
+      <c r="B126" s="178">
         <v>3.7</v>
       </c>
-      <c r="C126" s="211">
+      <c r="C126" s="178">
         <v>3.7</v>
       </c>
-      <c r="D126" s="210">
+      <c r="D126" s="177">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -11009,13 +11005,13 @@
       <c r="A127" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B127" s="211">
+      <c r="B127" s="178">
         <v>3.8</v>
       </c>
-      <c r="C127" s="211">
+      <c r="C127" s="178">
         <v>3.8</v>
       </c>
-      <c r="D127" s="210">
+      <c r="D127" s="177">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -11023,13 +11019,13 @@
       <c r="A128" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="211">
+      <c r="B128" s="178">
         <v>4.5</v>
       </c>
-      <c r="C128" s="211">
+      <c r="C128" s="178">
         <v>4.5</v>
       </c>
-      <c r="D128" s="210">
+      <c r="D128" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11037,13 +11033,13 @@
       <c r="A129" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="211">
+      <c r="B129" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C129" s="211">
+      <c r="C129" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D129" s="210">
+      <c r="D129" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11051,13 +11047,13 @@
       <c r="A130" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="211">
+      <c r="B130" s="178">
         <v>5</v>
       </c>
-      <c r="C130" s="211">
+      <c r="C130" s="178">
         <v>5</v>
       </c>
-      <c r="D130" s="210">
+      <c r="D130" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -11065,13 +11061,13 @@
       <c r="A131" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="211">
+      <c r="B131" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C131" s="211">
+      <c r="C131" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D131" s="210">
+      <c r="D131" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -11079,13 +11075,13 @@
       <c r="A132" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B132" s="211">
+      <c r="B132" s="178">
         <v>5.2</v>
       </c>
-      <c r="C132" s="211">
+      <c r="C132" s="178">
         <v>5.2</v>
       </c>
-      <c r="D132" s="210">
+      <c r="D132" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11093,13 +11089,13 @@
       <c r="A133" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B133" s="211">
+      <c r="B133" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C133" s="211">
+      <c r="C133" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D133" s="210">
+      <c r="D133" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11107,13 +11103,13 @@
       <c r="A134" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B134" s="211">
+      <c r="B134" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C134" s="211">
+      <c r="C134" s="178">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D134" s="210">
+      <c r="D134" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11121,13 +11117,13 @@
       <c r="A135" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="211">
+      <c r="B135" s="178">
         <v>5</v>
       </c>
-      <c r="C135" s="211">
+      <c r="C135" s="178">
         <v>5</v>
       </c>
-      <c r="D135" s="210">
+      <c r="D135" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11135,13 +11131,13 @@
       <c r="A136" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B136" s="211">
+      <c r="B136" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C136" s="211">
+      <c r="C136" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D136" s="210">
+      <c r="D136" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -11149,13 +11145,13 @@
       <c r="A137" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B137" s="211">
+      <c r="B137" s="178">
         <v>4.8</v>
       </c>
-      <c r="C137" s="211">
+      <c r="C137" s="178">
         <v>4.8</v>
       </c>
-      <c r="D137" s="210">
+      <c r="D137" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -11163,13 +11159,13 @@
       <c r="A138" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B138" s="211">
+      <c r="B138" s="178">
         <v>4.7</v>
       </c>
-      <c r="C138" s="211">
+      <c r="C138" s="178">
         <v>4.7</v>
       </c>
-      <c r="D138" s="210">
+      <c r="D138" s="177">
         <v>2.8</v>
       </c>
     </row>
@@ -11177,13 +11173,13 @@
       <c r="A139" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B139" s="211">
+      <c r="B139" s="178">
         <v>4.7</v>
       </c>
-      <c r="C139" s="211">
+      <c r="C139" s="178">
         <v>4.7</v>
       </c>
-      <c r="D139" s="210">
+      <c r="D139" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11191,13 +11187,13 @@
       <c r="A140" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B140" s="211">
+      <c r="B140" s="178">
         <v>4.3</v>
       </c>
-      <c r="C140" s="211">
+      <c r="C140" s="178">
         <v>4.3</v>
       </c>
-      <c r="D140" s="210">
+      <c r="D140" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11205,13 +11201,13 @@
       <c r="A141" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B141" s="211">
+      <c r="B141" s="178">
         <v>4.2</v>
       </c>
-      <c r="C141" s="211">
+      <c r="C141" s="178">
         <v>4.2</v>
       </c>
-      <c r="D141" s="210">
+      <c r="D141" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -11219,13 +11215,13 @@
       <c r="A142" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B142" s="211">
+      <c r="B142" s="178">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C142" s="211">
+      <c r="C142" s="178">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D142" s="210">
+      <c r="D142" s="177">
         <v>2.4</v>
       </c>
     </row>
@@ -11233,13 +11229,13 @@
       <c r="A143" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B143" s="211">
+      <c r="B143" s="178">
         <v>3.8</v>
       </c>
-      <c r="C143" s="211">
+      <c r="C143" s="178">
         <v>3.8</v>
       </c>
-      <c r="D143" s="210">
+      <c r="D143" s="177">
         <v>2.4</v>
       </c>
     </row>
@@ -11247,13 +11243,13 @@
       <c r="A144" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B144" s="211">
+      <c r="B144" s="178">
         <v>3.7</v>
       </c>
-      <c r="C144" s="211">
+      <c r="C144" s="178">
         <v>3.7</v>
       </c>
-      <c r="D144" s="210">
+      <c r="D144" s="177">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -11261,13 +11257,13 @@
       <c r="A145" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B145" s="211">
+      <c r="B145" s="178">
         <v>4.2</v>
       </c>
-      <c r="C145" s="211">
+      <c r="C145" s="178">
         <v>4.2</v>
       </c>
-      <c r="D145" s="210">
+      <c r="D145" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -11275,13 +11271,13 @@
       <c r="A146" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B146" s="211">
+      <c r="B146" s="178">
         <v>4.3</v>
       </c>
-      <c r="C146" s="211">
+      <c r="C146" s="178">
         <v>4.3</v>
       </c>
-      <c r="D146" s="210">
+      <c r="D146" s="177">
         <v>2.5</v>
       </c>
     </row>
@@ -11289,13 +11285,13 @@
       <c r="A147" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B147" s="211">
+      <c r="B147" s="178">
         <v>4.7</v>
       </c>
-      <c r="C147" s="211">
+      <c r="C147" s="178">
         <v>4.7</v>
       </c>
-      <c r="D147" s="210">
+      <c r="D147" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11303,13 +11299,13 @@
       <c r="A148" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B148" s="211">
+      <c r="B148" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C148" s="211">
+      <c r="C148" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D148" s="210">
+      <c r="D148" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11317,13 +11313,13 @@
       <c r="A149" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B149" s="211">
+      <c r="B149" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C149" s="211">
+      <c r="C149" s="178">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D149" s="210">
+      <c r="D149" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11331,13 +11327,13 @@
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B150" s="211">
+      <c r="B150" s="178">
         <v>4.7</v>
       </c>
-      <c r="C150" s="211">
+      <c r="C150" s="178">
         <v>4.7</v>
       </c>
-      <c r="D150" s="210">
+      <c r="D150" s="177">
         <v>2.6</v>
       </c>
     </row>
@@ -11345,13 +11341,13 @@
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B151" s="211">
+      <c r="B151" s="178">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C151" s="211">
+      <c r="C151" s="178">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D151" s="210">
+      <c r="D151" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11359,13 +11355,13 @@
       <c r="A152" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B152" s="211">
+      <c r="B152" s="178">
         <v>4.5</v>
       </c>
-      <c r="C152" s="211">
+      <c r="C152" s="178">
         <v>4.5</v>
       </c>
-      <c r="D152" s="210">
+      <c r="D152" s="177">
         <v>2.7</v>
       </c>
     </row>
@@ -11540,11 +11536,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="274" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="276"/>
     </row>
     <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="20" t="s">
@@ -11609,8 +11605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -11626,375 +11622,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="243" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="247" t="s">
+      <c r="D1" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="248" t="s">
+      <c r="E1" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="249" t="s">
+      <c r="F1" s="211" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="246" t="s">
+      <c r="G1" s="208" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="250" t="s">
+      <c r="H1" s="212" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="213" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="252">
+      <c r="B2" s="214">
         <v>123.7</v>
       </c>
-      <c r="C2" s="252">
+      <c r="C2" s="214">
         <v>135.77000000000001</v>
       </c>
-      <c r="D2" s="253">
+      <c r="D2" s="215">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="E2" s="254">
+      <c r="E2" s="216">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="F2" s="255">
+      <c r="F2" s="217">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="283">
+      <c r="H2" s="244">
         <v>135.63999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="257" t="s">
+      <c r="A3" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="258">
+      <c r="B3" s="220">
         <v>114.95</v>
       </c>
-      <c r="C3" s="258">
+      <c r="C3" s="220">
         <v>127</v>
       </c>
-      <c r="D3" s="259">
+      <c r="D3" s="221">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="E3" s="260">
+      <c r="E3" s="222">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F3" s="261">
+      <c r="F3" s="223">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="G3" s="262" t="s">
+      <c r="G3" s="224" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="284">
+      <c r="H3" s="245">
         <v>125.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="225" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="264">
+      <c r="B4" s="226">
         <v>3.54</v>
       </c>
-      <c r="C4" s="264">
+      <c r="C4" s="226">
         <v>15.61</v>
       </c>
-      <c r="D4" s="265">
+      <c r="D4" s="227">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="E4" s="266">
+      <c r="E4" s="228">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F4" s="267">
+      <c r="F4" s="229">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G4" s="268" t="s">
+      <c r="G4" s="230" t="s">
         <v>215</v>
       </c>
-      <c r="H4" s="285">
+      <c r="H4" s="246">
         <v>6.77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="213" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="252">
+      <c r="B5" s="214">
         <v>92.59</v>
       </c>
-      <c r="C5" s="252">
+      <c r="C5" s="214">
         <v>107.64</v>
       </c>
-      <c r="D5" s="253">
+      <c r="D5" s="215">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="E5" s="292" t="s">
+      <c r="E5" s="253" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="255">
+      <c r="F5" s="217">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="231" t="s">
         <v>252</v>
       </c>
-      <c r="H5" s="286">
+      <c r="H5" s="247">
         <v>107.45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="219" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="258">
+      <c r="B6" s="220">
         <v>103.58</v>
       </c>
-      <c r="C6" s="258">
+      <c r="C6" s="220">
         <v>118.64</v>
       </c>
-      <c r="D6" s="259">
+      <c r="D6" s="221">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="E6" s="260">
+      <c r="E6" s="222">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="F6" s="261">
+      <c r="F6" s="223">
         <v>3.04E-2</v>
       </c>
-      <c r="G6" s="270" t="s">
+      <c r="G6" s="232" t="s">
         <v>254</v>
       </c>
-      <c r="H6" s="287">
+      <c r="H6" s="248">
         <v>116.62</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="225" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="264">
+      <c r="B7" s="226">
         <v>1.35</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="226">
         <v>16.399999999999999</v>
       </c>
-      <c r="D7" s="265">
+      <c r="D7" s="227">
         <v>1.26E-2</v>
       </c>
-      <c r="E7" s="266">
+      <c r="E7" s="228">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F7" s="267">
+      <c r="F7" s="229">
         <v>2.86E-2</v>
       </c>
-      <c r="G7" s="271" t="s">
+      <c r="G7" s="233" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="288">
+      <c r="H7" s="249">
         <v>7.64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="213" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="252">
+      <c r="B8" s="214">
         <v>114.93</v>
       </c>
-      <c r="C8" s="252">
+      <c r="C8" s="214">
         <v>126.97</v>
       </c>
-      <c r="D8" s="253">
+      <c r="D8" s="215">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E8" s="274">
+      <c r="E8" s="236">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="F8" s="255">
+      <c r="F8" s="217">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="G8" s="272" t="s">
+      <c r="G8" s="234" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="289">
+      <c r="H8" s="250">
         <v>126.74</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="300" t="s">
+      <c r="A9" s="261" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="301">
+      <c r="B9" s="262">
         <v>106.3</v>
       </c>
-      <c r="C9" s="301">
+      <c r="C9" s="262">
         <v>118.34</v>
       </c>
-      <c r="D9" s="302">
+      <c r="D9" s="263">
         <v>1.66E-2</v>
       </c>
-      <c r="E9" s="303">
+      <c r="E9" s="264">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F9" s="304">
+      <c r="F9" s="265">
         <v>2.76E-2</v>
       </c>
-      <c r="G9" s="305" t="s">
+      <c r="G9" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="H9" s="305">
+      <c r="H9" s="266">
         <v>116.12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="225" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="264">
+      <c r="B10" s="226">
         <v>-0.49</v>
       </c>
-      <c r="C10" s="264">
+      <c r="C10" s="226">
         <v>11.56</v>
       </c>
-      <c r="D10" s="265">
+      <c r="D10" s="227">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="E10" s="266">
+      <c r="E10" s="228">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="F10" s="267">
+      <c r="F10" s="229">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="G10" s="271" t="s">
+      <c r="G10" s="233" t="s">
         <v>266</v>
       </c>
-      <c r="H10" s="290">
+      <c r="H10" s="251">
         <v>2.73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A11" s="306" t="s">
+      <c r="A11" s="267" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="307">
+      <c r="B11" s="268">
         <v>114.81</v>
       </c>
-      <c r="C11" s="307">
+      <c r="C11" s="268">
         <v>123.85</v>
       </c>
-      <c r="D11" s="308">
+      <c r="D11" s="269">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E11" s="309">
+      <c r="E11" s="270">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="F11" s="310">
+      <c r="F11" s="271">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="G11" s="311" t="s">
+      <c r="G11" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="H11" s="312">
+      <c r="H11" s="273">
         <v>123.47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="219" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="258">
+      <c r="B12" s="220">
         <v>109.28</v>
       </c>
-      <c r="C12" s="258">
+      <c r="C12" s="220">
         <v>118.31</v>
       </c>
-      <c r="D12" s="259">
+      <c r="D12" s="221">
         <v>1.66E-2</v>
       </c>
-      <c r="E12" s="260">
+      <c r="E12" s="222">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F12" s="261">
+      <c r="F12" s="223">
         <v>2.81E-2</v>
       </c>
-      <c r="G12" s="270" t="s">
+      <c r="G12" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="273">
+      <c r="H12" s="235">
         <v>116.41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="293" t="s">
+      <c r="A13" s="254" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="294">
+      <c r="B13" s="255">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="C13" s="294">
+      <c r="C13" s="255">
         <v>6.56</v>
       </c>
-      <c r="D13" s="295">
+      <c r="D13" s="256">
         <v>1.26E-2</v>
       </c>
-      <c r="E13" s="296">
+      <c r="E13" s="257">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F13" s="297">
+      <c r="F13" s="258">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="G13" s="298" t="s">
+      <c r="G13" s="259" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="299">
+      <c r="H13" s="260">
         <v>-2.34</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="191" t="s">
+      <c r="C35" s="161" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="191" t="s">
+      <c r="D35" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="E35" s="192" t="s">
+      <c r="E35" s="162" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="194">
+      <c r="B36" s="164">
         <v>0.98</v>
       </c>
-      <c r="C36" s="197">
+      <c r="C36" s="167">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="168">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="E36" s="199">
+      <c r="E36" s="169">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12002,16 +11998,16 @@
       <c r="A37" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="195">
+      <c r="B37" s="165">
         <v>0.98</v>
       </c>
-      <c r="C37" s="200">
+      <c r="C37" s="170">
         <v>1.01E-2</v>
       </c>
-      <c r="D37" s="201">
+      <c r="D37" s="171">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="E37" s="202">
+      <c r="E37" s="172">
         <v>2.01E-2</v>
       </c>
     </row>
@@ -12019,58 +12015,61 @@
       <c r="A38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="196">
+      <c r="B38" s="166">
         <v>1</v>
       </c>
-      <c r="C38" s="203">
+      <c r="C38" s="173">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D38" s="204">
+      <c r="D38" s="174">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="E38" s="205">
+      <c r="E38" s="175">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="309" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="200">
+      <c r="B39" s="164"/>
+      <c r="C39" s="167">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="D39" s="201">
+      <c r="D39" s="168">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="E39" s="202">
+      <c r="E39" s="169">
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="200">
+      <c r="B40" s="165"/>
+      <c r="C40" s="170">
         <v>1.78E-2</v>
       </c>
-      <c r="D40" s="201">
+      <c r="D40" s="171">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E40" s="202">
+      <c r="E40" s="172">
         <v>2.87E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="206">
+      <c r="B41" s="166"/>
+      <c r="C41" s="173">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="D41" s="207">
+      <c r="D41" s="174">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="E41" s="208">
+      <c r="E41" s="175">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -12110,24 +12109,24 @@
       <c r="A1" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="163" t="s">
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="164" t="s">
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="286" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="287"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="105" t="s">
@@ -12740,12 +12739,12 @@
       <c r="M13" s="113">
         <v>2.68</v>
       </c>
-      <c r="T13" s="169" t="s">
+      <c r="T13" s="280" t="s">
         <v>246</v>
       </c>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="171"/>
+      <c r="U13" s="281"/>
+      <c r="V13" s="281"/>
+      <c r="W13" s="282"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="41" t="s">
@@ -12787,16 +12786,16 @@
       <c r="M14" s="35">
         <v>2.7</v>
       </c>
-      <c r="O14" s="166" t="s">
+      <c r="O14" s="277" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="174"/>
+      <c r="P14" s="278"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="279"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="284"/>
+      <c r="V14" s="284"/>
+      <c r="W14" s="285"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="54" t="s">
@@ -13011,21 +13010,21 @@
       <c r="A19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="163" t="s">
+      <c r="C19" s="286"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="164" t="s">
+      <c r="F19" s="286"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="286" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
+      <c r="I19" s="286"/>
+      <c r="J19" s="287"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1">
       <c r="A20" s="105" t="s">
@@ -13058,12 +13057,12 @@
       <c r="J20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="166" t="s">
+      <c r="O20" s="277" t="s">
         <v>245</v>
       </c>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
+      <c r="P20" s="278"/>
+      <c r="Q20" s="278"/>
+      <c r="R20" s="279"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="112" t="s">
@@ -13502,21 +13501,21 @@
       <c r="A34" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="164"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="163" t="s">
+      <c r="C34" s="286"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="164" t="s">
+      <c r="F34" s="286"/>
+      <c r="G34" s="287"/>
+      <c r="H34" s="286" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="I34" s="286"/>
+      <c r="J34" s="287"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="151"/>
@@ -13714,11 +13713,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="T13:W14"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
@@ -13726,6 +13720,11 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13748,21 +13747,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="177" t="s">
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="177" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="179"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="293"/>
       <c r="K1" s="45"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
@@ -13838,12 +13837,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="L3" s="180" t="s">
+      <c r="L3" s="294" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="294"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -13882,10 +13881,10 @@
         <f t="shared" si="1"/>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14340,39 +14339,39 @@
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="279">
+      <c r="B15" s="240">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="279">
+      <c r="C15" s="240">
         <f>AVERAGE(C3:C14)</f>
         <v>4.1049999999999995</v>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="239">
         <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
         <v>3.3333333333333361E-3</v>
       </c>
-      <c r="E15" s="280">
+      <c r="E15" s="241">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="279">
+      <c r="F15" s="240">
         <f t="shared" si="3"/>
         <v>4.0991666666666662</v>
       </c>
-      <c r="G15" s="281">
+      <c r="G15" s="242">
         <f t="shared" si="3"/>
         <v>8.3333333333338955E-4</v>
       </c>
-      <c r="H15" s="279">
+      <c r="H15" s="240">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="279">
+      <c r="I15" s="240">
         <f>AVERAGE(I3:I14)</f>
         <v>2.8841666666666672</v>
       </c>
-      <c r="J15" s="281">
+      <c r="J15" s="242">
         <f t="shared" si="3"/>
         <v>4.9166666666666727E-2</v>
       </c>
@@ -14473,21 +14472,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="177" t="s">
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="177" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="179"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="293"/>
       <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" thickBot="1">
@@ -14555,12 +14554,12 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="180" t="s">
+      <c r="L3" s="294" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="294"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -14597,10 +14596,10 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15061,39 +15060,39 @@
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="279">
+      <c r="B15" s="240">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="279">
+      <c r="C15" s="240">
         <f>AVERAGE(C3:C14)</f>
         <v>4.0916666666666659</v>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="239">
         <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
         <v>1.6666666666666607E-2</v>
       </c>
-      <c r="E15" s="280">
+      <c r="E15" s="241">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="279">
+      <c r="F15" s="240">
         <f>AVERAGE(F3:F14)</f>
         <v>4.1083333333333334</v>
       </c>
-      <c r="G15" s="281">
+      <c r="G15" s="242">
         <f t="shared" si="3"/>
         <v>-8.3333333333332291E-3</v>
       </c>
-      <c r="H15" s="279">
+      <c r="H15" s="240">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="279">
+      <c r="I15" s="240">
         <f>AVERAGE(I3:I14)</f>
         <v>2.894166666666667</v>
       </c>
-      <c r="J15" s="281">
+      <c r="J15" s="242">
         <f t="shared" si="3"/>
         <v>3.9166666666666759E-2</v>
       </c>
@@ -15166,26 +15165,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="289" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="178" t="s">
+      <c r="C1" s="290"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="292" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="178" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="179"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="293"/>
       <c r="K1" s="45"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="183"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="297"/>
+      <c r="S1" s="296"/>
+      <c r="T1" s="297"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
@@ -15252,12 +15251,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="299" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="187"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="301"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -15271,7 +15270,7 @@
         <v>4.63</v>
       </c>
       <c r="D4" s="34">
-        <f t="shared" ref="D3:D14" si="2">B4-C4</f>
+        <f t="shared" ref="D4:D14" si="2">B4-C4</f>
         <v>-0.33000000000000007</v>
       </c>
       <c r="E4" s="29">
@@ -15294,10 +15293,10 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="189"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="303"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15734,39 +15733,39 @@
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="214">
+      <c r="B15" s="181">
         <f>AVERAGE(B3:B14)</f>
         <v>3.7916666666666661</v>
       </c>
-      <c r="C15" s="214">
+      <c r="C15" s="181">
         <f t="shared" ref="C15:J15" si="3">AVERAGE(C3:C14)</f>
         <v>4.0933333333333328</v>
       </c>
-      <c r="D15" s="214">
+      <c r="D15" s="181">
         <f>AVERAGE(D3:D14)</f>
         <v>-0.30166666666666658</v>
       </c>
-      <c r="E15" s="214">
+      <c r="E15" s="181">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="214">
+      <c r="F15" s="181">
         <f t="shared" si="3"/>
         <v>4.142500000000001</v>
       </c>
-      <c r="G15" s="277">
+      <c r="G15" s="238">
         <f>AVERAGE(G3:G14)</f>
         <v>-4.2499999999999906E-2</v>
       </c>
-      <c r="H15" s="214">
+      <c r="H15" s="181">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="214">
+      <c r="I15" s="181">
         <f t="shared" si="3"/>
         <v>2.9508333333333332</v>
       </c>
-      <c r="J15" s="278">
+      <c r="J15" s="239">
         <f t="shared" si="3"/>
         <v>-1.7499999999999998E-2</v>
       </c>
@@ -15841,162 +15840,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="304" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="218" t="s">
+      <c r="C1" s="305"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="307" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="218" t="s">
+      <c r="F1" s="307"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="307" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="219"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="308"/>
       <c r="K1" s="45"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
     </row>
     <row r="2" spans="1:21" ht="30.75" thickBot="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="183" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="223" t="s">
+      <c r="H2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="223" t="s">
+      <c r="I2" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="224" t="s">
+      <c r="J2" s="186" t="s">
         <v>195</v>
       </c>
       <c r="K2" s="45"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
     </row>
     <row r="3" spans="1:21" ht="18" thickBot="1">
-      <c r="B3" s="225">
+      <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="226">
+      <c r="C3" s="188">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D3" s="227">
+      <c r="D3" s="189">
         <f>B3-C3</f>
         <v>-5.0000000000000711E-2</v>
       </c>
-      <c r="E3" s="228">
+      <c r="E3" s="190">
         <v>3.9</v>
       </c>
-      <c r="F3" s="229">
+      <c r="F3" s="191">
         <v>3.81</v>
       </c>
-      <c r="G3" s="230">
+      <c r="G3" s="192">
         <f t="shared" ref="G3:G14" si="0">E3-F3</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="H3" s="228">
+      <c r="H3" s="190">
         <v>2.8</v>
       </c>
-      <c r="I3" s="229">
+      <c r="I3" s="191">
         <v>2.7</v>
       </c>
-      <c r="J3" s="230">
+      <c r="J3" s="192">
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="299" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="187"/>
-      <c r="T3" s="209"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="301"/>
+      <c r="T3" s="176"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1">
-      <c r="B4" s="225">
+      <c r="B4" s="187">
         <v>4.3</v>
       </c>
-      <c r="C4" s="231">
+      <c r="C4" s="193">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D4" s="227">
+      <c r="D4" s="189">
         <f t="shared" ref="D4:D14" si="2">B4-C4</f>
         <v>-0.33999999999999986</v>
       </c>
-      <c r="E4" s="231">
+      <c r="E4" s="193">
         <v>4</v>
       </c>
-      <c r="F4" s="232">
+      <c r="F4" s="194">
         <v>3.83</v>
       </c>
-      <c r="G4" s="227">
+      <c r="G4" s="189">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="H4" s="231">
+      <c r="H4" s="193">
         <v>2.9</v>
       </c>
-      <c r="I4" s="232">
+      <c r="I4" s="194">
         <v>2.83</v>
       </c>
-      <c r="J4" s="227">
+      <c r="J4" s="189">
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="189"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="303"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1">
-      <c r="B5" s="225">
+      <c r="B5" s="187">
         <v>4.2</v>
       </c>
-      <c r="C5" s="231">
+      <c r="C5" s="193">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D5" s="227">
+      <c r="D5" s="189">
         <f t="shared" si="2"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="E5" s="231">
+      <c r="E5" s="193">
         <v>4.2</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="194">
         <v>3.97</v>
       </c>
-      <c r="G5" s="227">
+      <c r="G5" s="189">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="H5" s="231">
+      <c r="H5" s="193">
         <v>3.1</v>
       </c>
-      <c r="I5" s="232">
+      <c r="I5" s="194">
         <v>2.92</v>
       </c>
-      <c r="J5" s="227">
+      <c r="J5" s="189">
         <f t="shared" si="1"/>
         <v>0.18000000000000016</v>
       </c>
@@ -16012,37 +16011,37 @@
       <c r="O5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="209"/>
-      <c r="U5" s="209"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1">
-      <c r="B6" s="225">
+      <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="231">
+      <c r="C6" s="193">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D6" s="227">
+      <c r="D6" s="189">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="E6" s="231">
+      <c r="E6" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="194">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="189">
         <f t="shared" si="0"/>
         <v>0.13000000000000078</v>
       </c>
-      <c r="H6" s="231">
+      <c r="H6" s="193">
         <v>3.2</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="194">
         <v>3.15</v>
       </c>
-      <c r="J6" s="227">
+      <c r="J6" s="189">
         <f t="shared" si="1"/>
         <v>5.0000000000000266E-2</v>
       </c>
@@ -16058,37 +16057,37 @@
       <c r="O6" s="46">
         <v>0.4</v>
       </c>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1">
-      <c r="B7" s="225">
+      <c r="B7" s="187">
         <v>4</v>
       </c>
-      <c r="C7" s="231">
+      <c r="C7" s="193">
         <v>4.07</v>
       </c>
-      <c r="D7" s="227">
+      <c r="D7" s="189">
         <f t="shared" si="2"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="E7" s="231">
+      <c r="E7" s="193">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="232">
+      <c r="F7" s="194">
         <v>4.5</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="189">
         <f t="shared" si="0"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H7" s="231">
+      <c r="H7" s="193">
         <v>3.2</v>
       </c>
-      <c r="I7" s="232">
+      <c r="I7" s="194">
         <v>3.23</v>
       </c>
-      <c r="J7" s="227">
+      <c r="J7" s="189">
         <f t="shared" si="1"/>
         <v>-2.9999999999999805E-2</v>
       </c>
@@ -16104,37 +16103,37 @@
       <c r="O7" s="50">
         <v>0.69</v>
       </c>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
-      <c r="B8" s="225">
+      <c r="B8" s="187">
         <v>3.8</v>
       </c>
-      <c r="C8" s="231">
+      <c r="C8" s="193">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="189">
         <f t="shared" si="2"/>
         <v>-0.3100000000000005</v>
       </c>
-      <c r="E8" s="231">
+      <c r="E8" s="193">
         <v>4.5</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="194">
         <v>4.3899999999999997</v>
       </c>
-      <c r="G8" s="227">
+      <c r="G8" s="189">
         <f t="shared" si="0"/>
         <v>0.11000000000000032</v>
       </c>
-      <c r="H8" s="231">
+      <c r="H8" s="193">
         <v>3.1</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="194">
         <v>3.2</v>
       </c>
-      <c r="J8" s="227">
+      <c r="J8" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
@@ -16150,180 +16149,180 @@
       <c r="O8" s="47">
         <v>0.81</v>
       </c>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1">
-      <c r="B9" s="225">
+      <c r="B9" s="187">
         <v>3.8</v>
       </c>
-      <c r="C9" s="231">
+      <c r="C9" s="193">
         <v>3.94</v>
       </c>
-      <c r="D9" s="227">
+      <c r="D9" s="189">
         <f t="shared" si="2"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="E9" s="231">
+      <c r="E9" s="193">
         <v>4.3</v>
       </c>
-      <c r="F9" s="232">
+      <c r="F9" s="194">
         <v>4.4400000000000004</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="189">
         <f t="shared" si="0"/>
         <v>-0.14000000000000057</v>
       </c>
-      <c r="H9" s="231">
+      <c r="H9" s="193">
         <v>3.1</v>
       </c>
-      <c r="I9" s="232">
+      <c r="I9" s="194">
         <v>3.08</v>
       </c>
-      <c r="J9" s="227">
+      <c r="J9" s="189">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333320458E-4</v>
       </c>
-      <c r="B10" s="225">
+      <c r="B10" s="187">
         <v>3.8</v>
       </c>
-      <c r="C10" s="231">
+      <c r="C10" s="193">
         <v>3.86</v>
       </c>
-      <c r="D10" s="227">
+      <c r="D10" s="189">
         <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="E10" s="231">
+      <c r="E10" s="193">
         <v>4.2</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="194">
         <v>4.22</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="189">
         <f t="shared" si="0"/>
         <v>-1.9999999999999574E-2</v>
       </c>
-      <c r="H10" s="231">
+      <c r="H10" s="193">
         <v>3</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="194">
         <v>3.1</v>
       </c>
-      <c r="J10" s="227">
+      <c r="J10" s="189">
         <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
     </row>
     <row r="11" spans="1:21" ht="18" thickBot="1">
-      <c r="B11" s="225">
+      <c r="B11" s="187">
         <v>3.8</v>
       </c>
-      <c r="C11" s="231">
+      <c r="C11" s="193">
         <v>3.72</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="189">
         <f t="shared" si="2"/>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="E11" s="231">
+      <c r="E11" s="193">
         <v>4</v>
       </c>
-      <c r="F11" s="232">
+      <c r="F11" s="194">
         <v>4.18</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="189">
         <f t="shared" si="0"/>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="H11" s="231">
+      <c r="H11" s="193">
         <v>2.7</v>
       </c>
-      <c r="I11" s="232">
+      <c r="I11" s="194">
         <v>2.97</v>
       </c>
-      <c r="J11" s="227">
+      <c r="J11" s="189">
         <f t="shared" si="1"/>
         <v>-0.27</v>
       </c>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1">
-      <c r="B12" s="225">
+      <c r="B12" s="187">
         <v>3.8</v>
       </c>
-      <c r="C12" s="231">
+      <c r="C12" s="193">
         <v>3.66</v>
       </c>
-      <c r="D12" s="227">
+      <c r="D12" s="189">
         <f t="shared" si="2"/>
         <v>0.13999999999999968</v>
       </c>
-      <c r="E12" s="231">
+      <c r="E12" s="193">
         <v>3.8</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="194">
         <v>4.01</v>
       </c>
-      <c r="G12" s="227">
+      <c r="G12" s="189">
         <f t="shared" si="0"/>
         <v>-0.20999999999999996</v>
       </c>
-      <c r="H12" s="231">
+      <c r="H12" s="193">
         <v>2.7</v>
       </c>
-      <c r="I12" s="232">
+      <c r="I12" s="194">
         <v>2.62</v>
       </c>
-      <c r="J12" s="227">
+      <c r="J12" s="189">
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="L12" t="s">
         <v>200</v>
       </c>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B13" s="225">
+      <c r="B13" s="187">
         <v>4.2</v>
       </c>
-      <c r="C13" s="231">
+      <c r="C13" s="193">
         <v>3.79</v>
       </c>
-      <c r="D13" s="227">
+      <c r="D13" s="189">
         <f t="shared" si="2"/>
         <v>0.41000000000000014</v>
       </c>
-      <c r="E13" s="231">
+      <c r="E13" s="193">
         <v>3.8</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="194">
         <v>3.79</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="189">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="H13" s="231">
+      <c r="H13" s="193">
         <v>2.7</v>
       </c>
-      <c r="I13" s="232">
+      <c r="I13" s="194">
         <v>2.7</v>
       </c>
-      <c r="J13" s="227">
+      <c r="J13" s="189">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -16335,33 +16334,33 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B14" s="225">
+      <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="233">
+      <c r="C14" s="195">
         <v>4.25</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="189">
         <f t="shared" si="2"/>
         <v>0.65000000000000036</v>
       </c>
-      <c r="E14" s="233">
+      <c r="E14" s="195">
         <v>3.7</v>
       </c>
-      <c r="F14" s="234">
+      <c r="F14" s="196">
         <v>3.8</v>
       </c>
-      <c r="G14" s="235">
+      <c r="G14" s="197">
         <f t="shared" si="0"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="H14" s="233">
+      <c r="H14" s="195">
         <v>2.7</v>
       </c>
-      <c r="I14" s="234">
+      <c r="I14" s="196">
         <v>2.69</v>
       </c>
-      <c r="J14" s="235">
+      <c r="J14" s="197">
         <f t="shared" si="1"/>
         <v>1.0000000000000231E-2</v>
       </c>
@@ -16376,39 +16375,39 @@
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="237">
+      <c r="B15" s="199">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="237">
-        <f t="shared" ref="C15:J15" si="3">AVERAGE(C3:C14)</f>
+      <c r="C15" s="199">
+        <f t="shared" ref="C15:H15" si="3">AVERAGE(C3:C14)</f>
         <v>4.078333333333334</v>
       </c>
-      <c r="D15" s="275">
+      <c r="D15" s="237">
         <f t="shared" si="3"/>
         <v>2.9999999999999843E-2</v>
       </c>
-      <c r="E15" s="237">
+      <c r="E15" s="199">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="237">
+      <c r="F15" s="199">
         <f t="shared" si="3"/>
         <v>4.1008333333333331</v>
       </c>
-      <c r="G15" s="242">
+      <c r="G15" s="204">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333320458E-4</v>
       </c>
-      <c r="H15" s="237">
+      <c r="H15" s="199">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="237">
+      <c r="I15" s="199">
         <f>AVERAGE(I3:I14)</f>
         <v>2.9324999999999997</v>
       </c>
-      <c r="J15" s="243">
+      <c r="J15" s="205">
         <f>AVERAGE(J3:J14)</f>
         <v>8.3333333333335258E-4</v>
       </c>
@@ -16420,36 +16419,36 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238" t="s">
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238" t="s">
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="241">
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="203">
         <v>0.77</v>
       </c>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="239">
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="201">
         <v>0.83</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="240">
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="202">
         <v>0.85</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A3109-3415-4EEB-B8B2-1E9EBE4FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB6E45-9A3E-4D4F-97A9-BAF719006A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="teszt adatok" sheetId="1" r:id="rId1"/>
     <sheet name="tanító adatok" sheetId="2" r:id="rId2"/>
     <sheet name="tanito adatok elemzese" sheetId="3" r:id="rId3"/>
-    <sheet name="összesítő" sheetId="4" r:id="rId4"/>
-    <sheet name="osszesito megyenkent" sheetId="8" r:id="rId5"/>
+    <sheet name="osszesito megyenkent" sheetId="8" r:id="rId4"/>
+    <sheet name="összesítő" sheetId="4" r:id="rId5"/>
     <sheet name="MLP" sheetId="6" r:id="rId6"/>
     <sheet name="LSTM" sheetId="7" r:id="rId7"/>
     <sheet name="AR2" sheetId="5" r:id="rId8"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
   <si>
     <t>idoszak</t>
   </si>
@@ -887,6 +887,18 @@
   </si>
   <si>
     <t>BIC</t>
+  </si>
+  <si>
+    <t>R2 a jóslatok és a mért adatok között</t>
+  </si>
+  <si>
+    <t>Kovászna MLP  log</t>
+  </si>
+  <si>
+    <t>Hargita MLP log</t>
+  </si>
+  <si>
+    <t>Maros MLP  log</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2207,13 +2219,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDBDBDB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDBDBDB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2808,6 +2831,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2913,10 +2942,10 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3028,15 +3057,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52157</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>176693</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>10593</xdr:rowOff>
+      <xdr:colOff>329093</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3064,8 +3093,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="2813286"/>
-          <a:ext cx="7527752" cy="4225636"/>
+          <a:off x="152400" y="2635337"/>
+          <a:ext cx="7491893" cy="4233256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3457,16 +3486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2193967</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>37666</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669101</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>825556</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>125741</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>964101</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>73787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3494,8 +3523,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7170780" y="11515291"/>
-          <a:ext cx="7100763" cy="3898075"/>
+          <a:off x="7163419" y="10636394"/>
+          <a:ext cx="7118364" cy="3967348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3523,7 +3552,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>204978</xdr:colOff>
+      <xdr:colOff>956768</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>61818</xdr:rowOff>
     </xdr:to>
@@ -3645,8 +3674,8 @@
       <xdr:rowOff>196859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530970</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203526</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>4202</xdr:rowOff>
     </xdr:to>
@@ -3764,7 +3793,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>69832</xdr:colOff>
+      <xdr:colOff>69831</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>60231</xdr:rowOff>
     </xdr:to>
@@ -3825,7 +3854,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1008528</xdr:colOff>
+      <xdr:colOff>1008527</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180265</xdr:rowOff>
     </xdr:to>
@@ -3859,6 +3888,67 @@
         <a:xfrm>
           <a:off x="20125763" y="0"/>
           <a:ext cx="8482853" cy="3923030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>854529</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>379640</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>93888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Becslések grafikonja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D126BDC0-83AD-7949-0819-350F92950642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17278350" y="9560378"/>
+          <a:ext cx="5811611" cy="2684689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7925,7 +8015,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7935,21 +8025,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="304" t="s">
+      <c r="B1" s="306" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="307" t="s">
+      <c r="C1" s="307"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="309" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="307" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="309" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="307"/>
-      <c r="J1" s="308"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="310"/>
       <c r="K1" s="45"/>
       <c r="T1" s="206"/>
       <c r="U1" s="206"/>
@@ -8017,12 +8107,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="299" t="s">
+      <c r="L3" s="301" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="301"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="303"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
@@ -8057,10 +8147,10 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="303"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="305"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
@@ -8576,7 +8666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5270CE-143D-45D2-B1D3-8010D3B1ED7D}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
@@ -8587,21 +8677,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="304" t="s">
+      <c r="B1" s="306" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="307" t="s">
+      <c r="C1" s="307"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="309" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="307" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="309" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="307"/>
-      <c r="J1" s="308"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="310"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
@@ -8669,12 +8759,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="299" t="s">
+      <c r="L3" s="301" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="301"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="303"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
@@ -8709,10 +8799,10 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="303"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="305"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
@@ -11374,8 +11464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60708DF5-AA5B-4AE5-85E0-4F57B5D094D9}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A20" zoomScale="36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -11536,11 +11626,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="274" t="s">
+      <c r="A30" s="276" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="276"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="278"/>
     </row>
     <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="20" t="s">
@@ -11602,489 +11692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="207" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="243" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="208" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="209" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="210" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="211" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="208" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="212" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="213" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="214">
-        <v>123.7</v>
-      </c>
-      <c r="C2" s="214">
-        <v>135.77000000000001</v>
-      </c>
-      <c r="D2" s="215">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="E2" s="216">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="F2" s="217">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="G2" s="218" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="244">
-        <v>135.63999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="219" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="220">
-        <v>114.95</v>
-      </c>
-      <c r="C3" s="220">
-        <v>127</v>
-      </c>
-      <c r="D3" s="221">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="E3" s="222">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F3" s="223">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="G3" s="224" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="245">
-        <v>125.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="225" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="226">
-        <v>3.54</v>
-      </c>
-      <c r="C4" s="226">
-        <v>15.61</v>
-      </c>
-      <c r="D4" s="227">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="E4" s="228">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="F4" s="229">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G4" s="230" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="246">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="213" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="214">
-        <v>92.59</v>
-      </c>
-      <c r="C5" s="214">
-        <v>107.64</v>
-      </c>
-      <c r="D5" s="215">
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="E5" s="253" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="217">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="G5" s="231" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="247">
-        <v>107.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="220">
-        <v>103.58</v>
-      </c>
-      <c r="C6" s="220">
-        <v>118.64</v>
-      </c>
-      <c r="D6" s="221">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="E6" s="222">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="F6" s="223">
-        <v>3.04E-2</v>
-      </c>
-      <c r="G6" s="232" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="248">
-        <v>116.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="225" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="226">
-        <v>1.35</v>
-      </c>
-      <c r="C7" s="226">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D7" s="227">
-        <v>1.26E-2</v>
-      </c>
-      <c r="E7" s="228">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="F7" s="229">
-        <v>2.86E-2</v>
-      </c>
-      <c r="G7" s="233" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="249">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="213" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="214">
-        <v>114.93</v>
-      </c>
-      <c r="C8" s="214">
-        <v>126.97</v>
-      </c>
-      <c r="D8" s="215">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E8" s="236">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="F8" s="217">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="G8" s="234" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" s="250">
-        <v>126.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="261" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="262">
-        <v>106.3</v>
-      </c>
-      <c r="C9" s="262">
-        <v>118.34</v>
-      </c>
-      <c r="D9" s="263">
-        <v>1.66E-2</v>
-      </c>
-      <c r="E9" s="264">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="F9" s="265">
-        <v>2.76E-2</v>
-      </c>
-      <c r="G9" s="266" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="266">
-        <v>116.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="225" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="226">
-        <v>-0.49</v>
-      </c>
-      <c r="C10" s="226">
-        <v>11.56</v>
-      </c>
-      <c r="D10" s="227">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="E10" s="228">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="F10" s="229">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="G10" s="233" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="251">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A11" s="267" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="268">
-        <v>114.81</v>
-      </c>
-      <c r="C11" s="268">
-        <v>123.85</v>
-      </c>
-      <c r="D11" s="269">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="E11" s="270">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="F11" s="271">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="G11" s="272" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="273">
-        <v>123.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A12" s="219" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="220">
-        <v>109.28</v>
-      </c>
-      <c r="C12" s="220">
-        <v>118.31</v>
-      </c>
-      <c r="D12" s="221">
-        <v>1.66E-2</v>
-      </c>
-      <c r="E12" s="222">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F12" s="223">
-        <v>2.81E-2</v>
-      </c>
-      <c r="G12" s="232" t="s">
-        <v>270</v>
-      </c>
-      <c r="H12" s="235">
-        <v>116.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="254" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="255">
-        <v>-2.4700000000000002</v>
-      </c>
-      <c r="C13" s="255">
-        <v>6.56</v>
-      </c>
-      <c r="D13" s="256">
-        <v>1.26E-2</v>
-      </c>
-      <c r="E13" s="257">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="F13" s="258">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="G13" s="259" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="260">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="35" spans="1:5" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A35" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="161" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="161" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="162" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="163" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="164">
-        <v>0.98</v>
-      </c>
-      <c r="C36" s="167">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="D36" s="168">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="E36" s="169">
-        <v>3.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="165">
-        <v>0.98</v>
-      </c>
-      <c r="C37" s="170">
-        <v>1.01E-2</v>
-      </c>
-      <c r="D37" s="171">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="E37" s="172">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A38" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="166">
-        <v>1</v>
-      </c>
-      <c r="C38" s="173">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D38" s="174">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="E38" s="175">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="309" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="167">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="D39" s="168">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="E39" s="169">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A40" s="309" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="170">
-        <v>1.78E-2</v>
-      </c>
-      <c r="D40" s="171">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="E40" s="172">
-        <v>2.87E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A41" s="310" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="166"/>
-      <c r="C41" s="173">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="D41" s="174">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="E41" s="175">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A093AE-2E50-418D-93EB-C99F35A216AE}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="83" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12109,24 +11721,24 @@
       <c r="A1" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="288" t="s">
+      <c r="B1" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="288" t="s">
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="286" t="s">
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="287"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="289"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="105" t="s">
@@ -12739,12 +12351,12 @@
       <c r="M13" s="113">
         <v>2.68</v>
       </c>
-      <c r="T13" s="280" t="s">
+      <c r="T13" s="282" t="s">
         <v>246</v>
       </c>
-      <c r="U13" s="281"/>
-      <c r="V13" s="281"/>
-      <c r="W13" s="282"/>
+      <c r="U13" s="283"/>
+      <c r="V13" s="283"/>
+      <c r="W13" s="284"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="41" t="s">
@@ -12786,16 +12398,16 @@
       <c r="M14" s="35">
         <v>2.7</v>
       </c>
-      <c r="O14" s="277" t="s">
+      <c r="O14" s="279" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="279"/>
-      <c r="T14" s="283"/>
-      <c r="U14" s="284"/>
-      <c r="V14" s="284"/>
-      <c r="W14" s="285"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="281"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="286"/>
+      <c r="W14" s="287"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="54" t="s">
@@ -13010,21 +12622,21 @@
       <c r="A19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="288" t="s">
+      <c r="C19" s="288"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="286"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="286" t="s">
+      <c r="F19" s="288"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="286"/>
-      <c r="J19" s="287"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="289"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1">
       <c r="A20" s="105" t="s">
@@ -13057,12 +12669,12 @@
       <c r="J20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="277" t="s">
+      <c r="O20" s="279" t="s">
         <v>245</v>
       </c>
-      <c r="P20" s="278"/>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="279"/>
+      <c r="P20" s="280"/>
+      <c r="Q20" s="280"/>
+      <c r="R20" s="281"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="112" t="s">
@@ -13501,21 +13113,21 @@
       <c r="A34" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="286"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288" t="s">
+      <c r="C34" s="288"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="286"/>
-      <c r="G34" s="287"/>
-      <c r="H34" s="286" t="s">
+      <c r="F34" s="288"/>
+      <c r="G34" s="289"/>
+      <c r="H34" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="286"/>
-      <c r="J34" s="287"/>
+      <c r="I34" s="288"/>
+      <c r="J34" s="289"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="151"/>
@@ -13730,12 +13342,572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
+  <dimension ref="A1:V41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A1" s="207" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="243" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="209" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="211" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="208" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="212" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="214">
+        <v>123.7</v>
+      </c>
+      <c r="C2" s="214">
+        <v>135.77000000000001</v>
+      </c>
+      <c r="D2" s="215">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E2" s="216">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="F2" s="217">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G2" s="218" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="244">
+        <v>135.63999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="219" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="220">
+        <v>114.95</v>
+      </c>
+      <c r="C3" s="220">
+        <v>127</v>
+      </c>
+      <c r="D3" s="221">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E3" s="222">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F3" s="223">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="G3" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="245">
+        <v>125.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="225" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="226">
+        <v>3.54</v>
+      </c>
+      <c r="C4" s="226">
+        <v>15.61</v>
+      </c>
+      <c r="D4" s="227">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E4" s="228">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F4" s="229">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4" s="230" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="246">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A5" s="213" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="214">
+        <v>92.59</v>
+      </c>
+      <c r="C5" s="214">
+        <v>107.64</v>
+      </c>
+      <c r="D5" s="215">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="E5" s="253" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="217">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="G5" s="231" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="247">
+        <v>107.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A6" s="219" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="220">
+        <v>103.58</v>
+      </c>
+      <c r="C6" s="220">
+        <v>118.64</v>
+      </c>
+      <c r="D6" s="221">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E6" s="222">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="F6" s="223">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G6" s="232" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="248">
+        <v>116.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="225" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="226">
+        <v>1.35</v>
+      </c>
+      <c r="C7" s="226">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D7" s="227">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E7" s="228">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F7" s="229">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G7" s="233" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="249">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A8" s="213" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="214">
+        <v>114.93</v>
+      </c>
+      <c r="C8" s="214">
+        <v>126.97</v>
+      </c>
+      <c r="D8" s="215">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E8" s="236">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="F8" s="217">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="G8" s="234" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="250">
+        <v>126.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A9" s="261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="262">
+        <v>106.3</v>
+      </c>
+      <c r="C9" s="262">
+        <v>118.34</v>
+      </c>
+      <c r="D9" s="263">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E9" s="264">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F9" s="265">
+        <v>2.76E-2</v>
+      </c>
+      <c r="G9" s="266" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="266">
+        <v>116.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="225" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="226">
+        <v>-0.49</v>
+      </c>
+      <c r="C10" s="226">
+        <v>11.56</v>
+      </c>
+      <c r="D10" s="227">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E10" s="228">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F10" s="229">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="G10" s="233" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="251">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A11" s="267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="268">
+        <v>114.81</v>
+      </c>
+      <c r="C11" s="268">
+        <v>123.85</v>
+      </c>
+      <c r="D11" s="269">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E11" s="270">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="F11" s="271">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G11" s="272" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="273">
+        <v>123.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A12" s="219" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="220">
+        <v>109.28</v>
+      </c>
+      <c r="C12" s="220">
+        <v>118.31</v>
+      </c>
+      <c r="D12" s="221">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E12" s="222">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F12" s="223">
+        <v>2.81E-2</v>
+      </c>
+      <c r="G12" s="232" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="235">
+        <v>116.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A13" s="254" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="255">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="C13" s="255">
+        <v>6.56</v>
+      </c>
+      <c r="D13" s="256">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E13" s="257">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F13" s="258">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="G13" s="259" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="260">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1"/>
+    <row r="35" spans="1:22" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A35" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="161" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A36" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="164">
+        <v>0.98</v>
+      </c>
+      <c r="C36" s="167">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D36" s="168">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E36" s="169">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A37" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="165">
+        <v>0.98</v>
+      </c>
+      <c r="C37" s="170">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D37" s="171">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="E37" s="172">
+        <v>2.01E-2</v>
+      </c>
+      <c r="P37" s="206" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="206" t="s">
+        <v>216</v>
+      </c>
+      <c r="R37" s="206" t="s">
+        <v>281</v>
+      </c>
+      <c r="S37" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="T37" s="206" t="s">
+        <v>192</v>
+      </c>
+      <c r="U37" s="206" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="166">
+        <v>1</v>
+      </c>
+      <c r="C38" s="173">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D38" s="174">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="E38" s="175">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="P38" s="176" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q38" s="176">
+        <v>0.98</v>
+      </c>
+      <c r="R38" s="176">
+        <v>0.68</v>
+      </c>
+      <c r="S38" s="311">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="T38" s="311">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="U38" s="311">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="V38" s="312">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A39" s="274" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="164"/>
+      <c r="C39" s="167">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="D39" s="168">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="E39" s="169">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="P39" s="176" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q39" s="176">
+        <v>0.95</v>
+      </c>
+      <c r="R39" s="176">
+        <v>0.75</v>
+      </c>
+      <c r="S39" s="311">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="T39" s="311">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="U39" s="311">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="V39" s="312">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A40" s="274" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="165"/>
+      <c r="C40" s="170">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D40" s="171">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E40" s="172">
+        <v>2.87E-2</v>
+      </c>
+      <c r="P40" s="176" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q40" s="176">
+        <v>0.98</v>
+      </c>
+      <c r="R40" s="176">
+        <v>0.7</v>
+      </c>
+      <c r="S40" s="311">
+        <v>1.15E-2</v>
+      </c>
+      <c r="T40" s="311">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="U40" s="311">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="V40" s="312">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A41" s="275" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="166"/>
+      <c r="C41" s="173">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="D41" s="174">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="E41" s="175">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522180D-F88B-4A26-9A14-CAA2DCEBA3C7}">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
@@ -13747,21 +13919,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291" t="s">
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="291" t="s">
+      <c r="F1" s="294"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="293" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="292"/>
-      <c r="J1" s="293"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="295"/>
       <c r="K1" s="45"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
@@ -13837,12 +14009,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="L3" s="294" t="s">
+      <c r="L3" s="296" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="294"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -13881,10 +14053,10 @@
         <f t="shared" si="1"/>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L4" s="295"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="295"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14465,28 +14637,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF7217-6579-4043-9043-94ED9D7FA082}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291" t="s">
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="291" t="s">
+      <c r="F1" s="294"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="293" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="292"/>
-      <c r="J1" s="293"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="295"/>
       <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" thickBot="1">
@@ -14554,12 +14726,12 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="294" t="s">
+      <c r="L3" s="296" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="294"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -14596,10 +14768,10 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="295"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="295"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15165,26 +15337,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="291" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="292" t="s">
+      <c r="C1" s="292"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="294" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="292" t="s">
+      <c r="F1" s="294"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="294" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="292"/>
-      <c r="J1" s="293"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="295"/>
       <c r="K1" s="45"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="297"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="297"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="299"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
@@ -15251,12 +15423,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="299" t="s">
+      <c r="L3" s="301" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="301"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="303"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -15293,10 +15465,10 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="303"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="305"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15829,8 +16001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F045DFA-AA87-4342-BAAF-AC7CC90E04F0}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15840,21 +16012,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="304" t="s">
+      <c r="B1" s="306" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="307" t="s">
+      <c r="C1" s="307"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="309" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="307" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="309" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="307"/>
-      <c r="J1" s="308"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="310"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
@@ -15922,12 +16094,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="299" t="s">
+      <c r="L3" s="301" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="301"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="303"/>
       <c r="T3" s="176"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1">
@@ -15961,10 +16133,10 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="295"/>
-      <c r="N4" s="295"/>
-      <c r="O4" s="303"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="305"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB6E45-9A3E-4D4F-97A9-BAF719006A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454FB77-8B43-417E-994F-6A619E23314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="teszt adatok" sheetId="1" r:id="rId1"/>
@@ -2837,6 +2837,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2846,6 +2849,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2873,15 +2885,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2942,10 +2945,7 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5834,8 +5834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11823569" y="4196318"/>
-          <a:ext cx="5448289" cy="3209648"/>
+          <a:off x="11924422" y="4380095"/>
+          <a:ext cx="5506559" cy="3019148"/>
           <a:chOff x="11920922" y="4245944"/>
           <a:chExt cx="5449544" cy="3209648"/>
         </a:xfrm>
@@ -5978,8 +5978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5785293" y="4079728"/>
-          <a:ext cx="5751179" cy="3135964"/>
+          <a:off x="5841323" y="4263505"/>
+          <a:ext cx="5791520" cy="2956670"/>
           <a:chOff x="6132181" y="4916272"/>
           <a:chExt cx="5745242" cy="3135964"/>
         </a:xfrm>
@@ -6127,8 +6127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="3939168"/>
-          <a:ext cx="5746299" cy="3453542"/>
+          <a:off x="0" y="4134151"/>
+          <a:ext cx="5802329" cy="3251836"/>
           <a:chOff x="0" y="4103358"/>
           <a:chExt cx="5747387" cy="3453542"/>
         </a:xfrm>
@@ -7821,7 +7821,7 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -7991,7 +7991,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -8014,37 +8014,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3736B0-53E7-488D-8817-F3D7793FCE3E}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="306" t="s">
+    <row r="1" spans="1:21" ht="19.8" thickBot="1">
+      <c r="B1" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="307"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309" t="s">
+      <c r="C1" s="308"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="310" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="309" t="s">
+      <c r="F1" s="310"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="310" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="309"/>
-      <c r="J1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="311"/>
       <c r="K1" s="45"/>
       <c r="T1" s="206"/>
       <c r="U1" s="206"/>
     </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1">
+    <row r="2" spans="1:21" ht="28.2" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="T2" s="206"/>
       <c r="U2" s="206"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1">
+    <row r="3" spans="1:21" ht="19.8" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -8107,16 +8107,16 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="301" t="s">
+      <c r="L3" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="304"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="18" thickBot="1">
+    <row r="4" spans="1:21" ht="19.8" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -8147,14 +8147,14 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="306"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1">
+    <row r="5" spans="1:21" ht="19.8" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1">
+    <row r="6" spans="1:21" ht="19.8" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1">
+    <row r="7" spans="1:21" ht="19.8" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1">
+    <row r="8" spans="1:21" ht="19.8" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1">
+    <row r="9" spans="1:21" ht="19.8" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
+    <row r="10" spans="1:21" ht="19.8" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>1.6666666666668162E-3</v>
@@ -8410,7 +8410,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1">
+    <row r="11" spans="1:21" ht="19.8" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1">
+    <row r="12" spans="1:21" ht="19.8" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -8481,7 +8481,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="18" thickBot="1">
+    <row r="13" spans="1:21" ht="19.8" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="T13" s="176"/>
       <c r="U13" s="176"/>
     </row>
-    <row r="14" spans="1:21" ht="18" thickBot="1">
+    <row r="14" spans="1:21" ht="19.8" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="T14" s="176"/>
       <c r="U14" s="176"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+    <row r="15" spans="1:21" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -8625,7 +8625,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+    <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17">
@@ -8670,33 +8670,33 @@
       <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="306" t="s">
+    <row r="1" spans="1:21" ht="19.8" thickBot="1">
+      <c r="B1" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="307"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309" t="s">
+      <c r="C1" s="308"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="310" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="309" t="s">
+      <c r="F1" s="310"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="309"/>
-      <c r="J1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="311"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
     </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1">
+    <row r="2" spans="1:21" ht="28.2" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -8728,7 +8728,7 @@
       <c r="T2" s="176"/>
       <c r="U2" s="176"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1">
+    <row r="3" spans="1:21" ht="19.8" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -8759,16 +8759,16 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="301" t="s">
+      <c r="L3" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="304"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="18" thickBot="1">
+    <row r="4" spans="1:21" ht="19.8" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -8799,14 +8799,14 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="306"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1">
+    <row r="5" spans="1:21" ht="19.8" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1">
+    <row r="6" spans="1:21" ht="19.8" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -8898,7 +8898,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1">
+    <row r="7" spans="1:21" ht="19.8" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1">
+    <row r="8" spans="1:21" ht="19.8" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -8990,7 +8990,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1">
+    <row r="9" spans="1:21" ht="19.8" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
+    <row r="10" spans="1:21" ht="19.8" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333333037E-3</v>
@@ -9062,7 +9062,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1">
+    <row r="11" spans="1:21" ht="19.8" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1">
+    <row r="12" spans="1:21" ht="19.8" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="18" thickBot="1">
+    <row r="13" spans="1:21" ht="19.8" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="T13" s="176"/>
       <c r="U13" s="176"/>
     </row>
-    <row r="14" spans="1:21" ht="18" thickBot="1">
+    <row r="14" spans="1:21" ht="19.8" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -9213,7 +9213,7 @@
       <c r="T14" s="176"/>
       <c r="U14" s="176"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+    <row r="15" spans="1:21" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -9277,7 +9277,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+    <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17" s="252">
@@ -9322,7 +9322,7 @@
       <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -11468,9 +11468,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="19.95" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>95</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>96</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>97</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>100</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>101</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>102</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>104</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>105</v>
       </c>
@@ -11624,15 +11624,15 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="276" t="s">
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" thickBot="1"/>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A30" s="277" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="277"/>
-      <c r="C30" s="278"/>
-    </row>
-    <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B30" s="278"/>
+      <c r="C30" s="279"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>185</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="32" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
       <c r="A32" s="22" t="s">
         <v>1</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="33" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
       <c r="A33" s="24" t="s">
         <v>2</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="34" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
       <c r="A34" s="26" t="s">
         <v>3</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="1:3" ht="19.95" customHeight="1">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -11699,48 +11699,48 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="290" t="s">
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="288" t="s">
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="289"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="282"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1">
       <c r="A2" s="105" t="s">
         <v>237</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+    <row r="5" spans="1:23" ht="15" thickBot="1">
       <c r="A5" s="112" t="s">
         <v>227</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1">
+    <row r="8" spans="1:23" ht="15" thickBot="1">
       <c r="A8" s="54" t="s">
         <v>230</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15" thickBot="1">
       <c r="A11" s="112" t="s">
         <v>233</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1">
+    <row r="12" spans="1:23" ht="15" thickBot="1">
       <c r="A12" s="54" t="s">
         <v>234</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15" thickBot="1">
       <c r="A13" s="112" t="s">
         <v>235</v>
       </c>
@@ -12351,14 +12351,14 @@
       <c r="M13" s="113">
         <v>2.68</v>
       </c>
-      <c r="T13" s="282" t="s">
+      <c r="T13" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="U13" s="283"/>
-      <c r="V13" s="283"/>
-      <c r="W13" s="284"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1">
+      <c r="U13" s="287"/>
+      <c r="V13" s="287"/>
+      <c r="W13" s="288"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1">
       <c r="A14" s="41" t="s">
         <v>236</v>
       </c>
@@ -12398,16 +12398,16 @@
       <c r="M14" s="35">
         <v>2.7</v>
       </c>
-      <c r="O14" s="279" t="s">
+      <c r="O14" s="283" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="280"/>
-      <c r="R14" s="281"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="286"/>
-      <c r="V14" s="286"/>
-      <c r="W14" s="287"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="284"/>
+      <c r="R14" s="285"/>
+      <c r="T14" s="289"/>
+      <c r="U14" s="290"/>
+      <c r="V14" s="290"/>
+      <c r="W14" s="291"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="54" t="s">
@@ -12486,7 +12486,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" ht="15" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>240</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+    <row r="18" spans="1:23" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -12618,27 +12618,27 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+    <row r="19" spans="1:23" ht="15" thickBot="1">
       <c r="A19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="290" t="s">
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="288"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="288" t="s">
+      <c r="F19" s="281"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="289"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="I19" s="281"/>
+      <c r="J19" s="282"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1">
       <c r="A20" s="105" t="s">
         <v>237</v>
       </c>
@@ -12669,12 +12669,12 @@
       <c r="J20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="279" t="s">
+      <c r="O20" s="283" t="s">
         <v>245</v>
       </c>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="280"/>
-      <c r="R20" s="281"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="284"/>
+      <c r="R20" s="285"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="112" t="s">
@@ -12808,7 +12808,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+    <row r="24" spans="1:23" ht="15" thickBot="1">
       <c r="A24" s="54" t="s">
         <v>228</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15" thickBot="1">
       <c r="A32" s="41" t="s">
         <v>236</v>
       </c>
@@ -13108,28 +13108,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1"/>
+    <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="290" t="s">
+      <c r="B34" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="290" t="s">
+      <c r="C34" s="281"/>
+      <c r="D34" s="282"/>
+      <c r="E34" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="288"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="288" t="s">
+      <c r="F34" s="281"/>
+      <c r="G34" s="282"/>
+      <c r="H34" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="288"/>
-      <c r="J34" s="289"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I34" s="281"/>
+      <c r="J34" s="282"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="151"/>
       <c r="B35" s="105" t="s">
         <v>222</v>
@@ -13159,7 +13159,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36" s="145" t="s">
         <v>196</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>3.9166666666666759E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37" s="52" t="s">
         <v>248</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38" s="147" t="s">
         <v>249</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10" ht="28.2" thickBot="1">
       <c r="A39" s="150" t="s">
         <v>250</v>
       </c>
@@ -13325,6 +13325,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
@@ -13332,11 +13337,6 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="T13:W14"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13346,23 +13346,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="207" t="s">
         <v>189</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="213" t="s">
         <v>208</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>135.63999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="219" t="s">
         <v>210</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>125.12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" s="225" t="s">
         <v>211</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+    <row r="5" spans="1:8" ht="16.2" thickBot="1">
       <c r="A5" s="213" t="s">
         <v>251</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>107.45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1">
+    <row r="6" spans="1:8" ht="16.2" thickBot="1">
       <c r="A6" s="219" t="s">
         <v>253</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>116.62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="225" t="s">
         <v>255</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1">
       <c r="A8" s="213" t="s">
         <v>261</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>126.74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+    <row r="9" spans="1:8" ht="16.2" thickBot="1">
       <c r="A9" s="261" t="s">
         <v>262</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>116.12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1">
       <c r="A10" s="225" t="s">
         <v>264</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1">
       <c r="A11" s="267" t="s">
         <v>267</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>123.47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1">
+    <row r="12" spans="1:8" ht="16.2" thickBot="1">
       <c r="A12" s="219" t="s">
         <v>269</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>116.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1">
+    <row r="13" spans="1:8" ht="16.2" thickBot="1">
       <c r="A13" s="254" t="s">
         <v>271</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1"/>
+    <row r="34" spans="1:22" ht="19.95" customHeight="1" thickBot="1"/>
     <row r="35" spans="1:22" ht="30.75" customHeight="1" thickBot="1">
       <c r="A35" s="160" t="s">
         <v>189</v>
@@ -13718,7 +13718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="36" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A36" s="163" t="s">
         <v>203</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="37" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>204</v>
       </c>
@@ -13769,8 +13769,11 @@
       <c r="U37" s="206" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="V37" s="312">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>205</v>
       </c>
@@ -13795,20 +13798,20 @@
       <c r="R38" s="176">
         <v>0.68</v>
       </c>
-      <c r="S38" s="311">
+      <c r="S38" s="276">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="T38" s="311">
+      <c r="T38" s="276">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="U38" s="311">
+      <c r="U38" s="276">
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="V38" s="312">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A39" s="274" t="s">
         <v>217</v>
       </c>
@@ -13831,20 +13834,20 @@
       <c r="R39" s="176">
         <v>0.75</v>
       </c>
-      <c r="S39" s="311">
+      <c r="S39" s="276">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="T39" s="311">
+      <c r="T39" s="276">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="U39" s="311">
+      <c r="U39" s="276">
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="V39" s="312">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A40" s="274" t="s">
         <v>218</v>
       </c>
@@ -13867,20 +13870,17 @@
       <c r="R40" s="176">
         <v>0.7</v>
       </c>
-      <c r="S40" s="311">
+      <c r="S40" s="276">
         <v>1.15E-2</v>
       </c>
-      <c r="T40" s="311">
+      <c r="T40" s="276">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="U40" s="311">
+      <c r="U40" s="276">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="V40" s="312">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
+    </row>
+    <row r="41" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
       <c r="A41" s="275" t="s">
         <v>219</v>
       </c>
@@ -13910,30 +13910,30 @@
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B1" s="291" t="s">
+    <row r="1" spans="1:23" ht="15.6" thickBot="1">
+      <c r="B1" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="293" t="s">
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="294"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="293" t="s">
+      <c r="F1" s="295"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="294" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="294"/>
-      <c r="J1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
       <c r="K1" s="45"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
@@ -13942,7 +13942,7 @@
       <c r="V1" s="29"/>
       <c r="W1" s="29"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15.6" thickBot="1">
       <c r="B2" s="65" t="s">
         <v>197</v>
       </c>
@@ -13978,7 +13978,7 @@
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+    <row r="3" spans="1:23" ht="15.6" thickBot="1">
       <c r="B3" s="70">
         <v>4.5999999999999996</v>
       </c>
@@ -14009,12 +14009,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="L3" s="296" t="s">
+      <c r="L3" s="297" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -14022,7 +14022,7 @@
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1">
+    <row r="4" spans="1:23" ht="15.6" thickBot="1">
       <c r="B4" s="73">
         <v>4.3</v>
       </c>
@@ -14053,10 +14053,10 @@
         <f t="shared" si="1"/>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14064,7 +14064,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+    <row r="5" spans="1:23" ht="15.6" thickBot="1">
       <c r="B5" s="73">
         <v>4.2</v>
       </c>
@@ -14115,7 +14115,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+    <row r="6" spans="1:23" ht="15.6" thickBot="1">
       <c r="B6" s="73">
         <v>4.0999999999999996</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1">
+    <row r="7" spans="1:23" ht="15.6" thickBot="1">
       <c r="B7" s="73">
         <v>4</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1">
+    <row r="8" spans="1:23" ht="15.6" thickBot="1">
       <c r="B8" s="73">
         <v>3.8</v>
       </c>
@@ -14268,7 +14268,7 @@
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1">
+    <row r="9" spans="1:23" ht="15.6" thickBot="1">
       <c r="B9" s="73">
         <v>3.8</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="V9" s="29"/>
       <c r="W9" s="29"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1">
+    <row r="10" spans="1:23" ht="15.6" thickBot="1">
       <c r="B10" s="73">
         <v>3.8</v>
       </c>
@@ -14344,7 +14344,7 @@
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.6" thickBot="1">
       <c r="B11" s="73">
         <v>3.8</v>
       </c>
@@ -14385,7 +14385,7 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1">
+    <row r="12" spans="1:23" ht="15.6" thickBot="1">
       <c r="B12" s="73">
         <v>3.8</v>
       </c>
@@ -14429,7 +14429,7 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15.6" thickBot="1">
       <c r="B13" s="75">
         <v>4.2</v>
       </c>
@@ -14469,7 +14469,7 @@
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1">
+    <row r="14" spans="1:23" ht="15.6" thickBot="1">
       <c r="B14" s="78">
         <v>4.9000000000000004</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" ht="15.6" thickBot="1">
       <c r="D16" s="97">
         <v>0.45</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15.75" thickBot="1">
+    <row r="17" spans="4:10" ht="15" thickBot="1">
       <c r="D17" s="95" t="s">
         <v>206</v>
       </c>
@@ -14577,39 +14577,39 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="4:5" ht="15.75" thickBot="1">
+    <row r="100" spans="4:5" ht="15.6" thickBot="1">
       <c r="D100" s="85"/>
       <c r="E100" s="86"/>
     </row>
-    <row r="101" spans="4:5" ht="15.75" thickBot="1">
+    <row r="101" spans="4:5" ht="15.6" thickBot="1">
       <c r="D101" s="87"/>
       <c r="E101" s="88"/>
     </row>
-    <row r="102" spans="4:5" ht="15.75" thickBot="1">
+    <row r="102" spans="4:5" ht="15.6" thickBot="1">
       <c r="D102" s="87"/>
       <c r="E102" s="88"/>
     </row>
-    <row r="103" spans="4:5" ht="15.75" thickBot="1">
+    <row r="103" spans="4:5" ht="15.6" thickBot="1">
       <c r="D103" s="87"/>
       <c r="E103" s="88"/>
     </row>
-    <row r="104" spans="4:5" ht="15.75" thickBot="1">
+    <row r="104" spans="4:5" ht="15.6" thickBot="1">
       <c r="D104" s="87"/>
       <c r="E104" s="88"/>
     </row>
-    <row r="105" spans="4:5" ht="15.75" thickBot="1">
+    <row r="105" spans="4:5" ht="15.6" thickBot="1">
       <c r="D105" s="87"/>
       <c r="E105" s="88"/>
     </row>
-    <row r="106" spans="4:5" ht="15.75" thickBot="1">
+    <row r="106" spans="4:5" ht="15.6" thickBot="1">
       <c r="D106" s="87"/>
       <c r="E106" s="88"/>
     </row>
-    <row r="107" spans="4:5" ht="15.75" thickBot="1">
+    <row r="107" spans="4:5" ht="15.6" thickBot="1">
       <c r="D107" s="87"/>
       <c r="E107" s="88"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" ht="15">
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
@@ -14641,27 +14641,27 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1">
-      <c r="B1" s="291" t="s">
+    <row r="1" spans="1:22" ht="15.6" thickBot="1">
+      <c r="B1" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="293" t="s">
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="294"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="293" t="s">
+      <c r="F1" s="295"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="294" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="294"/>
-      <c r="J1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
       <c r="K1" s="45"/>
     </row>
-    <row r="2" spans="1:22" ht="29.25" thickBot="1">
+    <row r="2" spans="1:22" ht="30.6" thickBot="1">
       <c r="B2" s="65" t="s">
         <v>197</v>
       </c>
@@ -14695,7 +14695,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.6" thickBot="1">
       <c r="B3" s="70">
         <v>4.5999999999999996</v>
       </c>
@@ -14726,18 +14726,18 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="296" t="s">
+      <c r="L3" s="297" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1">
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
       <c r="B4" s="73">
         <v>4.3</v>
       </c>
@@ -14768,10 +14768,10 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14779,7 +14779,7 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
       <c r="B5" s="73">
         <v>4.2</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="15.6" thickBot="1">
       <c r="B6" s="73">
         <v>4.0999999999999996</v>
       </c>
@@ -14881,7 +14881,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1">
+    <row r="7" spans="1:22" ht="15.6" thickBot="1">
       <c r="B7" s="73">
         <v>4</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1">
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
       <c r="B8" s="73">
         <v>3.8</v>
       </c>
@@ -14983,7 +14983,7 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1">
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
       <c r="B9" s="73">
         <v>3.8</v>
       </c>
@@ -15021,7 +15021,7 @@
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="15.6" thickBot="1">
       <c r="B10" s="73">
         <v>3.8</v>
       </c>
@@ -15059,7 +15059,7 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+    <row r="11" spans="1:22" ht="15.6" thickBot="1">
       <c r="B11" s="73">
         <v>3.8</v>
       </c>
@@ -15100,7 +15100,7 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="15.6" thickBot="1">
       <c r="B12" s="73">
         <v>3.8</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+    <row r="13" spans="1:22" ht="15.6" thickBot="1">
       <c r="B13" s="75">
         <v>4.2</v>
       </c>
@@ -15188,7 +15188,7 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="15.6" thickBot="1">
       <c r="B14" s="78">
         <v>4.9000000000000004</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1">
+    <row r="15" spans="1:22" ht="15.6" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1">
+    <row r="16" spans="1:22" ht="15.6" thickBot="1">
       <c r="D16" s="97">
         <v>0.56000000000000005</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15.75" thickBot="1">
+    <row r="17" spans="4:10" ht="15" thickBot="1">
       <c r="D17" s="95" t="s">
         <v>206</v>
       </c>
@@ -15324,41 +15324,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A86CC4-8F03-4DC3-9AA8-DB821712665C}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G3:G14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B1" s="291" t="s">
+    <row r="1" spans="1:20" ht="15.6" thickBot="1">
+      <c r="B1" s="292" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="292"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="294" t="s">
+      <c r="C1" s="293"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="295" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="294"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="294" t="s">
+      <c r="F1" s="295"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="295" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="294"/>
-      <c r="J1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
       <c r="K1" s="45"/>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="298"/>
-      <c r="T1" s="299"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+      <c r="Q1" s="299"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="299"/>
+      <c r="T1" s="300"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.6" thickBot="1">
       <c r="B2" s="56" t="s">
         <v>197</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="91"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.6" thickBot="1">
       <c r="B3" s="36">
         <v>4.5999999999999996</v>
       </c>
@@ -15423,18 +15423,18 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="301" t="s">
+      <c r="L3" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="304"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.6" thickBot="1">
       <c r="B4" s="31">
         <v>4.3</v>
       </c>
@@ -15465,16 +15465,16 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="306"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" ht="15.6" thickBot="1">
       <c r="B5" s="31">
         <v>4.2</v>
       </c>
@@ -15522,7 +15522,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+    <row r="6" spans="1:20" ht="15.6" thickBot="1">
       <c r="B6" s="31">
         <v>4.0999999999999996</v>
       </c>
@@ -15570,7 +15570,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
+    <row r="7" spans="1:20" ht="15.6" thickBot="1">
       <c r="B7" s="31">
         <v>4</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
+    <row r="8" spans="1:20" ht="15.6" thickBot="1">
       <c r="B8" s="31">
         <v>0</v>
       </c>
@@ -15666,7 +15666,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1">
+    <row r="9" spans="1:20" ht="15.6" thickBot="1">
       <c r="B9" s="31">
         <v>3.8</v>
       </c>
@@ -15702,7 +15702,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1">
+    <row r="10" spans="1:20" ht="15.6" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-4.2499999999999906E-2</v>
@@ -15742,7 +15742,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
+    <row r="11" spans="1:20" ht="15.6" thickBot="1">
       <c r="B11" s="31">
         <v>3.8</v>
       </c>
@@ -15778,7 +15778,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+    <row r="12" spans="1:20" ht="15.6" thickBot="1">
       <c r="B12" s="31">
         <v>3.8</v>
       </c>
@@ -15817,7 +15817,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15.6" thickBot="1">
       <c r="B13" s="31">
         <v>4.2</v>
       </c>
@@ -15859,7 +15859,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15.6" thickBot="1">
       <c r="B14" s="32">
         <v>4.9000000000000004</v>
       </c>
@@ -15901,7 +15901,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="D16" t="s">
         <v>207</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15.75" thickBot="1">
+    <row r="17" spans="4:10" ht="15.6" thickBot="1">
       <c r="D17" s="100">
         <v>2.7E-2</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="15.75" thickBot="1">
+    <row r="18" spans="4:10" ht="15" thickBot="1">
       <c r="D18" s="92"/>
       <c r="G18" s="92"/>
       <c r="J18" s="92"/>
@@ -16001,37 +16001,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F045DFA-AA87-4342-BAAF-AC7CC90E04F0}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="306" t="s">
+    <row r="1" spans="1:21" ht="19.8" thickBot="1">
+      <c r="B1" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="307"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309" t="s">
+      <c r="C1" s="308"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="310" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="309" t="s">
+      <c r="F1" s="310"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="310" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="309"/>
-      <c r="J1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="311"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
     </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1">
+    <row r="2" spans="1:21" ht="28.2" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -16063,7 +16063,7 @@
       <c r="T2" s="176"/>
       <c r="U2" s="176"/>
     </row>
-    <row r="3" spans="1:21" ht="18" thickBot="1">
+    <row r="3" spans="1:21" ht="19.8" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -16094,15 +16094,15 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="301" t="s">
+      <c r="L3" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="304"/>
       <c r="T3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="18" thickBot="1">
+    <row r="4" spans="1:21" ht="19.8" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -16133,14 +16133,14 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="306"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1">
+    <row r="5" spans="1:21" ht="19.8" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -16186,7 +16186,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1">
+    <row r="6" spans="1:21" ht="19.8" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1">
+    <row r="7" spans="1:21" ht="19.8" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -16278,7 +16278,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1">
+    <row r="8" spans="1:21" ht="19.8" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1">
+    <row r="9" spans="1:21" ht="19.8" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
+    <row r="10" spans="1:21" ht="19.8" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333320458E-4</v>
@@ -16396,7 +16396,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1">
+    <row r="11" spans="1:21" ht="19.8" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -16430,7 +16430,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1">
+    <row r="12" spans="1:21" ht="19.8" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+    <row r="13" spans="1:21" ht="15" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+    <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+    <row r="15" spans="1:21" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -16607,7 +16607,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+    <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17" s="203">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454FB77-8B43-417E-994F-6A619E23314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A31D48-038F-4D7A-9AAC-67F0705CE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="teszt adatok" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="279">
   <si>
     <t>idoszak</t>
   </si>
@@ -784,9 +784,6 @@
     <t>Kolmogorov–Szmirnov-próba</t>
   </si>
   <si>
-    <t>legksiebb p-érték a Ljung-Box tesztnél, az első három lépésre</t>
-  </si>
-  <si>
     <t>hibák</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>White-teszt p-értéke</t>
   </si>
   <si>
-    <t>Ljung-Box teszt min. p-értéke</t>
-  </si>
-  <si>
     <t>Kovászna ARIMA(2, 1, 2)</t>
   </si>
   <si>
@@ -887,18 +881,6 @@
   </si>
   <si>
     <t>BIC</t>
-  </si>
-  <si>
-    <t>R2 a jóslatok és a mért adatok között</t>
-  </si>
-  <si>
-    <t>Kovászna MLP  log</t>
-  </si>
-  <si>
-    <t>Hargita MLP log</t>
-  </si>
-  <si>
-    <t>Maros MLP  log</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -2230,13 +2212,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDBDBDB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2840,6 +2911,9 @@
     <xf numFmtId="10" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2849,42 +2923,42 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2945,9 +3019,37 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3486,65 +3588,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>669101</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>228167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>964101</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>73787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Becslések grafikonja">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864B27A5-8412-FE97-6E87-5E8D8EA0822E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9711" t="5756" r="8807"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7163419" y="10636394"/>
-          <a:ext cx="7118364" cy="3967348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -3552,7 +3595,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>956768</xdr:colOff>
+      <xdr:colOff>793482</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>61818</xdr:rowOff>
     </xdr:to>
@@ -3570,7 +3613,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3634,7 +3677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3675,7 +3718,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>203526</xdr:colOff>
+      <xdr:colOff>40240</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>4202</xdr:rowOff>
     </xdr:to>
@@ -3693,7 +3736,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3752,7 +3795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3811,7 +3854,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3872,7 +3915,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3933,7 +3976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3967,6 +4010,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1011201</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>51705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Becslések grafikonja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A395BF1-61F0-D75B-E93A-BE39D6513970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9051" t="6601" r="8727"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7211785" y="10327819"/>
+          <a:ext cx="9175487" cy="4814207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3974,23 +4076,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>136717</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>329773</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>31307</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363015</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>191056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EC0D24-E7D0-C5B3-8B51-F9D741798A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D675BEFE-68A3-5390-9AB5-1613FC44CB3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,12 +4109,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="3816088"/>
-          <a:ext cx="9089571" cy="4150904"/>
+          <a:off x="10888916" y="3613894"/>
+          <a:ext cx="3203706" cy="2441841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,23 +4137,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762992</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85115</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280947</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>373077</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28884</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>938894</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D07BE5-0404-B560-B53E-6B64649264ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB92D291-C3E6-B830-435F-E489A1B23442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4058,7 +4162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4066,12 +4170,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9384478" y="3601201"/>
-          <a:ext cx="9243942" cy="4200083"/>
+          <a:off x="10840090" y="6111259"/>
+          <a:ext cx="4780911" cy="2250090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4092,23 +4198,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>17075</xdr:rowOff>
+      <xdr:rowOff>99252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>116135</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459313</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC52680-C9AF-D738-4E7D-24C785533587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB351A34-1D7C-F9C8-D576-80DFF6719B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4125,12 +4231,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18375630" y="3255575"/>
-          <a:ext cx="9601200" cy="4480560"/>
+          <a:off x="13869682" y="3569073"/>
+          <a:ext cx="3367238" cy="2542696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4152,22 +4260,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>167206</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>62346</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>172921</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA808BAC-3DDC-9990-EEF9-780B51837BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8EFC08-E5EA-19C9-65C0-A003D8CD654D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,12 +4292,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="457200" y="7967315"/>
-          <a:ext cx="6089073" cy="4328333"/>
+          <a:off x="0" y="3400667"/>
+          <a:ext cx="3182471" cy="2377085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4210,23 +4320,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>367145</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>51781</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>108065</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>86071</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>896470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681F6B63-7C89-4795-F964-5D5991C4317D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06927310-BE59-D2A6-DF4A-033EF9D236E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,71 +4353,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9874827" y="8347190"/>
-          <a:ext cx="5975465" cy="4606290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>73342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>79056</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A67DE22-A54A-D4F0-0FB1-EA6D80978A43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20040600" y="7883842"/>
-          <a:ext cx="6115050" cy="4577714"/>
+          <a:off x="2924735" y="3457244"/>
+          <a:ext cx="3305735" cy="2459462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4329,43 +4382,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>69274</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327028</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>118695</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E02D127-C948-B896-8E02-80444E54BD64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69BCB4A-018C-9FAC-E2DD-C8CAEFCF0551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="277091" y="12372110"/>
-          <a:ext cx="8695173" cy="2751058"/>
+          <a:off x="0" y="5878228"/>
+          <a:ext cx="5597483" cy="2615903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4373,66 +4443,144 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>734290</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>96982</xdr:rowOff>
+      <xdr:colOff>693965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>336312</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>26521</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>977411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E845AD22-FF40-0289-BA02-4985C0D8F61E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDFFEBD-F991-B923-D282-6AD2DF31587E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6137563" y="9878291"/>
-          <a:ext cx="3924640" cy="2270957"/>
+          <a:off x="6014358" y="3687535"/>
+          <a:ext cx="3426696" cy="2582637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>969817</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>241839</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>106227</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721292</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D4704A-D5BA-BA7B-286B-080C8CC59B62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1650600D-3999-9920-8619-143C0C5A677E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5388429" y="6149917"/>
+          <a:ext cx="5892006" cy="2749155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891751F5-42F2-07EA-FDB3-539B6485E73D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4448,140 +4596,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9615053" y="12344400"/>
-          <a:ext cx="8900931" cy="2766300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>724594</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494271</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73788</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F9DF5-90F6-2715-6DC6-31A7F51E38BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15410412" y="10304491"/>
-          <a:ext cx="3995314" cy="2255706"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>225554</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>99310</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CF8B38-F8EA-C8B6-3EAC-49DD3304BD94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20612100" y="12839700"/>
-          <a:ext cx="8817104" cy="2880610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>670911</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>61153</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6D2B64-F931-0AE3-97C2-AA3AB5CD5986}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26090880" y="9814560"/>
-          <a:ext cx="4054191" cy="2225233"/>
+          <a:off x="7728858" y="3782786"/>
+          <a:ext cx="3374571" cy="2530928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5834,8 +5850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11924422" y="4380095"/>
-          <a:ext cx="5506559" cy="3019148"/>
+          <a:off x="11823569" y="4196318"/>
+          <a:ext cx="5448289" cy="3209648"/>
           <a:chOff x="11920922" y="4245944"/>
           <a:chExt cx="5449544" cy="3209648"/>
         </a:xfrm>
@@ -5978,8 +5994,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5841323" y="4263505"/>
-          <a:ext cx="5791520" cy="2956670"/>
+          <a:off x="5785293" y="4079728"/>
+          <a:ext cx="5751179" cy="3135964"/>
           <a:chOff x="6132181" y="4916272"/>
           <a:chExt cx="5745242" cy="3135964"/>
         </a:xfrm>
@@ -6127,8 +6143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4134151"/>
-          <a:ext cx="5802329" cy="3251836"/>
+          <a:off x="0" y="3939168"/>
+          <a:ext cx="5746299" cy="3453542"/>
           <a:chOff x="0" y="4103358"/>
           <a:chExt cx="5747387" cy="3453542"/>
         </a:xfrm>
@@ -7821,7 +7837,7 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -7991,7 +8007,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -8014,37 +8030,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3736B0-53E7-488D-8817-F3D7793FCE3E}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.8" thickBot="1">
-      <c r="B1" s="307" t="s">
+    <row r="1" spans="1:21" ht="18" thickBot="1">
+      <c r="B1" s="308" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="311"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="311" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="310" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="310"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="310" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="310"/>
-      <c r="J1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="312"/>
       <c r="K1" s="45"/>
       <c r="T1" s="206"/>
       <c r="U1" s="206"/>
     </row>
-    <row r="2" spans="1:21" ht="28.2" thickBot="1">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -8076,7 +8092,7 @@
       <c r="T2" s="206"/>
       <c r="U2" s="206"/>
     </row>
-    <row r="3" spans="1:21" ht="19.8" thickBot="1">
+    <row r="3" spans="1:21" ht="18" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -8107,16 +8123,16 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="302" t="s">
+      <c r="L3" s="303" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="305"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="19.8" thickBot="1">
+    <row r="4" spans="1:21" ht="18" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -8147,14 +8163,14 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="307"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="19.8" thickBot="1">
+    <row r="5" spans="1:21" ht="18" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -8200,7 +8216,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="19.8" thickBot="1">
+    <row r="6" spans="1:21" ht="18" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -8246,7 +8262,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="19.8" thickBot="1">
+    <row r="7" spans="1:21" ht="18" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -8292,7 +8308,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="19.8" thickBot="1">
+    <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -8338,7 +8354,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="19.8" thickBot="1">
+    <row r="9" spans="1:21" ht="18" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -8372,7 +8388,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="19.8" thickBot="1">
+    <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>1.6666666666668162E-3</v>
@@ -8410,7 +8426,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="19.8" thickBot="1">
+    <row r="11" spans="1:21" ht="18" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -8444,7 +8460,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="19.8" thickBot="1">
+    <row r="12" spans="1:21" ht="18" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -8481,7 +8497,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="19.8" thickBot="1">
+    <row r="13" spans="1:21" ht="18" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -8521,7 +8537,7 @@
       <c r="T13" s="176"/>
       <c r="U13" s="176"/>
     </row>
-    <row r="14" spans="1:21" ht="19.8" thickBot="1">
+    <row r="14" spans="1:21" ht="18" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -8561,7 +8577,7 @@
       <c r="T14" s="176"/>
       <c r="U14" s="176"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -8608,7 +8624,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -8625,7 +8641,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17">
@@ -8670,33 +8686,33 @@
       <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.8" thickBot="1">
-      <c r="B1" s="307" t="s">
+    <row r="1" spans="1:21" ht="18" thickBot="1">
+      <c r="B1" s="308" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="311"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="311" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="310" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="310"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="310" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="310"/>
-      <c r="J1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="312"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
     </row>
-    <row r="2" spans="1:21" ht="28.2" thickBot="1">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -8728,7 +8744,7 @@
       <c r="T2" s="176"/>
       <c r="U2" s="176"/>
     </row>
-    <row r="3" spans="1:21" ht="19.8" thickBot="1">
+    <row r="3" spans="1:21" ht="18" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -8759,16 +8775,16 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="302" t="s">
+      <c r="L3" s="303" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="305"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="19.8" thickBot="1">
+    <row r="4" spans="1:21" ht="18" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -8799,14 +8815,14 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="307"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="19.8" thickBot="1">
+    <row r="5" spans="1:21" ht="18" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -8852,7 +8868,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="19.8" thickBot="1">
+    <row r="6" spans="1:21" ht="18" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -8898,7 +8914,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="19.8" thickBot="1">
+    <row r="7" spans="1:21" ht="18" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -8944,7 +8960,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="19.8" thickBot="1">
+    <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -8990,7 +9006,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="19.8" thickBot="1">
+    <row r="9" spans="1:21" ht="18" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -9024,7 +9040,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="19.8" thickBot="1">
+    <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333333037E-3</v>
@@ -9062,7 +9078,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="19.8" thickBot="1">
+    <row r="11" spans="1:21" ht="18" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -9096,7 +9112,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="19.8" thickBot="1">
+    <row r="12" spans="1:21" ht="18" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -9133,7 +9149,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="19.8" thickBot="1">
+    <row r="13" spans="1:21" ht="18" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -9173,7 +9189,7 @@
       <c r="T13" s="176"/>
       <c r="U13" s="176"/>
     </row>
-    <row r="14" spans="1:21" ht="19.8" thickBot="1">
+    <row r="14" spans="1:21" ht="18" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -9213,7 +9229,7 @@
       <c r="T14" s="176"/>
       <c r="U14" s="176"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -9260,7 +9276,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -9277,7 +9293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17" s="252">
@@ -9322,7 +9338,7 @@
       <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -11468,9 +11484,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>95</v>
       </c>
@@ -11484,7 +11500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>96</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>97</v>
       </c>
@@ -11512,7 +11528,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
@@ -11526,7 +11542,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -11540,7 +11556,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>100</v>
       </c>
@@ -11554,7 +11570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>101</v>
       </c>
@@ -11568,7 +11584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>102</v>
       </c>
@@ -11582,7 +11598,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
@@ -11596,7 +11612,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>104</v>
       </c>
@@ -11610,7 +11626,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>105</v>
       </c>
@@ -11624,15 +11640,15 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" thickBot="1"/>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A30" s="277" t="s">
+    <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1"/>
+    <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A30" s="278" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="279"/>
-    </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B30" s="279"/>
+      <c r="C30" s="280"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>185</v>
       </c>
@@ -11643,7 +11659,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+    <row r="32" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A32" s="22" t="s">
         <v>1</v>
       </c>
@@ -11654,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A33" s="24" t="s">
         <v>2</v>
       </c>
@@ -11665,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A34" s="26" t="s">
         <v>3</v>
       </c>
@@ -11676,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -11695,52 +11711,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A093AE-2E50-418D-93EB-C99F35A216AE}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="83" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1">
       <c r="A1" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="280" t="s">
+      <c r="B1" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="280" t="s">
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="281" t="s">
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="282"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1">
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="291"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="105" t="s">
         <v>237</v>
       </c>
@@ -11780,9 +11796,7 @@
       <c r="M2" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="62">
-        <v>0</v>
-      </c>
+      <c r="O2" s="62"/>
       <c r="P2" s="137" t="s">
         <v>191</v>
       </c>
@@ -11804,6 +11818,7 @@
         <v>4.53</v>
       </c>
       <c r="D3" s="111">
+        <f>MLP!C3</f>
         <v>4.5599999999999996</v>
       </c>
       <c r="E3" s="113">
@@ -11816,7 +11831,8 @@
         <v>3.84</v>
       </c>
       <c r="H3" s="111">
-        <v>3.88</v>
+        <f>MLP!F3</f>
+        <v>3.8</v>
       </c>
       <c r="I3" s="113">
         <v>3.79</v>
@@ -11828,7 +11844,7 @@
         <v>2.72</v>
       </c>
       <c r="L3" s="111">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="M3" s="113">
         <v>2.69</v>
@@ -11857,6 +11873,7 @@
         <v>4.63</v>
       </c>
       <c r="D4">
+        <f>MLP!C4</f>
         <v>4.59</v>
       </c>
       <c r="E4" s="34">
@@ -11869,6 +11886,7 @@
         <v>3.97</v>
       </c>
       <c r="H4">
+        <f>MLP!F4</f>
         <v>3.98</v>
       </c>
       <c r="I4" s="34">
@@ -11881,7 +11899,7 @@
         <v>2.84</v>
       </c>
       <c r="L4">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="M4" s="34">
         <v>2.75</v>
@@ -11899,7 +11917,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="112" t="s">
         <v>227</v>
       </c>
@@ -11910,6 +11928,7 @@
         <v>4.29</v>
       </c>
       <c r="D5" s="111">
+        <f>MLP!C5</f>
         <v>4.2</v>
       </c>
       <c r="E5" s="113">
@@ -11922,6 +11941,7 @@
         <v>4.07</v>
       </c>
       <c r="H5" s="111">
+        <f>MLP!F5</f>
         <v>4.09</v>
       </c>
       <c r="I5" s="113">
@@ -11934,7 +11954,7 @@
         <v>2.94</v>
       </c>
       <c r="L5" s="111">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="M5" s="113">
         <v>2.83</v>
@@ -11963,6 +11983,7 @@
         <v>4.21</v>
       </c>
       <c r="D6">
+        <f>MLP!C6</f>
         <v>4.1399999999999997</v>
       </c>
       <c r="E6" s="34">
@@ -11975,7 +11996,8 @@
         <v>4.3</v>
       </c>
       <c r="H6">
-        <v>4.24</v>
+        <f>MLP!F6</f>
+        <v>4.29</v>
       </c>
       <c r="I6" s="34">
         <v>4.22</v>
@@ -11987,7 +12009,7 @@
         <v>3.17</v>
       </c>
       <c r="L6">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="M6" s="34">
         <v>3</v>
@@ -12016,6 +12038,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="D7" s="111">
+        <f>MLP!C7</f>
         <v>4</v>
       </c>
       <c r="E7" s="113">
@@ -12028,7 +12051,8 @@
         <v>4.5</v>
       </c>
       <c r="H7" s="111">
-        <v>4.3899999999999997</v>
+        <f>MLP!F7</f>
+        <v>4.3</v>
       </c>
       <c r="I7" s="113">
         <v>4.46</v>
@@ -12040,7 +12064,7 @@
         <v>3.24</v>
       </c>
       <c r="L7" s="111">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
       <c r="M7" s="113">
         <v>3.13</v>
@@ -12049,16 +12073,16 @@
         <v>242</v>
       </c>
       <c r="P7" s="134">
-        <v>1.01E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="Q7" s="118">
-        <v>2.4500000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="R7" s="119">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1">
       <c r="A8" s="54" t="s">
         <v>230</v>
       </c>
@@ -12069,6 +12093,7 @@
         <v>4.01</v>
       </c>
       <c r="D8">
+        <f>MLP!C8</f>
         <v>3.94</v>
       </c>
       <c r="E8" s="34">
@@ -12081,7 +12106,8 @@
         <v>4.43</v>
       </c>
       <c r="H8">
-        <v>4.3600000000000003</v>
+        <f>MLP!F8</f>
+        <v>4.55</v>
       </c>
       <c r="I8" s="34">
         <v>4.45</v>
@@ -12093,7 +12119,7 @@
         <v>3.22</v>
       </c>
       <c r="L8">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="M8" s="34">
         <v>3.17</v>
@@ -12102,13 +12128,13 @@
         <v>241</v>
       </c>
       <c r="P8" s="135">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q8" s="127">
-        <v>3.6400000000000002E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="R8" s="128">
-        <v>2.8500000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -12122,6 +12148,7 @@
         <v>3.8</v>
       </c>
       <c r="D9" s="111">
+        <f>MLP!C9</f>
         <v>3.74</v>
       </c>
       <c r="E9" s="113">
@@ -12134,7 +12161,8 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="H9" s="111">
-        <v>4.38</v>
+        <f>MLP!F9</f>
+        <v>4.29</v>
       </c>
       <c r="I9" s="113">
         <v>4.51</v>
@@ -12146,7 +12174,7 @@
         <v>3.09</v>
       </c>
       <c r="L9" s="111">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="M9" s="113">
         <v>3.05</v>
@@ -12175,6 +12203,7 @@
         <v>3.82</v>
       </c>
       <c r="D10">
+        <f>MLP!C10</f>
         <v>3.92</v>
       </c>
       <c r="E10" s="34">
@@ -12187,7 +12216,8 @@
         <v>4.26</v>
       </c>
       <c r="H10">
-        <v>4.2300000000000004</v>
+        <f>MLP!F10</f>
+        <v>4.26</v>
       </c>
       <c r="I10" s="34">
         <v>4.2699999999999996</v>
@@ -12199,7 +12229,7 @@
         <v>3.12</v>
       </c>
       <c r="L10">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="M10" s="34">
         <v>3.07</v>
@@ -12217,7 +12247,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="112" t="s">
         <v>233</v>
       </c>
@@ -12228,6 +12258,7 @@
         <v>3.82</v>
       </c>
       <c r="D11" s="111">
+        <f>MLP!C11</f>
         <v>3.9</v>
       </c>
       <c r="E11" s="113">
@@ -12240,7 +12271,8 @@
         <v>4.2</v>
       </c>
       <c r="H11" s="111">
-        <v>4.0999999999999996</v>
+        <f>MLP!F11</f>
+        <v>3.95</v>
       </c>
       <c r="I11" s="113">
         <v>4.08</v>
@@ -12252,7 +12284,7 @@
         <v>2.99</v>
       </c>
       <c r="L11" s="111">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="M11" s="113">
         <v>2.99</v>
@@ -12270,7 +12302,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1">
       <c r="A12" s="54" t="s">
         <v>234</v>
       </c>
@@ -12281,6 +12313,7 @@
         <v>3.82</v>
       </c>
       <c r="D12">
+        <f>MLP!C12</f>
         <v>3.9</v>
       </c>
       <c r="E12" s="34">
@@ -12293,7 +12326,8 @@
         <v>3.97</v>
       </c>
       <c r="H12">
-        <v>3.99</v>
+        <f>MLP!F12</f>
+        <v>3.91</v>
       </c>
       <c r="I12" s="34">
         <v>3.95</v>
@@ -12305,13 +12339,13 @@
         <v>2.64</v>
       </c>
       <c r="L12">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="M12" s="34">
         <v>2.67</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="112" t="s">
         <v>235</v>
       </c>
@@ -12322,6 +12356,7 @@
         <v>3.82</v>
       </c>
       <c r="D13" s="111">
+        <f>MLP!C13</f>
         <v>3.9</v>
       </c>
       <c r="E13" s="113">
@@ -12334,7 +12369,8 @@
         <v>3.77</v>
       </c>
       <c r="H13" s="111">
-        <v>3.76</v>
+        <f>MLP!F13</f>
+        <v>3.73</v>
       </c>
       <c r="I13" s="113">
         <v>3.82</v>
@@ -12346,19 +12382,17 @@
         <v>2.72</v>
       </c>
       <c r="L13" s="111">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="M13" s="113">
         <v>2.68</v>
       </c>
-      <c r="T13" s="286" t="s">
-        <v>246</v>
-      </c>
-      <c r="U13" s="287"/>
-      <c r="V13" s="287"/>
-      <c r="W13" s="288"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1">
+      <c r="T13" s="284"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="285"/>
+      <c r="W13" s="286"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="41" t="s">
         <v>236</v>
       </c>
@@ -12369,6 +12403,7 @@
         <v>4.26</v>
       </c>
       <c r="D14" s="104">
+        <f>MLP!C14</f>
         <v>4.47</v>
       </c>
       <c r="E14" s="35">
@@ -12381,7 +12416,8 @@
         <v>3.84</v>
       </c>
       <c r="H14" s="104">
-        <v>3.79</v>
+        <f>MLP!F14</f>
+        <v>3.63</v>
       </c>
       <c r="I14" s="35">
         <v>3.84</v>
@@ -12393,21 +12429,21 @@
         <v>2.72</v>
       </c>
       <c r="L14" s="104">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="M14" s="35">
         <v>2.7</v>
       </c>
-      <c r="O14" s="283" t="s">
+      <c r="O14" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="285"/>
-      <c r="T14" s="289"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="290"/>
-      <c r="W14" s="291"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="282"/>
+      <c r="R14" s="283"/>
+      <c r="T14" s="287"/>
+      <c r="U14" s="288"/>
+      <c r="V14" s="288"/>
+      <c r="W14" s="289"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="54" t="s">
@@ -12439,7 +12475,7 @@
       </c>
       <c r="H15" s="159">
         <f t="shared" si="0"/>
-        <v>4.0991666666666662</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="I15" s="39">
         <f t="shared" si="0"/>
@@ -12455,7 +12491,7 @@
       </c>
       <c r="L15" s="159">
         <f t="shared" si="0"/>
-        <v>2.8841666666666672</v>
+        <v>2.9008333333333334</v>
       </c>
       <c r="M15" s="39">
         <f t="shared" si="0"/>
@@ -12473,20 +12509,12 @@
       <c r="R15" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="T15" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="U15" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="V15" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="W15" s="139" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1">
+      <c r="T15" s="141"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="139"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>240</v>
       </c>
@@ -12516,7 +12544,7 @@
       </c>
       <c r="H16" s="104">
         <f t="shared" si="1"/>
-        <v>0.21472689372523626</v>
+        <v>0.26559681222986592</v>
       </c>
       <c r="I16" s="35">
         <f t="shared" si="1"/>
@@ -12532,7 +12560,7 @@
       </c>
       <c r="L16" s="104">
         <f t="shared" si="1"/>
-        <v>0.17158371782375567</v>
+        <v>0.19093883546541518</v>
       </c>
       <c r="M16" s="35">
         <f t="shared" si="1"/>
@@ -12550,18 +12578,8 @@
       <c r="R16" s="34">
         <v>0.01</v>
       </c>
-      <c r="T16" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0.12</v>
-      </c>
-      <c r="V16">
-        <v>0.36</v>
-      </c>
-      <c r="W16" s="143">
-        <v>0.03</v>
-      </c>
+      <c r="T16" s="54"/>
+      <c r="W16" s="143"/>
     </row>
     <row r="17" spans="1:23">
       <c r="O17" s="54" t="s">
@@ -12571,27 +12589,17 @@
         <v>0.39</v>
       </c>
       <c r="Q17">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="R17" s="34">
         <v>0.63</v>
       </c>
-      <c r="T17" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>0.18</v>
-      </c>
-      <c r="V17">
-        <v>0.15</v>
-      </c>
-      <c r="W17" s="144">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1">
+      <c r="T17" s="54"/>
+      <c r="W17" s="144"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O18" s="41" t="s">
         <v>3</v>
@@ -12600,45 +12608,37 @@
         <v>0.67</v>
       </c>
       <c r="Q18" s="104">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="R18" s="35">
         <v>0.85</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="104">
-        <v>0.43</v>
-      </c>
-      <c r="V18" s="104">
-        <v>0.37</v>
-      </c>
-      <c r="W18" s="35">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1">
+      <c r="T18" s="41"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="35"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1">
       <c r="A19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="280" t="s">
+      <c r="B19" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="280" t="s">
+      <c r="C19" s="290"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="281"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="281" t="s">
+      <c r="F19" s="290"/>
+      <c r="G19" s="291"/>
+      <c r="H19" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="281"/>
-      <c r="J19" s="282"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1">
+      <c r="I19" s="290"/>
+      <c r="J19" s="291"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1">
       <c r="A20" s="105" t="s">
         <v>237</v>
       </c>
@@ -12669,12 +12669,12 @@
       <c r="J20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="283" t="s">
+      <c r="O20" s="281" t="s">
         <v>245</v>
       </c>
-      <c r="P20" s="284"/>
-      <c r="Q20" s="284"/>
-      <c r="R20" s="285"/>
+      <c r="P20" s="282"/>
+      <c r="Q20" s="282"/>
+      <c r="R20" s="283"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="112" t="s">
@@ -12684,7 +12684,7 @@
         <v>6.9999999999999396E-2</v>
       </c>
       <c r="C21" s="111">
-        <v>4.0000000000000036E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D21" s="113">
         <v>-0.13000000000000078</v>
@@ -12693,7 +12693,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="F21" s="111">
-        <v>2.0000000000000018E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G21" s="113">
         <v>0.10999999999999988</v>
@@ -12702,7 +12702,7 @@
         <v>7.9999999999999627E-2</v>
       </c>
       <c r="I21" s="111">
-        <v>8.9999999999999858E-2</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="J21" s="113">
         <v>0.10999999999999988</v>
@@ -12728,7 +12728,7 @@
         <v>-0.33000000000000007</v>
       </c>
       <c r="C22">
-        <v>-0.29000000000000004</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D22" s="34">
         <v>-0.33000000000000007</v>
@@ -12746,7 +12746,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="I22">
-        <v>0.10999999999999988</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J22" s="34">
         <v>0.14999999999999991</v>
@@ -12758,7 +12758,7 @@
         <v>0.03</v>
       </c>
       <c r="Q22">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="R22" s="34">
         <v>0.56000000000000005</v>
@@ -12790,7 +12790,7 @@
         <v>0.16000000000000014</v>
       </c>
       <c r="I23" s="111">
-        <v>0.20000000000000018</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="J23" s="113">
         <v>0.27</v>
@@ -12802,13 +12802,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="Q23">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="R23" s="34">
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="54" t="s">
         <v>228</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>-0.11000000000000032</v>
       </c>
       <c r="C24">
-        <v>-4.0000000000000036E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="D24" s="34">
         <v>-0.12000000000000011</v>
@@ -12825,7 +12825,7 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="F24">
-        <v>0.16000000000000014</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="G24" s="34">
         <v>0.1800000000000006</v>
@@ -12834,7 +12834,7 @@
         <v>3.0000000000000249E-2</v>
       </c>
       <c r="I24">
-        <v>0.12000000000000011</v>
+        <v>9.0000000000000302E-2</v>
       </c>
       <c r="J24" s="34">
         <v>0.20000000000000018</v>
@@ -12846,7 +12846,7 @@
         <v>0.8</v>
       </c>
       <c r="Q24" s="104">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="R24" s="35">
         <v>0.94</v>
@@ -12869,7 +12869,7 @@
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="F25" s="111">
-        <v>1.0000000000000675E-2</v>
+        <v>0.10000000000000053</v>
       </c>
       <c r="G25" s="113">
         <v>-5.9999999999999609E-2</v>
@@ -12878,7 +12878,7 @@
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I25" s="111">
-        <v>3.0000000000000249E-2</v>
+        <v>-2.9999999999999805E-2</v>
       </c>
       <c r="J25" s="113">
         <v>7.0000000000000284E-2</v>
@@ -12892,7 +12892,7 @@
         <v>-4.01</v>
       </c>
       <c r="C26">
-        <v>-0.14000000000000012</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D26" s="34">
         <v>-0.19000000000000039</v>
@@ -12901,7 +12901,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="F26">
-        <v>0.13999999999999968</v>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="G26" s="34">
         <v>4.9999999999999822E-2</v>
@@ -12910,7 +12910,7 @@
         <v>-0.12000000000000011</v>
       </c>
       <c r="I26">
-        <v>-9.9999999999997868E-3</v>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="J26" s="34">
         <v>-6.999999999999984E-2</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="111">
-        <v>5.9999999999999609E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D27" s="113">
         <v>8.9999999999999858E-2</v>
@@ -12933,7 +12933,7 @@
         <v>-0.25999999999999979</v>
       </c>
       <c r="F27" s="111">
-        <v>-8.0000000000000071E-2</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="G27" s="113">
         <v>-0.20999999999999996</v>
@@ -12942,7 +12942,7 @@
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="I27" s="111">
-        <v>0.12999999999999989</v>
+        <v>0.10999999999999988</v>
       </c>
       <c r="J27" s="113">
         <v>5.0000000000000266E-2</v>
@@ -12956,7 +12956,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="C28">
-        <v>-0.12000000000000011</v>
+        <v>-0.12</v>
       </c>
       <c r="D28" s="34">
         <v>4.0000000000000036E-2</v>
@@ -12965,7 +12965,7 @@
         <v>-5.9999999999999609E-2</v>
       </c>
       <c r="F28">
-        <v>-3.0000000000000249E-2</v>
+        <v>-5.9999999999999609E-2</v>
       </c>
       <c r="G28" s="34">
         <v>-6.9999999999999396E-2</v>
@@ -12974,7 +12974,7 @@
         <v>-0.12000000000000011</v>
       </c>
       <c r="I28">
-        <v>4.0000000000000036E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="J28" s="34">
         <v>-6.999999999999984E-2</v>
@@ -12988,7 +12988,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="C29" s="111">
-        <v>-0.10000000000000009</v>
+        <v>-0.1</v>
       </c>
       <c r="D29" s="113">
         <v>4.9999999999999822E-2</v>
@@ -12997,7 +12997,7 @@
         <v>-0.20000000000000018</v>
       </c>
       <c r="F29" s="111">
-        <v>-9.9999999999999645E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="G29" s="113">
         <v>-8.0000000000000071E-2</v>
@@ -13006,7 +13006,7 @@
         <v>-0.29000000000000004</v>
       </c>
       <c r="I29" s="111">
-        <v>-0.18999999999999995</v>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="J29" s="113">
         <v>-0.29000000000000004</v>
@@ -13020,7 +13020,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="C30">
-        <v>-0.10000000000000009</v>
+        <v>-0.1</v>
       </c>
       <c r="D30" s="34">
         <v>4.9999999999999822E-2</v>
@@ -13029,7 +13029,7 @@
         <v>-0.17000000000000037</v>
       </c>
       <c r="F30">
-        <v>-0.19000000000000039</v>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="G30" s="34">
         <v>-0.15000000000000036</v>
@@ -13038,7 +13038,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="I30">
-        <v>4.0000000000000036E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="J30" s="34">
         <v>3.0000000000000249E-2</v>
@@ -13052,7 +13052,7 @@
         <v>0.38000000000000034</v>
       </c>
       <c r="C31" s="111">
-        <v>0.30000000000000027</v>
+        <v>0.3</v>
       </c>
       <c r="D31" s="113">
         <v>0.45000000000000018</v>
@@ -13061,7 +13061,7 @@
         <v>2.9999999999999805E-2</v>
       </c>
       <c r="F31" s="111">
-        <v>4.0000000000000036E-2</v>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="G31" s="113">
         <v>-2.0000000000000018E-2</v>
@@ -13070,13 +13070,13 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="I31" s="111">
-        <v>1.0000000000000231E-2</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="J31" s="113">
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="41" t="s">
         <v>236</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>0.64000000000000057</v>
       </c>
       <c r="C32" s="104">
-        <v>0.4300000000000006</v>
+        <v>0.43</v>
       </c>
       <c r="D32" s="35">
         <v>0.5</v>
@@ -13093,7 +13093,7 @@
         <v>-0.13999999999999968</v>
       </c>
       <c r="F32" s="104">
-        <v>-8.9999999999999858E-2</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="G32" s="35">
         <v>-0.13999999999999968</v>
@@ -13102,34 +13102,34 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="I32" s="104">
-        <v>2.0000000000000018E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="J32" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1"/>
-    <row r="34" spans="1:10" ht="15" thickBot="1">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="280" t="s">
+      <c r="B34" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="281"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="280" t="s">
+      <c r="C34" s="290"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="281"/>
-      <c r="G34" s="282"/>
-      <c r="H34" s="281" t="s">
+      <c r="F34" s="290"/>
+      <c r="G34" s="291"/>
+      <c r="H34" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="281"/>
-      <c r="J34" s="282"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1">
+      <c r="I34" s="290"/>
+      <c r="J34" s="291"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="151"/>
       <c r="B35" s="105" t="s">
         <v>222</v>
@@ -13159,7 +13159,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="145" t="s">
         <v>196</v>
       </c>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="F36" s="155">
         <f t="shared" si="2"/>
-        <v>8.3333333333338955E-4</v>
+        <v>3.5000000000000107E-2</v>
       </c>
       <c r="G36" s="154">
         <f t="shared" si="2"/>
@@ -13193,16 +13193,16 @@
       </c>
       <c r="I36" s="153">
         <f t="shared" si="2"/>
-        <v>4.9166666666666727E-2</v>
+        <v>3.2500000000000084E-2</v>
       </c>
       <c r="J36" s="154">
         <f t="shared" si="2"/>
         <v>3.9166666666666759E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="A37" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="146">
         <f>P22</f>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="C37" s="108">
         <f>Q22</f>
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="D37" s="108">
         <f>R22</f>
@@ -13222,7 +13222,7 @@
       </c>
       <c r="F37" s="52">
         <f>Q23</f>
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="G37" s="40">
         <f>R23</f>
@@ -13234,16 +13234,16 @@
       </c>
       <c r="I37" s="108">
         <f>Q24</f>
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J37" s="40">
         <f>R24</f>
         <v>0.94</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="156">
         <f>P16</f>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="F38" s="147">
         <f>Q17</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="G38" s="158">
         <f>R17</f>
@@ -13275,61 +13275,27 @@
       </c>
       <c r="I38" s="157">
         <f>Q18</f>
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="J38" s="158">
         <f>R18</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.2" thickBot="1">
-      <c r="A39" s="150" t="s">
-        <v>250</v>
-      </c>
-      <c r="B39" s="42">
-        <f>U16</f>
-        <v>0.12</v>
-      </c>
-      <c r="C39" s="108">
-        <f>V16</f>
-        <v>0.36</v>
-      </c>
-      <c r="D39" s="148">
-        <f>W16</f>
-        <v>0.03</v>
-      </c>
-      <c r="E39" s="42">
-        <f>U17</f>
-        <v>0.18</v>
-      </c>
-      <c r="F39" s="52">
-        <f>V17</f>
-        <v>0.15</v>
-      </c>
-      <c r="G39" s="149">
-        <f>W17</f>
-        <v>0.05</v>
-      </c>
-      <c r="H39" s="108">
-        <f>U18</f>
-        <v>0.43</v>
-      </c>
-      <c r="I39" s="108">
-        <f>V18</f>
-        <v>0.37</v>
-      </c>
-      <c r="J39" s="40">
-        <f>W18</f>
-        <v>0.06</v>
-      </c>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A39" s="150"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="T13:W14"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
@@ -13337,6 +13303,11 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13346,23 +13317,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E465011-058D-463A-A749-721308B63011}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A1" s="207" t="s">
         <v>189</v>
       </c>
@@ -13370,7 +13342,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="208" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" s="209" t="s">
         <v>191</v>
@@ -13385,10 +13357,10 @@
         <v>212</v>
       </c>
       <c r="H1" s="212" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="213" t="s">
         <v>208</v>
       </c>
@@ -13414,7 +13386,7 @@
         <v>135.63999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="219" t="s">
         <v>210</v>
       </c>
@@ -13440,7 +13412,7 @@
         <v>125.12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="225" t="s">
         <v>211</v>
       </c>
@@ -13466,9 +13438,9 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" thickBot="1">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
       <c r="A5" s="213" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="214">
         <v>92.59</v>
@@ -13480,21 +13452,21 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="E5" s="253" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F5" s="217">
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="G5" s="231" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H5" s="247">
         <v>107.45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1">
       <c r="A6" s="219" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" s="220">
         <v>103.58</v>
@@ -13512,15 +13484,15 @@
         <v>3.04E-2</v>
       </c>
       <c r="G6" s="232" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H6" s="248">
         <v>116.62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="225" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="226">
         <v>1.35</v>
@@ -13538,15 +13510,15 @@
         <v>2.86E-2</v>
       </c>
       <c r="G7" s="233" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H7" s="249">
         <v>7.64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1">
       <c r="A8" s="213" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" s="214">
         <v>114.93</v>
@@ -13564,15 +13536,15 @@
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="G8" s="234" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H8" s="250">
         <v>126.74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
       <c r="A9" s="261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="262">
         <v>106.3</v>
@@ -13590,15 +13562,15 @@
         <v>2.76E-2</v>
       </c>
       <c r="G9" s="266" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H9" s="266">
         <v>116.12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
       <c r="A10" s="225" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" s="226">
         <v>-0.49</v>
@@ -13616,15 +13588,15 @@
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="G10" s="233" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H10" s="251">
         <v>2.73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1">
       <c r="A11" s="267" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B11" s="268">
         <v>114.81</v>
@@ -13642,15 +13614,15 @@
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="G11" s="272" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H11" s="273">
         <v>123.47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1">
       <c r="A12" s="219" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B12" s="220">
         <v>109.28</v>
@@ -13668,15 +13640,15 @@
         <v>2.81E-2</v>
       </c>
       <c r="G12" s="232" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H12" s="235">
         <v>116.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
       <c r="A13" s="254" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="255">
         <v>-2.4700000000000002</v>
@@ -13694,13 +13666,13 @@
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="G13" s="259" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H13" s="260">
         <v>-2.34</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="19.95" customHeight="1" thickBot="1"/>
+    <row r="34" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="35" spans="1:22" ht="30.75" customHeight="1" thickBot="1">
       <c r="A35" s="160" t="s">
         <v>189</v>
@@ -13718,13 +13690,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+    <row r="36" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A36" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="164">
-        <v>0.98</v>
-      </c>
+      <c r="B36" s="164"/>
       <c r="C36" s="167">
         <v>3.5099999999999999E-2</v>
       </c>
@@ -13735,83 +13705,51 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+    <row r="37" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="165">
-        <v>0.98</v>
-      </c>
+      <c r="B37" s="165"/>
       <c r="C37" s="170">
-        <v>1.01E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="D37" s="171">
-        <v>2.4500000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E37" s="172">
-        <v>2.01E-2</v>
-      </c>
-      <c r="P37" s="206" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="206" t="s">
-        <v>216</v>
-      </c>
-      <c r="R37" s="206" t="s">
-        <v>281</v>
-      </c>
-      <c r="S37" s="206" t="s">
-        <v>191</v>
-      </c>
-      <c r="T37" s="206" t="s">
-        <v>192</v>
-      </c>
-      <c r="U37" s="206" t="s">
-        <v>193</v>
-      </c>
-      <c r="V37" s="312">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="P37" s="206"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="206"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="206"/>
+      <c r="V37" s="277"/>
+    </row>
+    <row r="38" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="166">
-        <v>1</v>
-      </c>
+      <c r="B38" s="166"/>
       <c r="C38" s="173">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D38" s="174">
-        <v>3.6400000000000002E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="E38" s="175">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="P38" s="176" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q38" s="176">
-        <v>0.98</v>
-      </c>
-      <c r="R38" s="176">
-        <v>0.68</v>
-      </c>
-      <c r="S38" s="276">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="T38" s="276">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="U38" s="276">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="V38" s="312">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
+      <c r="S38" s="276"/>
+      <c r="T38" s="276"/>
+      <c r="U38" s="276"/>
+      <c r="V38" s="277"/>
+    </row>
+    <row r="39" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="274" t="s">
         <v>217</v>
       </c>
@@ -13825,29 +13763,15 @@
       <c r="E39" s="169">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="P39" s="176" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q39" s="176">
-        <v>0.95</v>
-      </c>
-      <c r="R39" s="176">
-        <v>0.75</v>
-      </c>
-      <c r="S39" s="276">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="T39" s="276">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="U39" s="276">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="V39" s="312">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
+      <c r="S39" s="276"/>
+      <c r="T39" s="276"/>
+      <c r="U39" s="276"/>
+      <c r="V39" s="277"/>
+    </row>
+    <row r="40" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A40" s="274" t="s">
         <v>218</v>
       </c>
@@ -13861,26 +13785,14 @@
       <c r="E40" s="172">
         <v>2.87E-2</v>
       </c>
-      <c r="P40" s="176" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q40" s="176">
-        <v>0.98</v>
-      </c>
-      <c r="R40" s="176">
-        <v>0.7</v>
-      </c>
-      <c r="S40" s="276">
-        <v>1.15E-2</v>
-      </c>
-      <c r="T40" s="276">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="U40" s="276">
-        <v>2.9600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="19.95" customHeight="1" thickBot="1">
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
+      <c r="S40" s="276"/>
+      <c r="T40" s="276"/>
+      <c r="U40" s="276"/>
+    </row>
+    <row r="41" spans="1:22" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A41" s="275" t="s">
         <v>219</v>
       </c>
@@ -13906,34 +13818,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522180D-F88B-4A26-9A14-CAA2DCEBA3C7}">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" thickBot="1">
-      <c r="B1" s="292" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B1" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294" t="s">
+      <c r="C1" s="294"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="296" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="294" t="s">
+      <c r="F1" s="296"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="295"/>
-      <c r="J1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="297"/>
       <c r="K1" s="45"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
@@ -13942,17 +13855,17 @@
       <c r="V1" s="29"/>
       <c r="W1" s="29"/>
     </row>
-    <row r="2" spans="1:23" ht="15.6" thickBot="1">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="B2" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="67" t="s">
         <v>197</v>
       </c>
       <c r="F2" s="55" t="s">
@@ -13978,43 +13891,40 @@
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
     </row>
-    <row r="3" spans="1:23" ht="15.6" thickBot="1">
-      <c r="B3" s="70">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B3" s="73">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="69">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D3" s="80">
-        <f t="shared" ref="D3:D14" si="0">B3-C3</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="E3" s="70">
+      <c r="D3" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="319">
         <v>3.9</v>
       </c>
       <c r="F3" s="71">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="G3" s="72">
         <f>E3-F3</f>
-        <v>2.0000000000000018E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="H3" s="70">
         <v>2.8</v>
       </c>
       <c r="I3" s="71">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="J3" s="72">
-        <f t="shared" ref="J3:J14" si="1">H3-I3</f>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="L3" s="297" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
+        <f t="shared" ref="J3:J14" si="0">H3-I3</f>
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -14022,41 +13932,40 @@
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="15.6" thickBot="1">
+    <row r="4" spans="1:23" ht="15.75" thickBot="1">
       <c r="B4" s="73">
         <v>4.3</v>
       </c>
       <c r="C4" s="69">
         <v>4.59</v>
       </c>
-      <c r="D4" s="81">
-        <f t="shared" si="0"/>
-        <v>-0.29000000000000004</v>
-      </c>
-      <c r="E4" s="73">
+      <c r="D4" s="74">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E4" s="320">
         <v>4</v>
       </c>
       <c r="F4" s="69">
         <v>3.98</v>
       </c>
       <c r="G4" s="74">
-        <f t="shared" ref="G4:G14" si="2">E4-F4</f>
+        <f t="shared" ref="G4:G14" si="1">E4-F4</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="H4" s="73">
         <v>2.9</v>
       </c>
       <c r="I4" s="69">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="74">
-        <f t="shared" si="1"/>
-        <v>0.10999999999999988</v>
-      </c>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14064,50 +13973,41 @@
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
     </row>
-    <row r="5" spans="1:23" ht="15.6" thickBot="1">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="B5" s="73">
         <v>4.2</v>
       </c>
       <c r="C5" s="69">
         <v>4.2</v>
       </c>
-      <c r="D5" s="81">
-        <f t="shared" si="0"/>
+      <c r="D5" s="74">
         <v>0</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="320">
         <v>4.2</v>
       </c>
       <c r="F5" s="69">
         <v>4.09</v>
       </c>
       <c r="G5" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.11000000000000032</v>
       </c>
       <c r="H5" s="73">
         <v>3.1</v>
       </c>
       <c r="I5" s="69">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J5" s="74">
-        <f t="shared" si="1"/>
-        <v>0.20000000000000018</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
       </c>
       <c r="K5" s="34"/>
-      <c r="L5" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="63" t="s">
-        <v>3</v>
-      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
@@ -14115,50 +14015,41 @@
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6" thickBot="1">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="B6" s="73">
         <v>4.0999999999999996</v>
       </c>
       <c r="C6" s="69">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D6" s="81">
-        <f t="shared" si="0"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="E6" s="73">
+      <c r="D6" s="74">
+        <v>-0.04</v>
+      </c>
+      <c r="E6" s="320">
         <v>4.4000000000000004</v>
       </c>
       <c r="F6" s="69">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="G6" s="74">
-        <f t="shared" si="2"/>
-        <v>0.16000000000000014</v>
+        <f t="shared" si="1"/>
+        <v>0.11000000000000032</v>
       </c>
       <c r="H6" s="73">
         <v>3.2</v>
       </c>
       <c r="I6" s="69">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="J6" s="74">
-        <f t="shared" si="1"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000302E-2</v>
       </c>
       <c r="K6" s="34"/>
-      <c r="L6" s="48">
-        <v>1</v>
-      </c>
-      <c r="M6" s="48">
-        <v>0.36</v>
-      </c>
-      <c r="N6" s="48">
-        <v>0.39</v>
-      </c>
-      <c r="O6" s="46">
-        <v>0.37</v>
-      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="46"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
@@ -14166,50 +14057,41 @@
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="15.6" thickBot="1">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1">
       <c r="B7" s="73">
         <v>4</v>
       </c>
       <c r="C7" s="69">
         <v>4</v>
       </c>
-      <c r="D7" s="81">
-        <f t="shared" si="0"/>
+      <c r="D7" s="74">
         <v>0</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="320">
         <v>4.4000000000000004</v>
       </c>
       <c r="F7" s="69">
-        <v>4.3899999999999997</v>
+        <v>4.3</v>
       </c>
       <c r="G7" s="74">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000675E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10000000000000053</v>
       </c>
       <c r="H7" s="73">
         <v>3.2</v>
       </c>
       <c r="I7" s="69">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
       <c r="J7" s="74">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999805E-2</v>
       </c>
       <c r="K7" s="34"/>
-      <c r="L7" s="48">
-        <v>2</v>
-      </c>
-      <c r="M7" s="48">
-        <v>0.63</v>
-      </c>
-      <c r="N7" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="50">
-        <v>0.65</v>
-      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="50"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
@@ -14217,50 +14099,41 @@
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="15.6" thickBot="1">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1">
       <c r="B8" s="73">
         <v>3.8</v>
       </c>
       <c r="C8" s="69">
         <v>3.94</v>
       </c>
-      <c r="D8" s="81">
-        <f t="shared" si="0"/>
-        <v>-0.14000000000000012</v>
-      </c>
-      <c r="E8" s="73">
+      <c r="D8" s="74">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E8" s="320">
         <v>4.5</v>
       </c>
       <c r="F8" s="69">
-        <v>4.3600000000000003</v>
+        <v>4.55</v>
       </c>
       <c r="G8" s="74">
-        <f t="shared" si="2"/>
-        <v>0.13999999999999968</v>
+        <f t="shared" si="1"/>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="H8" s="73">
         <v>3.1</v>
       </c>
       <c r="I8" s="69">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="J8" s="74">
-        <f t="shared" si="1"/>
-        <v>-9.9999999999997868E-3</v>
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="K8" s="34"/>
-      <c r="L8" s="49">
-        <v>3</v>
-      </c>
-      <c r="M8" s="49">
-        <v>0.68</v>
-      </c>
-      <c r="N8" s="49">
-        <v>0.26</v>
-      </c>
-      <c r="O8" s="47">
-        <v>0.68</v>
-      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="47"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
@@ -14268,36 +14141,35 @@
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
     </row>
-    <row r="9" spans="1:23" ht="15.6" thickBot="1">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1">
       <c r="B9" s="73">
         <v>3.8</v>
       </c>
       <c r="C9" s="69">
         <v>3.74</v>
       </c>
-      <c r="D9" s="81">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999609E-2</v>
-      </c>
-      <c r="E9" s="73">
+      <c r="D9" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="320">
         <v>4.3</v>
       </c>
       <c r="F9" s="69">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="G9" s="74">
-        <f t="shared" si="2"/>
-        <v>-8.0000000000000071E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="H9" s="73">
         <v>3.1</v>
       </c>
       <c r="I9" s="69">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="J9" s="74">
-        <f t="shared" si="1"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" si="0"/>
+        <v>0.10999999999999988</v>
       </c>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
@@ -14306,36 +14178,35 @@
       <c r="V9" s="29"/>
       <c r="W9" s="29"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6" thickBot="1">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="B10" s="73">
         <v>3.8</v>
       </c>
       <c r="C10" s="69">
         <v>3.92</v>
       </c>
-      <c r="D10" s="81">
-        <f t="shared" si="0"/>
-        <v>-0.12000000000000011</v>
-      </c>
-      <c r="E10" s="73">
+      <c r="D10" s="74">
+        <v>-0.12</v>
+      </c>
+      <c r="E10" s="320">
         <v>4.2</v>
       </c>
       <c r="F10" s="69">
-        <v>4.2300000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="G10" s="74">
-        <f t="shared" si="2"/>
-        <v>-3.0000000000000249E-2</v>
+        <f t="shared" si="1"/>
+        <v>-5.9999999999999609E-2</v>
       </c>
       <c r="H10" s="73">
         <v>3</v>
       </c>
       <c r="I10" s="69">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J10" s="74">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
@@ -14344,36 +14215,35 @@
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="B11" s="73">
         <v>3.8</v>
       </c>
       <c r="C11" s="69">
         <v>3.9</v>
       </c>
-      <c r="D11" s="81">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="E11" s="73">
+      <c r="D11" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="E11" s="320">
         <v>4</v>
       </c>
       <c r="F11" s="69">
-        <v>4.0999999999999996</v>
+        <v>3.95</v>
       </c>
       <c r="G11" s="74">
-        <f t="shared" si="2"/>
-        <v>-9.9999999999999645E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="H11" s="73">
         <v>2.7</v>
       </c>
       <c r="I11" s="69">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="J11" s="74">
-        <f t="shared" si="1"/>
-        <v>-0.18999999999999995</v>
+        <f t="shared" si="0"/>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="L11" t="s">
         <v>200</v>
@@ -14385,36 +14255,35 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1">
       <c r="B12" s="73">
         <v>3.8</v>
       </c>
       <c r="C12" s="69">
         <v>3.9</v>
       </c>
-      <c r="D12" s="81">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="E12" s="73">
+      <c r="D12" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="E12" s="320">
         <v>3.8</v>
       </c>
       <c r="F12" s="69">
-        <v>3.99</v>
+        <v>3.91</v>
       </c>
       <c r="G12" s="74">
-        <f t="shared" si="2"/>
-        <v>-0.19000000000000039</v>
+        <f t="shared" si="1"/>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="H12" s="73">
         <v>2.7</v>
       </c>
       <c r="I12" s="69">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J12" s="74">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="L12" s="64" t="s">
         <v>201</v>
@@ -14429,36 +14298,35 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
     </row>
-    <row r="13" spans="1:23" ht="15.6" thickBot="1">
-      <c r="B13" s="75">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B13" s="73">
         <v>4.2</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="69">
         <v>3.9</v>
       </c>
-      <c r="D13" s="82">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="E13" s="73">
+      <c r="D13" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="320">
         <v>3.8</v>
       </c>
       <c r="F13" s="69">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="G13" s="74">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="H13" s="73">
         <v>2.7</v>
       </c>
       <c r="I13" s="69">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="J13" s="74">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000231E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="L13" s="53" t="s">
         <v>1</v>
@@ -14469,71 +14337,70 @@
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6" thickBot="1">
-      <c r="B14" s="78">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B14" s="317">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="318">
         <v>4.47</v>
       </c>
-      <c r="D14" s="83">
-        <f t="shared" si="0"/>
-        <v>0.4300000000000006</v>
-      </c>
-      <c r="E14" s="75">
+      <c r="D14" s="323">
+        <v>0.43</v>
+      </c>
+      <c r="E14" s="316">
         <v>3.7</v>
       </c>
       <c r="F14" s="76">
-        <v>3.79</v>
+        <v>3.63</v>
       </c>
       <c r="G14" s="77">
-        <f t="shared" si="2"/>
-        <v>-8.9999999999999858E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="H14" s="75">
         <v>2.7</v>
       </c>
       <c r="I14" s="76">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J14" s="77">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L14" s="54" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="240">
+      <c r="B15" s="181">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="240">
-        <f>AVERAGE(C3:C14)</f>
+      <c r="C15" s="181">
+        <f t="shared" ref="C15:D15" si="2">AVERAGE(C3:C14)</f>
         <v>4.1049999999999995</v>
       </c>
       <c r="D15" s="239">
-        <f t="shared" ref="D15:J15" si="3">AVERAGE(D3:D14)</f>
+        <f>AVERAGE(D3:D14)</f>
         <v>3.3333333333333361E-3</v>
       </c>
       <c r="E15" s="241">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D15:J15" si="3">AVERAGE(E3:E14)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="F15" s="240">
         <f t="shared" si="3"/>
-        <v>4.0991666666666662</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="G15" s="242">
-        <f t="shared" si="3"/>
-        <v>8.3333333333338955E-4</v>
+        <f>AVERAGE(G3:G14)</f>
+        <v>3.5000000000000107E-2</v>
       </c>
       <c r="H15" s="240">
         <f t="shared" si="3"/>
@@ -14541,31 +14408,31 @@
       </c>
       <c r="I15" s="240">
         <f>AVERAGE(I3:I14)</f>
-        <v>2.8841666666666672</v>
+        <v>2.9008333333333334</v>
       </c>
       <c r="J15" s="242">
-        <f t="shared" si="3"/>
-        <v>4.9166666666666727E-2</v>
+        <f>AVERAGE(J3:J14)</f>
+        <v>3.2500000000000084E-2</v>
       </c>
       <c r="L15" s="41" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" thickBot="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1">
       <c r="D16" s="97">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="G16" s="94">
-        <v>0.98</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J16" s="94">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="15" thickBot="1">
+        <v>0.71479999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="D17" s="95" t="s">
         <v>206</v>
       </c>
@@ -14577,39 +14444,108 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="4:5" ht="15.6" thickBot="1">
+    <row r="21" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="313"/>
+      <c r="C22" s="314"/>
+      <c r="D22" s="315"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" thickBot="1">
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" thickBot="1">
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" thickBot="1">
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" thickBot="1">
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1">
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" thickBot="1">
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" thickBot="1">
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" thickBot="1">
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" thickBot="1">
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+    </row>
+    <row r="32" spans="2:10" ht="18" thickBot="1">
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+    </row>
+    <row r="33" spans="2:4" ht="18" thickBot="1">
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+    </row>
+    <row r="34" spans="2:4" ht="18" thickBot="1">
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" thickBot="1">
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+    </row>
+    <row r="100" spans="4:5" ht="15.75" thickBot="1">
       <c r="D100" s="85"/>
       <c r="E100" s="86"/>
     </row>
-    <row r="101" spans="4:5" ht="15.6" thickBot="1">
+    <row r="101" spans="4:5" ht="15.75" thickBot="1">
       <c r="D101" s="87"/>
       <c r="E101" s="88"/>
     </row>
-    <row r="102" spans="4:5" ht="15.6" thickBot="1">
+    <row r="102" spans="4:5" ht="15.75" thickBot="1">
       <c r="D102" s="87"/>
       <c r="E102" s="88"/>
     </row>
-    <row r="103" spans="4:5" ht="15.6" thickBot="1">
+    <row r="103" spans="4:5" ht="15.75" thickBot="1">
       <c r="D103" s="87"/>
       <c r="E103" s="88"/>
     </row>
-    <row r="104" spans="4:5" ht="15.6" thickBot="1">
+    <row r="104" spans="4:5" ht="15.75" thickBot="1">
       <c r="D104" s="87"/>
       <c r="E104" s="88"/>
     </row>
-    <row r="105" spans="4:5" ht="15.6" thickBot="1">
+    <row r="105" spans="4:5" ht="15.75" thickBot="1">
       <c r="D105" s="87"/>
       <c r="E105" s="88"/>
     </row>
-    <row r="106" spans="4:5" ht="15.6" thickBot="1">
+    <row r="106" spans="4:5" ht="15.75" thickBot="1">
       <c r="D106" s="87"/>
       <c r="E106" s="88"/>
     </row>
-    <row r="107" spans="4:5" ht="15.6" thickBot="1">
+    <row r="107" spans="4:5" ht="15.75" thickBot="1">
       <c r="D107" s="87"/>
       <c r="E107" s="88"/>
     </row>
-    <row r="108" spans="4:5" ht="15">
+    <row r="108" spans="4:5">
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
@@ -14629,7 +14565,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14637,31 +14574,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF7217-6579-4043-9043-94ED9D7FA082}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" thickBot="1">
-      <c r="B1" s="292" t="s">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1">
+      <c r="B1" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294" t="s">
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="294" t="s">
+      <c r="F1" s="296"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="295"/>
-      <c r="J1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="297"/>
       <c r="K1" s="45"/>
     </row>
-    <row r="2" spans="1:22" ht="30.6" thickBot="1">
+    <row r="2" spans="1:22" ht="29.25" thickBot="1">
       <c r="B2" s="65" t="s">
         <v>197</v>
       </c>
@@ -14695,7 +14632,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:22" ht="15.6" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="B3" s="70">
         <v>4.5999999999999996</v>
       </c>
@@ -14726,18 +14663,18 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="297" t="s">
+      <c r="L3" s="298" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1">
       <c r="B4" s="73">
         <v>4.3</v>
       </c>
@@ -14768,10 +14705,10 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -14779,7 +14716,7 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="B5" s="73">
         <v>4.2</v>
       </c>
@@ -14830,7 +14767,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:22" ht="15.6" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="B6" s="73">
         <v>4.0999999999999996</v>
       </c>
@@ -14881,7 +14818,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" ht="15.6" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="B7" s="73">
         <v>4</v>
       </c>
@@ -14932,7 +14869,7 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="B8" s="73">
         <v>3.8</v>
       </c>
@@ -14983,7 +14920,7 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="B9" s="73">
         <v>3.8</v>
       </c>
@@ -15021,7 +14958,7 @@
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="1:22" ht="15.6" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="B10" s="73">
         <v>3.8</v>
       </c>
@@ -15059,7 +14996,7 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
     </row>
-    <row r="11" spans="1:22" ht="15.6" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="B11" s="73">
         <v>3.8</v>
       </c>
@@ -15100,7 +15037,7 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
     </row>
-    <row r="12" spans="1:22" ht="15.6" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="B12" s="73">
         <v>3.8</v>
       </c>
@@ -15144,7 +15081,7 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:22" ht="15.6" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="B13" s="75">
         <v>4.2</v>
       </c>
@@ -15188,7 +15125,7 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
     </row>
-    <row r="14" spans="1:22" ht="15.6" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="B14" s="78">
         <v>4.9000000000000004</v>
       </c>
@@ -15228,7 +15165,7 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
     </row>
-    <row r="15" spans="1:22" ht="15.6" thickBot="1">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -15277,7 +15214,7 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
-    <row r="16" spans="1:22" ht="15.6" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="D16" s="97">
         <v>0.56000000000000005</v>
       </c>
@@ -15288,7 +15225,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15" thickBot="1">
+    <row r="17" spans="4:10" ht="15.75" thickBot="1">
       <c r="D17" s="95" t="s">
         <v>206</v>
       </c>
@@ -15324,41 +15261,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A86CC4-8F03-4DC3-9AA8-DB821712665C}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" thickBot="1">
-      <c r="B1" s="292" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B1" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="295" t="s">
+      <c r="C1" s="294"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="296" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="295" t="s">
+      <c r="F1" s="296"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="296" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="295"/>
-      <c r="J1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="297"/>
       <c r="K1" s="45"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="299"/>
-      <c r="T1" s="300"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.6" thickBot="1">
+      <c r="Q1" s="300"/>
+      <c r="R1" s="301"/>
+      <c r="S1" s="300"/>
+      <c r="T1" s="301"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
         <v>197</v>
       </c>
@@ -15392,7 +15329,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="91"/>
     </row>
-    <row r="3" spans="1:20" ht="15.6" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="B3" s="36">
         <v>4.5999999999999996</v>
       </c>
@@ -15423,18 +15360,18 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="302" t="s">
+      <c r="L3" s="303" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="305"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:20" ht="15.6" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="B4" s="31">
         <v>4.3</v>
       </c>
@@ -15465,16 +15402,16 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="307"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" ht="15.6" thickBot="1">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="B5" s="31">
         <v>4.2</v>
       </c>
@@ -15522,7 +15459,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" ht="15.6" thickBot="1">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
       <c r="B6" s="31">
         <v>4.0999999999999996</v>
       </c>
@@ -15570,7 +15507,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" ht="15.6" thickBot="1">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="B7" s="31">
         <v>4</v>
       </c>
@@ -15618,7 +15555,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" ht="15.6" thickBot="1">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="B8" s="31">
         <v>0</v>
       </c>
@@ -15666,7 +15603,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" ht="15.6" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1">
       <c r="B9" s="31">
         <v>3.8</v>
       </c>
@@ -15702,7 +15639,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
     </row>
-    <row r="10" spans="1:20" ht="15.6" thickBot="1">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-4.2499999999999906E-2</v>
@@ -15742,7 +15679,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
     </row>
-    <row r="11" spans="1:20" ht="15.6" thickBot="1">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="B11" s="31">
         <v>3.8</v>
       </c>
@@ -15778,7 +15715,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
     </row>
-    <row r="12" spans="1:20" ht="15.6" thickBot="1">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="B12" s="31">
         <v>3.8</v>
       </c>
@@ -15817,7 +15754,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
     </row>
-    <row r="13" spans="1:20" ht="15.6" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="B13" s="31">
         <v>4.2</v>
       </c>
@@ -15859,7 +15796,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
     </row>
-    <row r="14" spans="1:20" ht="15.6" thickBot="1">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="B14" s="32">
         <v>4.9000000000000004</v>
       </c>
@@ -15901,7 +15838,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -15948,7 +15885,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="D16" t="s">
         <v>207</v>
       </c>
@@ -15959,7 +15896,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15.6" thickBot="1">
+    <row r="17" spans="4:10" ht="15.75" thickBot="1">
       <c r="D17" s="100">
         <v>2.7E-2</v>
       </c>
@@ -15970,7 +15907,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="15" thickBot="1">
+    <row r="18" spans="4:10" ht="15.75" thickBot="1">
       <c r="D18" s="92"/>
       <c r="G18" s="92"/>
       <c r="J18" s="92"/>
@@ -16005,33 +15942,33 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.8" thickBot="1">
-      <c r="B1" s="307" t="s">
+    <row r="1" spans="1:21" ht="18" thickBot="1">
+      <c r="B1" s="308" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="311"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="310" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="310"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="310" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="310"/>
-      <c r="J1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="312"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
     </row>
-    <row r="2" spans="1:21" ht="28.2" thickBot="1">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1">
       <c r="B2" s="182" t="s">
         <v>197</v>
       </c>
@@ -16063,7 +16000,7 @@
       <c r="T2" s="176"/>
       <c r="U2" s="176"/>
     </row>
-    <row r="3" spans="1:21" ht="19.8" thickBot="1">
+    <row r="3" spans="1:21" ht="18" thickBot="1">
       <c r="B3" s="187">
         <v>4.5999999999999996</v>
       </c>
@@ -16094,15 +16031,15 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="302" t="s">
+      <c r="L3" s="303" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="305"/>
       <c r="T3" s="176"/>
     </row>
-    <row r="4" spans="1:21" ht="19.8" thickBot="1">
+    <row r="4" spans="1:21" ht="18" thickBot="1">
       <c r="B4" s="187">
         <v>4.3</v>
       </c>
@@ -16133,14 +16070,14 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="307"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
-    <row r="5" spans="1:21" ht="19.8" thickBot="1">
+    <row r="5" spans="1:21" ht="18" thickBot="1">
       <c r="B5" s="187">
         <v>4.2</v>
       </c>
@@ -16186,7 +16123,7 @@
       <c r="T5" s="176"/>
       <c r="U5" s="176"/>
     </row>
-    <row r="6" spans="1:21" ht="19.8" thickBot="1">
+    <row r="6" spans="1:21" ht="18" thickBot="1">
       <c r="B6" s="187">
         <v>4.0999999999999996</v>
       </c>
@@ -16232,7 +16169,7 @@
       <c r="T6" s="176"/>
       <c r="U6" s="176"/>
     </row>
-    <row r="7" spans="1:21" ht="19.8" thickBot="1">
+    <row r="7" spans="1:21" ht="18" thickBot="1">
       <c r="B7" s="187">
         <v>4</v>
       </c>
@@ -16278,7 +16215,7 @@
       <c r="T7" s="176"/>
       <c r="U7" s="176"/>
     </row>
-    <row r="8" spans="1:21" ht="19.8" thickBot="1">
+    <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="B8" s="187">
         <v>3.8</v>
       </c>
@@ -16324,7 +16261,7 @@
       <c r="T8" s="176"/>
       <c r="U8" s="176"/>
     </row>
-    <row r="9" spans="1:21" ht="19.8" thickBot="1">
+    <row r="9" spans="1:21" ht="18" thickBot="1">
       <c r="B9" s="187">
         <v>3.8</v>
       </c>
@@ -16358,7 +16295,7 @@
       <c r="T9" s="176"/>
       <c r="U9" s="176"/>
     </row>
-    <row r="10" spans="1:21" ht="19.8" thickBot="1">
+    <row r="10" spans="1:21" ht="18" thickBot="1">
       <c r="A10" s="42">
         <f>AVERAGE(G3:G14)</f>
         <v>-8.3333333333320458E-4</v>
@@ -16396,7 +16333,7 @@
       <c r="T10" s="176"/>
       <c r="U10" s="176"/>
     </row>
-    <row r="11" spans="1:21" ht="19.8" thickBot="1">
+    <row r="11" spans="1:21" ht="18" thickBot="1">
       <c r="B11" s="187">
         <v>3.8</v>
       </c>
@@ -16430,7 +16367,7 @@
       <c r="T11" s="176"/>
       <c r="U11" s="176"/>
     </row>
-    <row r="12" spans="1:21" ht="19.8" thickBot="1">
+    <row r="12" spans="1:21" ht="18" thickBot="1">
       <c r="B12" s="187">
         <v>3.8</v>
       </c>
@@ -16467,7 +16404,7 @@
       <c r="T12" s="176"/>
       <c r="U12" s="176"/>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
       <c r="B13" s="187">
         <v>4.2</v>
       </c>
@@ -16505,7 +16442,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="B14" s="187">
         <v>4.9000000000000004</v>
       </c>
@@ -16543,7 +16480,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -16590,7 +16527,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="B16" s="200"/>
       <c r="C16" s="200"/>
       <c r="D16" s="200" t="s">
@@ -16607,7 +16544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="200"/>
       <c r="C17" s="200"/>
       <c r="D17" s="203">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A31D48-038F-4D7A-9AAC-67F0705CE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6E512-96BF-408A-ADF4-3625A3A7CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="teszt adatok" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="280">
   <si>
     <t>idoszak</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>BIC</t>
+  </si>
+  <si>
+    <t>LOG</t>
   </si>
 </sst>
 </file>
@@ -2914,6 +2917,34 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2922,6 +2953,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2950,28 +2990,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2985,9 +3019,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3019,37 +3050,7 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3154,7 +3155,4718 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>LN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kovászna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$F$2:$F$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>2.5014359517392109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5095992623783721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4765384001174837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4069451083182885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.388762789235098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4336133554004498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4159137783010487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3702437414678603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2407096892759584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2407096892759584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.33214389523559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2512917986064953</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1162555148025524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1041341542702074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1517622032594619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1400661634962708</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1400661634962708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9878743481543455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0281482472922852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9315214116032138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9740810260220096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9315214116032138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0014800002101243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8562979903656263</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7404661748405046</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6677068205580761</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3609765531356006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2237754316221157</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2237754316221157</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.410986973710262</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4816045409242156</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-943C-44D9-9555-C560FB8CCB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hargita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$G$2:$G$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>2.5014359517392109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5095992623783721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4765384001174837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4069451083182885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.388762789235098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4336133554004498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4159137783010487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3702437414678603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2407096892759584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2407096892759584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.33214389523559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2512917986064953</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1162555148025524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1041341542702074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1517622032594619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1400661634962708</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1400661634962708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9878743481543455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0281482472922852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0149030205422647</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9315214116032138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9740810260220096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9315214116032138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0014800002101243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8562979903656263</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7404661748405046</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6677068205580761</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3609765531356006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2237754316221157</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2237754316221157</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.410986973710262</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.589235205116581</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4816045409242156</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-943C-44D9-9555-C560FB8CCB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$H$2:$H$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>2.1162555148025524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1400661634962708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1041341542702074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.066862759472976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1162555148025524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1162555148025524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0014800002101243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8562979903656263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7749523509116738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7749523509116738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7404661748405046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6677068205580761</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7749523509116738</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8082887711792655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8405496333974869</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6677068205580761</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6677068205580761</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5260563034950492</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7404661748405046</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7749523509116738</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7047480922384253</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7749523509116738</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8405496333974869</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9315214116032138</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.824549292051046</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5260563034950492</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5260563034950492</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5260563034950492</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5040773967762742</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4816045409242156</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3609765531356006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3609765531356006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1939224684724346</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0647107369924282</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0296194171811581</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0296194171811581</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83290912293510388</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83290912293510388</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0296194171811581</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0296194171811581</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.0296194171811581</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.87546873735389985</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.87546873735389985</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.83290912293510388</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-943C-44D9-9555-C560FB8CCB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="442106255"/>
+        <c:axId val="442107215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442106255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442107215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442107215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442106255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>eredeti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kovászna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$B$2:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6465-43F3-ACC6-5BBA29B5044B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hargita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$C$2:$C$152</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6465-43F3-ACC6-5BBA29B5044B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tanító adatok'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tanító adatok'!$D$2:$D$152</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6465-43F3-ACC6-5BBA29B5044B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="445870111"/>
+        <c:axId val="445856191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445870111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445856191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445856191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445870111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87794</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B57E13E-0DB3-293D-93C8-C3DDF96026D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73895F06-33CC-5605-E677-CAB29C8497FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3584,7 +8296,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4072,7 +8784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4609,7 +9321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5223,7 +9935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5822,7 +10534,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6447,7 +11159,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6899,7 +11611,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8041,21 +12753,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="308" t="s">
+      <c r="B1" s="318" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="s">
+      <c r="C1" s="319"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="321" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="311"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="311" t="s">
+      <c r="F1" s="321"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="321" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="311"/>
-      <c r="J1" s="312"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="322"/>
       <c r="K1" s="45"/>
       <c r="T1" s="206"/>
       <c r="U1" s="206"/>
@@ -8123,12 +12835,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="305"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="315"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
@@ -8163,10 +12875,10 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="306"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="307"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="317"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
@@ -8693,21 +13405,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="308" t="s">
+      <c r="B1" s="318" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="s">
+      <c r="C1" s="319"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="321" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="311"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="311" t="s">
+      <c r="F1" s="321"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="321" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="311"/>
-      <c r="J1" s="312"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="322"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
@@ -8775,12 +13487,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="305"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="315"/>
       <c r="T3" s="176"/>
       <c r="U3" s="176"/>
     </row>
@@ -8815,10 +13527,10 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="L4" s="306"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="307"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="317"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>
@@ -9332,10 +14044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD52327-7AD8-4736-8B4E-8CA911AAE236}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9343,7 +14055,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9356,8 +14068,20 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="323" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -9370,8 +14094,20 @@
       <c r="D2" s="177">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <f>LN(B2)</f>
+        <v>2.5014359517392109</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:H2" si="0">LN(C2)</f>
+        <v>2.5014359517392109</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2.1162555148025524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
@@ -9384,8 +14120,20 @@
       <c r="D3" s="177">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">LN(B3)</f>
+        <v>2.5257286443082556</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">LN(C3)</f>
+        <v>2.5257286443082556</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">LN(D3)</f>
+        <v>2.1282317058492679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
@@ -9398,8 +14146,20 @@
       <c r="D4" s="177">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.5095992623783721</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2.5095992623783721</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>2.1400661634962708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
@@ -9412,8 +14172,20 @@
       <c r="D5" s="177">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.4765384001174837</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.4765384001174837</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2.1041341542702074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
@@ -9426,8 +14198,20 @@
       <c r="D6" s="177">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.4069451083182885</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2.4069451083182885</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.066862759472976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -9440,8 +14224,20 @@
       <c r="D7" s="177">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.388762789235098</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.388762789235098</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>2.0541237336955462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
@@ -9454,8 +14250,20 @@
       <c r="D8" s="177">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.4336133554004498</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2.4336133554004498</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2.066862759472976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
@@ -9468,8 +14276,20 @@
       <c r="D9" s="177">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.4159137783010487</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2.4159137783010487</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2.1162555148025524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>120</v>
       </c>
@@ -9482,8 +14302,20 @@
       <c r="D10" s="177">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.3702437414678603</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.3702437414678603</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.1162555148025524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
@@ -9496,8 +14328,20 @@
       <c r="D11" s="177">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.2407096892759584</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2.2407096892759584</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.1282317058492679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
@@ -9510,8 +14354,20 @@
       <c r="D12" s="177">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.2407096892759584</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2.2407096892759584</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>2.1282317058492679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
@@ -9524,8 +14380,20 @@
       <c r="D13" s="177">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>124</v>
       </c>
@@ -9538,8 +14406,20 @@
       <c r="D14" s="177">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.33214389523559</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.33214389523559</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>2.0412203288596382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>125</v>
       </c>
@@ -9552,8 +14432,20 @@
       <c r="D15" s="177">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>2.0014800002101243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -9566,8 +14458,20 @@
       <c r="D16" s="177">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.2512917986064953</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.2512917986064953</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>1.9021075263969205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -9580,8 +14484,20 @@
       <c r="D17" s="177">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.1162555148025524</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2.1162555148025524</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.8562979903656263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
@@ -9594,8 +14510,20 @@
       <c r="D18" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.1282317058492679</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2.1282317058492679</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>129</v>
       </c>
@@ -9608,8 +14536,20 @@
       <c r="D19" s="177">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.1282317058492679</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2.1282317058492679</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.7749523509116738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>130</v>
       </c>
@@ -9622,8 +14562,20 @@
       <c r="D20" s="177">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.7578579175523736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
@@ -9636,8 +14588,20 @@
       <c r="D21" s="177">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.1041341542702074</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2.1041341542702074</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.7227665977411035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>132</v>
       </c>
@@ -9650,8 +14614,20 @@
       <c r="D22" s="177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>133</v>
       </c>
@@ -9664,8 +14640,20 @@
       <c r="D23" s="177">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1.7578579175523736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>134</v>
       </c>
@@ -9678,8 +14666,20 @@
       <c r="D24" s="177">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1.7749523509116738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
@@ -9692,8 +14692,20 @@
       <c r="D25" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2.1517622032594619</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2.1517622032594619</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>136</v>
       </c>
@@ -9706,8 +14718,20 @@
       <c r="D26" s="177">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1.9169226121820611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>137</v>
       </c>
@@ -9720,8 +14744,20 @@
       <c r="D27" s="177">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2.1400661634962708</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2.1400661634962708</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1.9021075263969205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>138</v>
       </c>
@@ -9734,8 +14770,20 @@
       <c r="D28" s="177">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>2.1400661634962708</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>2.1400661634962708</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1.8082887711792655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>139</v>
       </c>
@@ -9748,8 +14796,20 @@
       <c r="D29" s="177">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1.7404661748405046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
@@ -9762,8 +14822,20 @@
       <c r="D30" s="177">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1.6677068205580761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>141</v>
       </c>
@@ -9776,8 +14848,20 @@
       <c r="D31" s="177">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1.6486586255873816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>142</v>
       </c>
@@ -9790,8 +14874,20 @@
       <c r="D32" s="177">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.6486586255873816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>143</v>
       </c>
@@ -9804,8 +14900,20 @@
       <c r="D33" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2.066862759472976</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>144</v>
       </c>
@@ -9818,8 +14926,20 @@
       <c r="D34" s="177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>145</v>
       </c>
@@ -9832,8 +14952,20 @@
       <c r="D35" s="177">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1.9878743481543455</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1.9878743481543455</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>1.7749523509116738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>146</v>
       </c>
@@ -9846,8 +14978,20 @@
       <c r="D36" s="177">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>1.8082887711792655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>147</v>
       </c>
@@ -9860,8 +15004,20 @@
       <c r="D37" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.0281482472922852</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>2.0281482472922852</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>148</v>
       </c>
@@ -9874,8 +15030,20 @@
       <c r="D38" s="177">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>1.8405496333974869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
@@ -9888,8 +15056,20 @@
       <c r="D39" s="177">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>1.824549292051046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>150</v>
       </c>
@@ -9902,8 +15082,20 @@
       <c r="D40" s="177">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1.7578579175523736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
@@ -9916,8 +15108,20 @@
       <c r="D41" s="177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.9315214116032138</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1.9315214116032138</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
@@ -9930,8 +15134,20 @@
       <c r="D42" s="177">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.9021075263969205</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1.9021075263969205</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>1.6677068205580761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>153</v>
       </c>
@@ -9944,8 +15160,20 @@
       <c r="D43" s="177">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>1.6677068205580761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -9958,8 +15186,20 @@
       <c r="D44" s="177">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.9740810260220096</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>1.9740810260220096</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>1.62924053973028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>155</v>
       </c>
@@ -9972,8 +15212,20 @@
       <c r="D45" s="177">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>1.6486586255873816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>156</v>
       </c>
@@ -9986,8 +15238,20 @@
       <c r="D46" s="177">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>1.5260563034950492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -10000,8 +15264,20 @@
       <c r="D47" s="177">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.9315214116032138</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>1.9315214116032138</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>1.7404661748405046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>158</v>
       </c>
@@ -10014,8 +15290,20 @@
       <c r="D48" s="177">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>1.7749523509116738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>159</v>
       </c>
@@ -10028,8 +15316,20 @@
       <c r="D49" s="177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2.0014800002101243</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>2.0014800002101243</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
@@ -10042,8 +15342,20 @@
       <c r="D50" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>2.0541237336955462</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>161</v>
       </c>
@@ -10056,8 +15368,20 @@
       <c r="D51" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>2.0412203288596382</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>162</v>
       </c>
@@ -10070,8 +15394,20 @@
       <c r="D52" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
@@ -10084,8 +15420,20 @@
       <c r="D53" s="177">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>1.7227665977411035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>164</v>
       </c>
@@ -10098,8 +15446,20 @@
       <c r="D54" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1.8082887711792655</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1.8082887711792655</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>165</v>
       </c>
@@ -10112,8 +15472,20 @@
       <c r="D55" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
@@ -10126,8 +15498,20 @@
       <c r="D56" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>1.9021075263969205</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>1.9021075263969205</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>167</v>
       </c>
@@ -10140,8 +15524,20 @@
       <c r="D57" s="177">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1.8870696490323797</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>1.8870696490323797</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>1.6863989535702288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
@@ -10154,8 +15550,20 @@
       <c r="D58" s="177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>169</v>
       </c>
@@ -10168,8 +15576,20 @@
       <c r="D59" s="177">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1.7578579175523736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>170</v>
       </c>
@@ -10182,8 +15602,20 @@
       <c r="D60" s="177">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1.7749523509116738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -10196,8 +15628,20 @@
       <c r="D61" s="177">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>1.7578579175523736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -10210,8 +15654,20 @@
       <c r="D62" s="177">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>1.9169226121820611</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>1.9169226121820611</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>1.8405496333974869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
@@ -10224,8 +15680,20 @@
       <c r="D63" s="177">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>1.9169226121820611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>174</v>
       </c>
@@ -10238,8 +15706,20 @@
       <c r="D64" s="177">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>1.8718021769015913</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>175</v>
       </c>
@@ -10252,8 +15732,20 @@
       <c r="D65" s="177">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>1.8082887711792655</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>1.8082887711792655</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>1.9315214116032138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>176</v>
       </c>
@@ -10266,8 +15758,20 @@
       <c r="D66" s="177">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>1.7227665977411035</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1.7227665977411035</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>1.824549292051046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>177</v>
       </c>
@@ -10280,8 +15784,20 @@
       <c r="D67" s="177">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="4">LN(B67)</f>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="5">LN(C67)</f>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="6">LN(D67)</f>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>178</v>
       </c>
@@ -10294,8 +15810,20 @@
       <c r="D68" s="177">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>1.8870696490323797</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>1.8870696490323797</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>1.7227665977411035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>179</v>
       </c>
@@ -10308,8 +15836,20 @@
       <c r="D69" s="177">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>1.8562979903656263</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>1.8562979903656263</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>1.62924053973028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>180</v>
       </c>
@@ -10322,8 +15862,20 @@
       <c r="D70" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>1.824549292051046</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>181</v>
       </c>
@@ -10336,8 +15888,20 @@
       <c r="D71" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>1.7227665977411035</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>1.7227665977411035</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>182</v>
       </c>
@@ -10350,8 +15914,20 @@
       <c r="D72" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>1.6863989535702288</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>1.6863989535702288</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="4" t="s">
         <v>183</v>
       </c>
@@ -10364,8 +15940,20 @@
       <c r="D73" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>1.7404661748405046</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>1.7404661748405046</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -10378,8 +15966,20 @@
       <c r="D74" s="177">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>1.5260563034950492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
@@ -10392,8 +15992,20 @@
       <c r="D75" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>18</v>
       </c>
@@ -10406,8 +16018,20 @@
       <c r="D76" s="177">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>1.6677068205580761</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>1.6677068205580761</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>1.5040773967762742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>19</v>
       </c>
@@ -10420,8 +16044,20 @@
       <c r="D77" s="177">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>1.5260563034950492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
@@ -10434,8 +16070,20 @@
       <c r="D78" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -10448,8 +16096,20 @@
       <c r="D79" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>22</v>
       </c>
@@ -10462,8 +16122,20 @@
       <c r="D80" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>23</v>
       </c>
@@ -10476,8 +16148,20 @@
       <c r="D81" s="177">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>1.5686159179138452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>24</v>
       </c>
@@ -10490,8 +16174,20 @@
       <c r="D82" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>25</v>
       </c>
@@ -10504,8 +16200,20 @@
       <c r="D83" s="177">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>1.5260563034950492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -10518,8 +16226,20 @@
       <c r="D84" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>27</v>
       </c>
@@ -10532,8 +16252,20 @@
       <c r="D85" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>28</v>
       </c>
@@ -10546,8 +16278,20 @@
       <c r="D86" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>29</v>
       </c>
@@ -10560,8 +16304,20 @@
       <c r="D87" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>30</v>
       </c>
@@ -10574,8 +16330,20 @@
       <c r="D88" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>31</v>
       </c>
@@ -10588,8 +16356,20 @@
       <c r="D89" s="177">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>1.547562508716013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>32</v>
       </c>
@@ -10602,8 +16382,20 @@
       <c r="D90" s="177">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>1.5040773967762742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>33</v>
       </c>
@@ -10616,8 +16408,20 @@
       <c r="D91" s="177">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>1.5040773967762742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>34</v>
       </c>
@@ -10630,8 +16434,20 @@
       <c r="D92" s="177">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>1.4816045409242156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>35</v>
       </c>
@@ -10644,8 +16460,20 @@
       <c r="D93" s="177">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>1.4350845252893227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>36</v>
       </c>
@@ -10658,8 +16486,20 @@
       <c r="D94" s="177">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>1.4350845252893227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>37</v>
       </c>
@@ -10672,8 +16512,20 @@
       <c r="D95" s="177">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="4" t="s">
         <v>38</v>
       </c>
@@ -10686,8 +16538,20 @@
       <c r="D96" s="177">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>39</v>
       </c>
@@ -10700,8 +16564,20 @@
       <c r="D97" s="177">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>40</v>
       </c>
@@ -10714,8 +16590,20 @@
       <c r="D98" s="177">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>1.3609765531356006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
@@ -10728,8 +16616,20 @@
       <c r="D99" s="177">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>1.3609765531356006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
@@ -10742,8 +16642,20 @@
       <c r="D100" s="177">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>1.3609765531356006</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>1.3609765531356006</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>1.33500106673234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
@@ -10756,8 +16668,20 @@
       <c r="D101" s="177">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>1.3083328196501789</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>44</v>
       </c>
@@ -10770,8 +16694,20 @@
       <c r="D102" s="177">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>1.2237754316221157</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>1.2237754316221157</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="6"/>
+        <v>1.3083328196501789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>45</v>
       </c>
@@ -10784,8 +16720,20 @@
       <c r="D103" s="177">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="6"/>
+        <v>1.2809338454620642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>46</v>
       </c>
@@ -10798,8 +16746,20 @@
       <c r="D104" s="177">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="6"/>
+        <v>1.1939224684724346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
@@ -10812,8 +16772,20 @@
       <c r="D105" s="177">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="6"/>
+        <v>1.1631508098056809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>48</v>
       </c>
@@ -10826,8 +16798,20 @@
       <c r="D106" s="177">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>49</v>
       </c>
@@ -10840,8 +16824,20 @@
       <c r="D107" s="177">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>50</v>
       </c>
@@ -10854,8 +16850,20 @@
       <c r="D108" s="177">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>51</v>
       </c>
@@ -10868,8 +16876,20 @@
       <c r="D109" s="177">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>52</v>
       </c>
@@ -10882,8 +16902,20 @@
       <c r="D110" s="177">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>53</v>
       </c>
@@ -10896,8 +16928,20 @@
       <c r="D111" s="177">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>1.2809338454620642</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="6"/>
+        <v>1.0647107369924282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>54</v>
       </c>
@@ -10910,8 +16954,20 @@
       <c r="D112" s="177">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="6"/>
+        <v>1.0296194171811581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>55</v>
       </c>
@@ -10924,8 +16980,20 @@
       <c r="D113" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="4" t="s">
         <v>56</v>
       </c>
@@ -10938,8 +17006,20 @@
       <c r="D114" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="4" t="s">
         <v>57</v>
       </c>
@@ -10952,8 +17032,20 @@
       <c r="D115" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="4" t="s">
         <v>58</v>
       </c>
@@ -10966,8 +17058,20 @@
       <c r="D116" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>1.1631508098056809</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>1.1631508098056809</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="6"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>59</v>
       </c>
@@ -10980,8 +17084,20 @@
       <c r="D117" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>1.1631508098056809</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>1.1631508098056809</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>60</v>
       </c>
@@ -10994,8 +17110,20 @@
       <c r="D118" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118">
+        <f t="shared" si="4"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>61</v>
       </c>
@@ -11008,8 +17136,20 @@
       <c r="D119" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119">
+        <f t="shared" si="4"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="6"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -11022,8 +17162,20 @@
       <c r="D120" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120">
+        <f t="shared" si="4"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="6"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>63</v>
       </c>
@@ -11036,8 +17188,20 @@
       <c r="D121" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121">
+        <f t="shared" si="4"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="6"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>64</v>
       </c>
@@ -11050,8 +17214,20 @@
       <c r="D122" s="177">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122">
+        <f t="shared" si="4"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="6"/>
+        <v>1.0296194171811581</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>65</v>
       </c>
@@ -11064,8 +17240,20 @@
       <c r="D123" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123">
+        <f t="shared" si="4"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="6"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>66</v>
       </c>
@@ -11078,8 +17266,20 @@
       <c r="D124" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124">
+        <f t="shared" si="4"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>1.1314021114911006</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>67</v>
       </c>
@@ -11092,8 +17292,20 @@
       <c r="D125" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125">
+        <f t="shared" si="4"/>
+        <v>1.2237754316221157</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>1.2237754316221157</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="6"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>68</v>
       </c>
@@ -11106,8 +17318,20 @@
       <c r="D126" s="177">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126">
+        <f t="shared" si="4"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="6"/>
+        <v>0.83290912293510388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>69</v>
       </c>
@@ -11120,8 +17344,20 @@
       <c r="D127" s="177">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127">
+        <f t="shared" si="4"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="6"/>
+        <v>0.83290912293510388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>70</v>
       </c>
@@ -11134,8 +17370,20 @@
       <c r="D128" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>71</v>
       </c>
@@ -11148,8 +17396,20 @@
       <c r="D129" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129">
+        <f t="shared" si="4"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="6"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>72</v>
       </c>
@@ -11162,8 +17422,20 @@
       <c r="D130" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="5"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="6"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>73</v>
       </c>
@@ -11176,8 +17448,20 @@
       <c r="D131" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131">
+        <f t="shared" ref="F131:F152" si="7">LN(B131)</f>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G152" si="8">LN(C131)</f>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H152" si="9">LN(D131)</f>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>74</v>
       </c>
@@ -11190,8 +17474,20 @@
       <c r="D132" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132">
+        <f t="shared" si="7"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="8"/>
+        <v>1.6486586255873816</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>75</v>
       </c>
@@ -11204,8 +17500,20 @@
       <c r="D133" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133">
+        <f t="shared" si="7"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="8"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>76</v>
       </c>
@@ -11218,8 +17526,20 @@
       <c r="D134" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="F134">
+        <f t="shared" si="7"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="8"/>
+        <v>1.62924053973028</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>77</v>
       </c>
@@ -11232,8 +17552,20 @@
       <c r="D135" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135">
+        <f t="shared" si="7"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="8"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>78</v>
       </c>
@@ -11246,8 +17578,20 @@
       <c r="D136" s="177">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="F136">
+        <f t="shared" si="7"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="8"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="9"/>
+        <v>1.0296194171811581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>79</v>
       </c>
@@ -11260,8 +17604,20 @@
       <c r="D137" s="177">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="F137">
+        <f t="shared" si="7"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="8"/>
+        <v>1.5686159179138452</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="9"/>
+        <v>1.0296194171811581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>80</v>
       </c>
@@ -11274,8 +17630,20 @@
       <c r="D138" s="177">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="F138">
+        <f t="shared" si="7"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="8"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="9"/>
+        <v>1.0296194171811581</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>81</v>
       </c>
@@ -11288,8 +17656,20 @@
       <c r="D139" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="F139">
+        <f t="shared" si="7"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="8"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>82</v>
       </c>
@@ -11302,8 +17682,20 @@
       <c r="D140" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="F140">
+        <f t="shared" si="7"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="8"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>83</v>
       </c>
@@ -11316,8 +17708,20 @@
       <c r="D141" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="F141">
+        <f t="shared" si="7"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="8"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="9"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>84</v>
       </c>
@@ -11330,8 +17734,20 @@
       <c r="D142" s="177">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="F142">
+        <f t="shared" si="7"/>
+        <v>1.410986973710262</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="8"/>
+        <v>1.410986973710262</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="9"/>
+        <v>0.87546873735389985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>85</v>
       </c>
@@ -11344,8 +17760,20 @@
       <c r="D143" s="177">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="F143">
+        <f t="shared" si="7"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="8"/>
+        <v>1.33500106673234</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="9"/>
+        <v>0.87546873735389985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>86</v>
       </c>
@@ -11358,8 +17786,20 @@
       <c r="D144" s="177">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="8"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="9"/>
+        <v>0.83290912293510388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>87</v>
       </c>
@@ -11372,8 +17812,20 @@
       <c r="D145" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145">
+        <f t="shared" si="7"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="8"/>
+        <v>1.4350845252893227</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="9"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>88</v>
       </c>
@@ -11386,8 +17838,20 @@
       <c r="D146" s="177">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="F146">
+        <f t="shared" si="7"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="8"/>
+        <v>1.4586150226995167</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="9"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>89</v>
       </c>
@@ -11400,8 +17864,20 @@
       <c r="D147" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="F147">
+        <f t="shared" si="7"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="8"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>90</v>
       </c>
@@ -11414,8 +17890,20 @@
       <c r="D148" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="F148">
+        <f t="shared" si="7"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="8"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>91</v>
       </c>
@@ -11428,8 +17916,20 @@
       <c r="D149" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="F149">
+        <f t="shared" si="7"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="8"/>
+        <v>1.589235205116581</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
@@ -11442,8 +17942,20 @@
       <c r="D150" s="177">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="F150">
+        <f t="shared" si="7"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="8"/>
+        <v>1.547562508716013</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="9"/>
+        <v>0.95551144502743635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -11456,8 +17968,20 @@
       <c r="D151" s="177">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="F151">
+        <f t="shared" si="7"/>
+        <v>1.4816045409242156</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="8"/>
+        <v>1.4816045409242156</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>94</v>
       </c>
@@ -11470,9 +17994,22 @@
       <c r="D152" s="177">
         <v>2.7</v>
       </c>
+      <c r="F152">
+        <f t="shared" si="7"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="8"/>
+        <v>1.5040773967762742</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="9"/>
+        <v>0.99325177301028345</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11642,11 +18179,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="278" t="s">
+      <c r="A30" s="288" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="279"/>
-      <c r="C30" s="280"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="290"/>
     </row>
     <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="20" t="s">
@@ -11737,24 +18274,24 @@
       <c r="A1" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="292" t="s">
+      <c r="B1" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="292" t="s">
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="290" t="s">
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="291"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="105" t="s">
@@ -12387,10 +18924,10 @@
       <c r="M13" s="113">
         <v>2.68</v>
       </c>
-      <c r="T13" s="284"/>
-      <c r="U13" s="285"/>
-      <c r="V13" s="285"/>
-      <c r="W13" s="286"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="298"/>
+      <c r="V13" s="298"/>
+      <c r="W13" s="299"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="41" t="s">
@@ -12434,16 +18971,16 @@
       <c r="M14" s="35">
         <v>2.7</v>
       </c>
-      <c r="O14" s="281" t="s">
+      <c r="O14" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="283"/>
-      <c r="T14" s="287"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="289"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="296"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="301"/>
+      <c r="V14" s="301"/>
+      <c r="W14" s="302"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="54" t="s">
@@ -12622,21 +19159,21 @@
       <c r="A19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="292" t="s">
+      <c r="B19" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="290"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="292" t="s">
+      <c r="C19" s="292"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="290"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="290" t="s">
+      <c r="F19" s="292"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="290"/>
-      <c r="J19" s="291"/>
+      <c r="I19" s="292"/>
+      <c r="J19" s="293"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1">
       <c r="A20" s="105" t="s">
@@ -12669,12 +19206,12 @@
       <c r="J20" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="281" t="s">
+      <c r="O20" s="294" t="s">
         <v>245</v>
       </c>
-      <c r="P20" s="282"/>
-      <c r="Q20" s="282"/>
-      <c r="R20" s="283"/>
+      <c r="P20" s="295"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="296"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="112" t="s">
@@ -13113,21 +19650,21 @@
       <c r="A34" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="292" t="s">
+      <c r="B34" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="290"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="292" t="s">
+      <c r="C34" s="292"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="290"/>
-      <c r="G34" s="291"/>
-      <c r="H34" s="290" t="s">
+      <c r="F34" s="292"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="290"/>
-      <c r="J34" s="291"/>
+      <c r="I34" s="292"/>
+      <c r="J34" s="293"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="151"/>
@@ -13296,6 +19833,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
@@ -13303,11 +19845,6 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="T13:W14"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13818,7 +20355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3522180D-F88B-4A26-9A14-CAA2DCEBA3C7}">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -13832,21 +20369,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B1" s="293" t="s">
+      <c r="B1" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="294"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="296" t="s">
+      <c r="C1" s="304"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="296"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="295" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="296"/>
-      <c r="J1" s="297"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
       <c r="K1" s="45"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
@@ -13859,10 +20396,10 @@
       <c r="B2" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="321" t="s">
+      <c r="C2" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="322" t="s">
+      <c r="D2" s="286" t="s">
         <v>195</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -13901,7 +20438,7 @@
       <c r="D3" s="74">
         <v>0.04</v>
       </c>
-      <c r="E3" s="319">
+      <c r="E3" s="284">
         <v>3.9</v>
       </c>
       <c r="F3" s="71">
@@ -13921,10 +20458,10 @@
         <f t="shared" ref="J3:J14" si="0">H3-I3</f>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -13942,7 +20479,7 @@
       <c r="D4" s="74">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E4" s="320">
+      <c r="E4" s="285">
         <v>4</v>
       </c>
       <c r="F4" s="69">
@@ -13962,10 +20499,10 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -13983,7 +20520,7 @@
       <c r="D5" s="74">
         <v>0</v>
       </c>
-      <c r="E5" s="320">
+      <c r="E5" s="285">
         <v>4.2</v>
       </c>
       <c r="F5" s="69">
@@ -14025,7 +20562,7 @@
       <c r="D6" s="74">
         <v>-0.04</v>
       </c>
-      <c r="E6" s="320">
+      <c r="E6" s="285">
         <v>4.4000000000000004</v>
       </c>
       <c r="F6" s="69">
@@ -14067,7 +20604,7 @@
       <c r="D7" s="74">
         <v>0</v>
       </c>
-      <c r="E7" s="320">
+      <c r="E7" s="285">
         <v>4.4000000000000004</v>
       </c>
       <c r="F7" s="69">
@@ -14109,7 +20646,7 @@
       <c r="D8" s="74">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E8" s="320">
+      <c r="E8" s="285">
         <v>4.5</v>
       </c>
       <c r="F8" s="69">
@@ -14151,7 +20688,7 @@
       <c r="D9" s="74">
         <v>0.06</v>
       </c>
-      <c r="E9" s="320">
+      <c r="E9" s="285">
         <v>4.3</v>
       </c>
       <c r="F9" s="69">
@@ -14188,7 +20725,7 @@
       <c r="D10" s="74">
         <v>-0.12</v>
       </c>
-      <c r="E10" s="320">
+      <c r="E10" s="285">
         <v>4.2</v>
       </c>
       <c r="F10" s="69">
@@ -14225,7 +20762,7 @@
       <c r="D11" s="74">
         <v>-0.1</v>
       </c>
-      <c r="E11" s="320">
+      <c r="E11" s="285">
         <v>4</v>
       </c>
       <c r="F11" s="69">
@@ -14265,7 +20802,7 @@
       <c r="D12" s="74">
         <v>-0.1</v>
       </c>
-      <c r="E12" s="320">
+      <c r="E12" s="285">
         <v>3.8</v>
       </c>
       <c r="F12" s="69">
@@ -14308,7 +20845,7 @@
       <c r="D13" s="74">
         <v>0.3</v>
       </c>
-      <c r="E13" s="320">
+      <c r="E13" s="285">
         <v>3.8</v>
       </c>
       <c r="F13" s="69">
@@ -14338,16 +20875,16 @@
       <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B14" s="317">
+      <c r="B14" s="282">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="318">
+      <c r="C14" s="283">
         <v>4.47</v>
       </c>
-      <c r="D14" s="323">
+      <c r="D14" s="287">
         <v>0.43</v>
       </c>
-      <c r="E14" s="316">
+      <c r="E14" s="281">
         <v>3.7</v>
       </c>
       <c r="F14" s="76">
@@ -14383,7 +20920,7 @@
         <v>4.1083333333333325</v>
       </c>
       <c r="C15" s="181">
-        <f t="shared" ref="C15:D15" si="2">AVERAGE(C3:C14)</f>
+        <f t="shared" ref="C15" si="2">AVERAGE(C3:C14)</f>
         <v>4.1049999999999995</v>
       </c>
       <c r="D15" s="239">
@@ -14391,7 +20928,7 @@
         <v>3.3333333333333361E-3</v>
       </c>
       <c r="E15" s="241">
-        <f t="shared" ref="D15:J15" si="3">AVERAGE(E3:E14)</f>
+        <f t="shared" ref="E15:H15" si="3">AVERAGE(E3:E14)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="F15" s="240">
@@ -14446,9 +20983,9 @@
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="313"/>
-      <c r="C22" s="314"/>
-      <c r="D22" s="315"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="280"/>
     </row>
     <row r="23" spans="2:10" ht="18" thickBot="1">
       <c r="B23" s="206"/>
@@ -14581,21 +21118,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1">
-      <c r="B1" s="293" t="s">
+      <c r="B1" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="295" t="s">
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="296"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="295" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="296"/>
-      <c r="J1" s="297"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
       <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" thickBot="1">
@@ -14663,12 +21200,12 @@
         <f t="shared" ref="J3:J14" si="2">H3-I3</f>
         <v>0.10999999999999988</v>
       </c>
-      <c r="L3" s="298" t="s">
+      <c r="L3" s="309" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -14705,10 +21242,10 @@
         <f t="shared" si="2"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15274,26 +21811,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B1" s="293" t="s">
+      <c r="B1" s="303" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="294"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="296" t="s">
+      <c r="C1" s="304"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="306" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="296"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="296" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="296"/>
-      <c r="J1" s="297"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
       <c r="K1" s="45"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="301"/>
-      <c r="S1" s="300"/>
-      <c r="T1" s="301"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="311"/>
+      <c r="T1" s="312"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
@@ -15360,12 +21897,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="305"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="315"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -15402,10 +21939,10 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4" s="306"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="307"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="317"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -15949,21 +22486,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="B1" s="308" t="s">
+      <c r="B1" s="318" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="s">
+      <c r="C1" s="319"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="321" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="311"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="311" t="s">
+      <c r="F1" s="321"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="321" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="311"/>
-      <c r="J1" s="312"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="322"/>
       <c r="K1" s="45"/>
       <c r="T1" s="176"/>
       <c r="U1" s="176"/>
@@ -16031,12 +22568,12 @@
         <f t="shared" ref="J3:J14" si="1">H3-I3</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="305"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="315"/>
       <c r="T3" s="176"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1">
@@ -16070,10 +22607,10 @@
         <f t="shared" si="1"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="L4" s="306"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="307"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="317"/>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6707F-B08D-4FDE-A2CF-E4D945E75B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102B0CA-B687-4743-9F3C-4A00DAEFC5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="262">
   <si>
     <t>idoszak</t>
   </si>
@@ -788,6 +788,45 @@
   </si>
   <si>
     <t>Modell</t>
+  </si>
+  <si>
+    <t>normalizálás</t>
+  </si>
+  <si>
+    <t>kimenet normalizálva</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>igen</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>solver:</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>epoch:</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>standardizáció</t>
+  </si>
+  <si>
+    <t>min-max normalizáció</t>
+  </si>
+  <si>
+    <t>nincs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hargita </t>
   </si>
 </sst>
 </file>
@@ -959,7 +998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,8 +1053,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1777,12 +1822,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDBDBDB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDBDBDB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDBDBDB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2041,47 +2099,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,15 +2125,6 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,64 +2170,23 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2225,18 +2196,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2256,41 +2215,140 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4687,7 +4745,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10909,8 +10967,8 @@
       <xdr:rowOff>139019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>329044</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490969</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>166996</xdr:rowOff>
     </xdr:to>
@@ -10968,8 +11026,8 @@
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>216865</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>159715</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
@@ -11029,8 +11087,8 @@
       <xdr:rowOff>154893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:to>
@@ -11090,8 +11148,8 @@
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>288057</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230907</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -11397,8 +11455,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>348276</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16549,11 +16607,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="185"/>
     </row>
     <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
@@ -16618,7 +16676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A093AE-2E50-418D-93EB-C99F35A216AE}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
@@ -16646,24 +16704,24 @@
       <c r="A1" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="115" t="s">
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="116" t="s">
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="191"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
@@ -17202,51 +17260,51 @@
       <c r="A15" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="173">
+      <c r="B15" s="145">
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="174">
+      <c r="C15" s="146">
         <f t="shared" ref="C15:M15" si="0">AVERAGE(C3:C14)</f>
         <v>4.078333333333334</v>
       </c>
-      <c r="D15" s="174">
+      <c r="D15" s="146">
         <f t="shared" si="0"/>
         <v>4.1049999999999995</v>
       </c>
-      <c r="E15" s="175">
+      <c r="E15" s="147">
         <f t="shared" si="0"/>
         <v>4.0974999999999993</v>
       </c>
-      <c r="F15" s="173">
+      <c r="F15" s="145">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="146">
         <f t="shared" si="0"/>
         <v>4.1008333333333331</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="146">
         <f t="shared" si="0"/>
         <v>4.0991666666666662</v>
       </c>
-      <c r="I15" s="175">
+      <c r="I15" s="147">
         <f t="shared" si="0"/>
         <v>4.107499999999999</v>
       </c>
-      <c r="J15" s="173">
+      <c r="J15" s="145">
         <f t="shared" si="0"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="K15" s="174">
+      <c r="K15" s="146">
         <f t="shared" si="0"/>
         <v>2.9325000000000006</v>
       </c>
-      <c r="L15" s="174">
+      <c r="L15" s="146">
         <f>AVERAGE(L3:L14)</f>
         <v>2.8841666666666672</v>
       </c>
-      <c r="M15" s="175">
+      <c r="M15" s="147">
         <f t="shared" si="0"/>
         <v>2.9041666666666663</v>
       </c>
@@ -17267,7 +17325,7 @@
         <f t="shared" si="1"/>
         <v>0.27651100038395088</v>
       </c>
-      <c r="E16" s="176">
+      <c r="E16" s="148">
         <f t="shared" si="1"/>
         <v>0.34229921121732082</v>
       </c>
@@ -17283,7 +17341,7 @@
         <f t="shared" si="1"/>
         <v>0.21472689372523626</v>
       </c>
-      <c r="I16" s="176">
+      <c r="I16" s="148">
         <f t="shared" si="1"/>
         <v>0.25380849079571771</v>
       </c>
@@ -17299,82 +17357,82 @@
         <f>_xlfn.STDEV.P(L3:L14)</f>
         <v>0.17158371782375567</v>
       </c>
-      <c r="M16" s="176">
+      <c r="M16" s="148">
         <f t="shared" si="1"/>
         <v>0.18661271541766802</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="198"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="154"/>
+      <c r="B19" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="115" t="s">
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="116" t="s">
+      <c r="F19" s="190"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="191"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="192"/>
-      <c r="B20" s="193" t="s">
+      <c r="A20" s="155"/>
+      <c r="B20" s="156" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="195" t="s">
+      <c r="D20" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="194" t="s">
+      <c r="E20" s="157" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="194" t="s">
+      <c r="F20" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="195" t="s">
+      <c r="G20" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="194" t="s">
+      <c r="H20" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="I20" s="194" t="s">
+      <c r="I20" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="195" t="s">
+      <c r="J20" s="158" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="150" t="s">
         <v>204</v>
       </c>
       <c r="B21" s="72">
         <v>-0.05</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="71">
         <v>0.04</v>
       </c>
       <c r="D21" s="73">
@@ -17383,16 +17441,16 @@
       <c r="E21" s="72">
         <v>0.09</v>
       </c>
-      <c r="F21" s="181">
+      <c r="F21" s="71">
         <v>0.02</v>
       </c>
       <c r="G21" s="73">
         <v>0.1</v>
       </c>
-      <c r="H21" s="181">
+      <c r="H21" s="71">
         <v>0.1</v>
       </c>
-      <c r="I21" s="181">
+      <c r="I21" s="71">
         <v>0.09</v>
       </c>
       <c r="J21" s="73">
@@ -17400,13 +17458,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="130" t="s">
         <v>205</v>
       </c>
       <c r="B22" s="36">
         <v>-0.34</v>
       </c>
-      <c r="C22" s="125">
+      <c r="C22">
         <v>-0.28999999999999998</v>
       </c>
       <c r="D22" s="30">
@@ -17415,16 +17473,16 @@
       <c r="E22" s="36">
         <v>0.17</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22">
         <v>0.02</v>
       </c>
       <c r="G22" s="30">
         <v>0.09</v>
       </c>
-      <c r="H22" s="125">
+      <c r="H22">
         <v>0.08</v>
       </c>
-      <c r="I22" s="125">
+      <c r="I22">
         <v>0.11</v>
       </c>
       <c r="J22" s="30">
@@ -17432,13 +17490,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="151" t="s">
         <v>206</v>
       </c>
       <c r="B23" s="72">
         <v>0.01</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="71">
         <v>0</v>
       </c>
       <c r="D23" s="73">
@@ -17447,16 +17505,16 @@
       <c r="E23" s="72">
         <v>0.23</v>
       </c>
-      <c r="F23" s="181">
+      <c r="F23" s="71">
         <v>0.11</v>
       </c>
       <c r="G23" s="73">
         <v>0.22</v>
       </c>
-      <c r="H23" s="181">
+      <c r="H23" s="71">
         <v>0.18</v>
       </c>
-      <c r="I23" s="181">
+      <c r="I23" s="71">
         <v>0.2</v>
       </c>
       <c r="J23" s="73">
@@ -17464,13 +17522,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="130" t="s">
         <v>207</v>
       </c>
       <c r="B24" s="36">
         <v>0.04</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24">
         <v>-0.04</v>
       </c>
       <c r="D24" s="30">
@@ -17479,16 +17537,16 @@
       <c r="E24" s="36">
         <v>0.13</v>
       </c>
-      <c r="F24" s="125">
+      <c r="F24">
         <v>0.16</v>
       </c>
       <c r="G24" s="30">
         <v>0.18</v>
       </c>
-      <c r="H24" s="125">
+      <c r="H24">
         <v>0.05</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24">
         <v>0.12</v>
       </c>
       <c r="J24" s="30">
@@ -17496,13 +17554,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="151" t="s">
         <v>208</v>
       </c>
       <c r="B25" s="72">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C25" s="181">
+      <c r="C25" s="71">
         <v>0</v>
       </c>
       <c r="D25" s="73">
@@ -17511,16 +17569,16 @@
       <c r="E25" s="72">
         <v>-0.1</v>
       </c>
-      <c r="F25" s="181">
+      <c r="F25" s="71">
         <v>0.01</v>
       </c>
       <c r="G25" s="73">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H25" s="181">
+      <c r="H25" s="71">
         <v>-0.03</v>
       </c>
-      <c r="I25" s="181">
+      <c r="I25" s="71">
         <v>0.03</v>
       </c>
       <c r="J25" s="73">
@@ -17528,13 +17586,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="130" t="s">
         <v>209</v>
       </c>
       <c r="B26" s="36">
         <v>-0.31</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26">
         <v>-0.14000000000000001</v>
       </c>
       <c r="D26" s="30">
@@ -17543,16 +17601,16 @@
       <c r="E26" s="36">
         <v>0.11</v>
       </c>
-      <c r="F26" s="125">
+      <c r="F26">
         <v>0.14000000000000001</v>
       </c>
       <c r="G26" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H26" s="125">
+      <c r="H26">
         <v>-0.1</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26">
         <v>-0.01</v>
       </c>
       <c r="J26" s="30">
@@ -17560,13 +17618,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="151" t="s">
         <v>210</v>
       </c>
       <c r="B27" s="72">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="71">
         <v>0.06</v>
       </c>
       <c r="D27" s="73">
@@ -17575,16 +17633,16 @@
       <c r="E27" s="72">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F27" s="181">
+      <c r="F27" s="71">
         <v>-0.08</v>
       </c>
       <c r="G27" s="73">
         <v>-0.22</v>
       </c>
-      <c r="H27" s="181">
+      <c r="H27" s="71">
         <v>0.03</v>
       </c>
-      <c r="I27" s="181">
+      <c r="I27" s="71">
         <v>0.13</v>
       </c>
       <c r="J27" s="73">
@@ -17592,13 +17650,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="130" t="s">
         <v>211</v>
       </c>
       <c r="B28" s="36">
         <v>-0.06</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28">
         <v>-0.12</v>
       </c>
       <c r="D28" s="30">
@@ -17607,16 +17665,16 @@
       <c r="E28" s="36">
         <v>-0.02</v>
       </c>
-      <c r="F28" s="125">
+      <c r="F28">
         <v>-0.03</v>
       </c>
       <c r="G28" s="30">
         <v>-0.06</v>
       </c>
-      <c r="H28" s="125">
+      <c r="H28">
         <v>-0.1</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28">
         <v>0.04</v>
       </c>
       <c r="J28" s="30">
@@ -17624,13 +17682,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="151" t="s">
         <v>212</v>
       </c>
       <c r="B29" s="72">
         <v>0.08</v>
       </c>
-      <c r="C29" s="181">
+      <c r="C29" s="71">
         <v>-0.1</v>
       </c>
       <c r="D29" s="73">
@@ -17639,16 +17697,16 @@
       <c r="E29" s="72">
         <v>-0.18</v>
       </c>
-      <c r="F29" s="181">
+      <c r="F29" s="71">
         <v>-0.1</v>
       </c>
       <c r="G29" s="73">
         <v>-0.09</v>
       </c>
-      <c r="H29" s="181">
+      <c r="H29" s="71">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="I29" s="181">
+      <c r="I29" s="71">
         <v>-0.19</v>
       </c>
       <c r="J29" s="73">
@@ -17656,13 +17714,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="130" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30">
         <v>-0.1</v>
       </c>
       <c r="D30" s="30">
@@ -17671,16 +17729,16 @@
       <c r="E30" s="36">
         <v>-0.21</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F30">
         <v>-0.19</v>
       </c>
       <c r="G30" s="30">
         <v>-0.16</v>
       </c>
-      <c r="H30" s="125">
+      <c r="H30">
         <v>0.08</v>
       </c>
-      <c r="I30" s="125">
+      <c r="I30">
         <v>0.04</v>
       </c>
       <c r="J30" s="30">
@@ -17688,13 +17746,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="151" t="s">
         <v>214</v>
       </c>
       <c r="B31" s="72">
         <v>0.41</v>
       </c>
-      <c r="C31" s="181">
+      <c r="C31" s="71">
         <v>0.3</v>
       </c>
       <c r="D31" s="73">
@@ -17703,16 +17761,16 @@
       <c r="E31" s="72">
         <v>0.01</v>
       </c>
-      <c r="F31" s="181">
+      <c r="F31" s="71">
         <v>0.04</v>
       </c>
       <c r="G31" s="73">
         <v>-0.02</v>
       </c>
-      <c r="H31" s="181">
+      <c r="H31" s="71">
         <v>0</v>
       </c>
-      <c r="I31" s="181">
+      <c r="I31" s="71">
         <v>0.01</v>
       </c>
       <c r="J31" s="73">
@@ -17720,7 +17778,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="131" t="s">
         <v>215</v>
       </c>
       <c r="B32" s="33">
@@ -17752,95 +17810,95 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="152" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="188">
+      <c r="B33" s="145">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="C33" s="189">
+      <c r="C33" s="146">
         <v>3.3333333333333361E-3</v>
       </c>
-      <c r="D33" s="190">
+      <c r="D33" s="147">
         <v>1.0833333333333348E-2</v>
       </c>
-      <c r="E33" s="188">
+      <c r="E33" s="145">
         <v>-8.3333333333333523E-4</v>
       </c>
-      <c r="F33" s="189">
+      <c r="F33" s="146">
         <v>8.3333333333333176E-4</v>
       </c>
-      <c r="G33" s="190">
+      <c r="G33" s="147">
         <v>-7.4999999999999919E-3</v>
       </c>
-      <c r="H33" s="183">
+      <c r="H33" s="112">
         <v>8.3333333333333523E-4</v>
       </c>
-      <c r="I33" s="183">
+      <c r="I33" s="112">
         <v>4.9166666666666671E-2</v>
       </c>
-      <c r="J33" s="184">
+      <c r="J33" s="153">
         <v>2.9166666666666678E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="178">
+      <c r="B34" s="36">
         <v>0.03</v>
       </c>
-      <c r="C34" s="162">
+      <c r="C34">
         <v>0.02</v>
       </c>
-      <c r="D34" s="185">
+      <c r="D34" s="30">
         <v>0.01</v>
       </c>
-      <c r="E34" s="178">
+      <c r="E34" s="36">
         <v>0.39</v>
       </c>
-      <c r="F34" s="162">
+      <c r="F34">
         <v>0.7</v>
       </c>
-      <c r="G34" s="185">
+      <c r="G34" s="30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H34" s="162">
+      <c r="H34">
         <v>0.67</v>
       </c>
-      <c r="I34" s="162">
+      <c r="I34">
         <v>0.7</v>
       </c>
-      <c r="J34" s="185">
+      <c r="J34" s="30">
         <v>0.89</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="186">
+      <c r="B35" s="96">
         <v>0.77</v>
       </c>
-      <c r="C35" s="187">
+      <c r="C35" s="97">
         <v>0.54</v>
       </c>
-      <c r="D35" s="206">
+      <c r="D35" s="165">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E35" s="186">
+      <c r="E35" s="96">
         <v>0.83</v>
       </c>
-      <c r="F35" s="187">
+      <c r="F35" s="97">
         <v>0.99</v>
       </c>
       <c r="G35" s="31">
         <v>0.67</v>
       </c>
-      <c r="H35" s="187">
+      <c r="H35" s="97">
         <v>0.85</v>
       </c>
-      <c r="I35" s="187">
+      <c r="I35" s="97">
         <v>0.7</v>
       </c>
       <c r="J35" s="31">
@@ -17852,13 +17910,13 @@
       <c r="C37" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="195" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-    </row>
-    <row r="38" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>234</v>
       </c>
@@ -17879,20 +17937,20 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="150" t="s">
+      <c r="B39" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="151"/>
-      <c r="D39" s="152">
+      <c r="C39" s="135"/>
+      <c r="D39" s="136">
         <v>1.01E-2</v>
       </c>
-      <c r="E39" s="152">
+      <c r="E39" s="136">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F39" s="153">
+      <c r="F39" s="137">
         <v>2.01E-2</v>
       </c>
       <c r="G39" t="s">
@@ -17900,7 +17958,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="156"/>
+      <c r="A40" s="193"/>
       <c r="B40" s="11" t="s">
         <v>203</v>
       </c>
@@ -17911,12 +17969,12 @@
       <c r="E40" s="101">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="F40" s="205">
+      <c r="F40" s="164">
         <v>2.86E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
+      <c r="A41" s="194"/>
       <c r="B41" s="14" t="s">
         <v>236</v>
       </c>
@@ -17932,20 +17990,20 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152">
+      <c r="C42" s="135"/>
+      <c r="D42" s="136">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="136">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="137">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="G42" t="s">
@@ -17953,7 +18011,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="156"/>
+      <c r="A43" s="193"/>
       <c r="B43" s="99" t="s">
         <v>203</v>
       </c>
@@ -17969,8 +18027,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="157"/>
-      <c r="B44" s="149" t="s">
+      <c r="A44" s="194"/>
+      <c r="B44" s="133" t="s">
         <v>236</v>
       </c>
       <c r="C44" s="79"/>
@@ -17985,20 +18043,20 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152">
+      <c r="C45" s="135"/>
+      <c r="D45" s="136">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="136">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="137">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="G45" t="s">
@@ -18006,8 +18064,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="156"/>
-      <c r="B46" s="148" t="s">
+      <c r="A46" s="193"/>
+      <c r="B46" s="132" t="s">
         <v>237</v>
       </c>
       <c r="C46" s="78"/>
@@ -18022,7 +18080,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="157"/>
+      <c r="A47" s="194"/>
       <c r="B47" s="100" t="s">
         <v>203</v>
       </c>
@@ -18101,32 +18159,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="203" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121" t="s">
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="G1" s="200"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="111" t="s">
         <v>196</v>
       </c>
@@ -18159,10 +18217,10 @@
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146">
+      <c r="A3" s="130">
         <v>1</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="49">
@@ -18197,10 +18255,10 @@
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146">
+      <c r="A4" s="130">
         <v>2</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="139" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="49">
@@ -18235,10 +18293,10 @@
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146">
+      <c r="A5" s="130">
         <v>3</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="139" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="49">
@@ -18273,10 +18331,10 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146">
+      <c r="A6" s="130">
         <v>4</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="139" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="49">
@@ -18311,10 +18369,10 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146">
+      <c r="A7" s="130">
         <v>5</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="139" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="49">
@@ -18349,10 +18407,10 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146">
+      <c r="A8" s="130">
         <v>6</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="139" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="49">
@@ -18387,10 +18445,10 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146">
+      <c r="A9" s="130">
         <v>7</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="49">
@@ -18425,10 +18483,10 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="146">
+      <c r="A10" s="130">
         <v>8</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="139" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="49">
@@ -18460,10 +18518,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="146">
+      <c r="A11" s="130">
         <v>9</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="139" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="49">
@@ -18498,10 +18556,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146">
+      <c r="A12" s="130">
         <v>10</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="139" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="49">
@@ -18539,10 +18597,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147">
+      <c r="A13" s="131">
         <v>11</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="139" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="49">
@@ -18575,7 +18633,7 @@
       <c r="M13" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="164">
+      <c r="N13" s="140">
         <v>0.03</v>
       </c>
     </row>
@@ -18616,7 +18674,7 @@
       <c r="M14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="130">
         <v>0.92</v>
       </c>
     </row>
@@ -18624,148 +18682,124 @@
       <c r="B15" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="112">
         <f>AVERAGE(C3:C14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="112">
         <f t="shared" ref="D15" si="0">AVERAGE(D3:D14)</f>
         <v>4.078333333333334</v>
       </c>
-      <c r="E15" s="165">
+      <c r="E15" s="141">
         <f>AVERAGE(E3:E14)</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="112">
         <f t="shared" ref="F15:I15" si="1">AVERAGE(F3:F14)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="112">
         <f t="shared" si="1"/>
         <v>4.1008333333333331</v>
       </c>
-      <c r="H15" s="165">
+      <c r="H15" s="141">
         <f>AVERAGE(H3:H14)</f>
         <v>-8.3333333333333523E-4</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="112">
         <f t="shared" si="1"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="112">
         <f>AVERAGE(J3:J14)</f>
         <v>2.9325000000000006</v>
       </c>
-      <c r="K15" s="165">
+      <c r="K15" s="141">
         <f>AVERAGE(K3:K14)</f>
         <v>8.3333333333333523E-4</v>
       </c>
       <c r="M15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="147">
+      <c r="N15" s="131">
         <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="112">
         <f>_xlfn.STDEV.P(C3:C14)</f>
         <v>0.3426814199158682</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="112">
         <f t="shared" ref="D16:K16" si="2">_xlfn.STDEV.P(D3:D14)</f>
         <v>0.30808097781084909</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="112">
         <f>_xlfn.STDEV.P(E3:E14)</f>
         <v>0.26611401065458146</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="112">
         <f t="shared" si="2"/>
         <v>0.25819888974716121</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="112">
         <f t="shared" si="2"/>
         <v>0.25454070837927323</v>
       </c>
-      <c r="H16" s="124">
+      <c r="H16" s="112">
         <f t="shared" si="2"/>
         <v>0.14008677866078423</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="112">
         <f t="shared" si="2"/>
         <v>0.19720265943665388</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="112">
         <f t="shared" si="2"/>
         <v>0.21000496025887894</v>
       </c>
-      <c r="K16" s="124">
+      <c r="K16" s="112">
         <f t="shared" si="2"/>
         <v>0.11470675171448666</v>
       </c>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="125"/>
-      <c r="E17" s="167">
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="142">
         <v>0.77</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="167">
+      <c r="H17" s="142">
         <v>0.83</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="167">
+      <c r="K17" s="142">
         <v>0.85</v>
       </c>
-      <c r="L17" s="125"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="125"/>
-      <c r="E18" s="168" t="s">
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="168" t="s">
+      <c r="F18" s="144"/>
+      <c r="H18" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="168" t="s">
+      <c r="K18" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="125"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="170" t="s">
+      <c r="D55" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="172"/>
-      <c r="F55" s="170" t="s">
+      <c r="E55" s="209"/>
+      <c r="F55" s="195" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="91" t="s">
@@ -18774,7 +18808,7 @@
       <c r="C56" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="139" t="s">
+      <c r="D56" s="123" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="98" t="s">
@@ -18791,449 +18825,449 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="D57" s="141">
+      <c r="D57" s="125">
         <v>103.58</v>
       </c>
-      <c r="E57" s="142">
+      <c r="E57" s="126">
         <v>118.64</v>
       </c>
-      <c r="F57" s="143">
+      <c r="F57" s="127">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="G57" s="143">
+      <c r="G57" s="127">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="H57" s="144">
+      <c r="H57" s="128">
         <v>3.04E-2</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="137"/>
-      <c r="C58" s="132" t="s">
+      <c r="B58" s="207"/>
+      <c r="C58" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="134">
+      <c r="D58" s="121">
         <v>106.3</v>
       </c>
-      <c r="E58" s="134">
+      <c r="E58" s="121">
         <v>118.34</v>
       </c>
-      <c r="F58" s="128">
+      <c r="F58" s="115">
         <v>1.66E-2</v>
       </c>
-      <c r="G58" s="128">
+      <c r="G58" s="115">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="H58" s="129">
+      <c r="H58" s="116">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="137"/>
-      <c r="C59" s="132" t="s">
+      <c r="B59" s="207"/>
+      <c r="C59" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="134">
+      <c r="D59" s="121">
         <v>107.52</v>
       </c>
-      <c r="E59" s="134">
+      <c r="E59" s="121">
         <v>113.54</v>
       </c>
-      <c r="F59" s="128">
+      <c r="F59" s="115">
         <v>1.6E-2</v>
       </c>
-      <c r="G59" s="128">
+      <c r="G59" s="115">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="H59" s="129">
+      <c r="H59" s="116">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="137"/>
-      <c r="C60" s="132" t="s">
+      <c r="B60" s="207"/>
+      <c r="C60" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="134">
+      <c r="D60" s="121">
         <v>109.28</v>
       </c>
-      <c r="E60" s="134">
+      <c r="E60" s="121">
         <v>118.31</v>
       </c>
-      <c r="F60" s="128">
+      <c r="F60" s="115">
         <v>1.66E-2</v>
       </c>
-      <c r="G60" s="128">
+      <c r="G60" s="115">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="H60" s="129">
+      <c r="H60" s="116">
         <v>2.81E-2</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="137"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="207"/>
+      <c r="C61" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="134">
+      <c r="D61" s="121">
         <v>109.41</v>
       </c>
-      <c r="E61" s="134">
+      <c r="E61" s="121">
         <v>118.44</v>
       </c>
-      <c r="F61" s="128">
+      <c r="F61" s="115">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="G61" s="128">
+      <c r="G61" s="115">
         <v>3.1E-2</v>
       </c>
-      <c r="H61" s="129">
+      <c r="H61" s="116">
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="137"/>
-      <c r="C62" s="132" t="s">
+      <c r="B62" s="207"/>
+      <c r="C62" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="D62" s="134">
+      <c r="D62" s="121">
         <v>114.95</v>
       </c>
-      <c r="E62" s="134">
+      <c r="E62" s="121">
         <v>127</v>
       </c>
-      <c r="F62" s="128">
+      <c r="F62" s="115">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="G62" s="128">
+      <c r="G62" s="115">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="H62" s="129">
+      <c r="H62" s="116">
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="138"/>
-      <c r="C63" s="133" t="s">
+      <c r="B63" s="208"/>
+      <c r="C63" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="135">
+      <c r="D63" s="122">
         <v>129.30000000000001</v>
       </c>
-      <c r="E63" s="135">
+      <c r="E63" s="122">
         <v>138.35</v>
       </c>
-      <c r="F63" s="130">
+      <c r="F63" s="117">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="G63" s="130">
+      <c r="G63" s="117">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H63" s="131">
+      <c r="H63" s="118">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="136" t="s">
+      <c r="B64" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="140" t="s">
+      <c r="C64" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="141">
+      <c r="D64" s="125">
         <v>92.59</v>
       </c>
-      <c r="E64" s="142">
+      <c r="E64" s="126">
         <v>107.64</v>
       </c>
-      <c r="F64" s="143">
+      <c r="F64" s="127">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="G64" s="145" t="s">
+      <c r="G64" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="H64" s="144">
+      <c r="H64" s="128">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="137"/>
-      <c r="C65" s="132" t="s">
+      <c r="B65" s="207"/>
+      <c r="C65" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="134">
+      <c r="D65" s="121">
         <v>114.77</v>
       </c>
-      <c r="E65" s="134">
+      <c r="E65" s="121">
         <v>120.79</v>
       </c>
-      <c r="F65" s="128">
+      <c r="F65" s="115">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="G65" s="127">
+      <c r="G65" s="114">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="H65" s="129">
+      <c r="H65" s="116">
         <v>3.8300000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="137"/>
-      <c r="C66" s="132" t="s">
+      <c r="B66" s="207"/>
+      <c r="C66" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="D66" s="134">
+      <c r="D66" s="121">
         <v>114.81</v>
       </c>
-      <c r="E66" s="134">
+      <c r="E66" s="121">
         <v>123.85</v>
       </c>
-      <c r="F66" s="128">
+      <c r="F66" s="115">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="G66" s="127">
+      <c r="G66" s="114">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="H66" s="129">
+      <c r="H66" s="116">
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="137"/>
-      <c r="C67" s="132" t="s">
+      <c r="B67" s="207"/>
+      <c r="C67" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="134">
+      <c r="D67" s="121">
         <v>114.93</v>
       </c>
-      <c r="E67" s="134">
+      <c r="E67" s="121">
         <v>126.97</v>
       </c>
-      <c r="F67" s="128">
+      <c r="F67" s="115">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G67" s="127">
+      <c r="G67" s="114">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="H67" s="129">
+      <c r="H67" s="116">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="137"/>
-      <c r="C68" s="132" t="s">
+      <c r="B68" s="207"/>
+      <c r="C68" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="134">
+      <c r="D68" s="121">
         <v>116.18</v>
       </c>
-      <c r="E68" s="134">
+      <c r="E68" s="121">
         <v>125.21</v>
       </c>
-      <c r="F68" s="128">
+      <c r="F68" s="115">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="G68" s="127">
+      <c r="G68" s="114">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H68" s="129">
+      <c r="H68" s="116">
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="137"/>
-      <c r="C69" s="132" t="s">
+      <c r="B69" s="207"/>
+      <c r="C69" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="D69" s="134">
+      <c r="D69" s="121">
         <v>123.56</v>
       </c>
-      <c r="E69" s="134">
+      <c r="E69" s="121">
         <v>132.61000000000001</v>
       </c>
-      <c r="F69" s="128">
+      <c r="F69" s="115">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="G69" s="128">
+      <c r="G69" s="115">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="H69" s="129">
+      <c r="H69" s="116">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="138"/>
-      <c r="C70" s="133" t="s">
+      <c r="B70" s="208"/>
+      <c r="C70" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="135">
+      <c r="D70" s="122">
         <v>123.7</v>
       </c>
-      <c r="E70" s="135">
+      <c r="E70" s="122">
         <v>135.77000000000001</v>
       </c>
-      <c r="F70" s="130">
+      <c r="F70" s="117">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="G70" s="130">
+      <c r="G70" s="117">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="H70" s="131">
+      <c r="H70" s="118">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="136" t="s">
+      <c r="B71" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="140" t="s">
+      <c r="C71" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="141">
+      <c r="D71" s="125">
         <v>-4.47</v>
       </c>
-      <c r="E71" s="142">
+      <c r="E71" s="126">
         <v>1.55</v>
       </c>
-      <c r="F71" s="143">
+      <c r="F71" s="127">
         <v>1.26E-2</v>
       </c>
-      <c r="G71" s="143">
+      <c r="G71" s="127">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H71" s="144">
+      <c r="H71" s="128">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="137"/>
-      <c r="C72" s="132" t="s">
+      <c r="B72" s="207"/>
+      <c r="C72" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="D72" s="134">
+      <c r="D72" s="121">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="E72" s="134">
+      <c r="E72" s="121">
         <v>6.56</v>
       </c>
-      <c r="F72" s="128">
+      <c r="F72" s="115">
         <v>1.26E-2</v>
       </c>
-      <c r="G72" s="128">
+      <c r="G72" s="115">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H72" s="129">
+      <c r="H72" s="116">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="137"/>
-      <c r="C73" s="132" t="s">
+      <c r="B73" s="207"/>
+      <c r="C73" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="134">
+      <c r="D73" s="121">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="E73" s="134">
+      <c r="E73" s="121">
         <v>6.56</v>
       </c>
-      <c r="F73" s="128">
+      <c r="F73" s="115">
         <v>1.26E-2</v>
       </c>
-      <c r="G73" s="128">
+      <c r="G73" s="115">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H73" s="129">
+      <c r="H73" s="116">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="137"/>
-      <c r="C74" s="132" t="s">
+      <c r="B74" s="207"/>
+      <c r="C74" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="134">
+      <c r="D74" s="121">
         <v>-0.49</v>
       </c>
-      <c r="E74" s="134">
+      <c r="E74" s="121">
         <v>11.56</v>
       </c>
-      <c r="F74" s="128">
+      <c r="F74" s="115">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="G74" s="128">
+      <c r="G74" s="115">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="H74" s="129">
+      <c r="H74" s="116">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="137"/>
-      <c r="C75" s="132" t="s">
+      <c r="B75" s="207"/>
+      <c r="C75" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="D75" s="134">
+      <c r="D75" s="121">
         <v>1.35</v>
       </c>
-      <c r="E75" s="134">
+      <c r="E75" s="121">
         <v>16.399999999999999</v>
       </c>
-      <c r="F75" s="128">
+      <c r="F75" s="115">
         <v>1.26E-2</v>
       </c>
-      <c r="G75" s="128">
+      <c r="G75" s="115">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H75" s="129">
+      <c r="H75" s="116">
         <v>2.86E-2</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="137"/>
-      <c r="C76" s="132" t="s">
+      <c r="B76" s="207"/>
+      <c r="C76" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="134">
+      <c r="D76" s="121">
         <v>3.54</v>
       </c>
-      <c r="E76" s="134">
+      <c r="E76" s="121">
         <v>15.61</v>
       </c>
-      <c r="F76" s="128">
+      <c r="F76" s="115">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="G76" s="128">
+      <c r="G76" s="115">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H76" s="129">
+      <c r="H76" s="116">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="138"/>
-      <c r="C77" s="133" t="s">
+      <c r="B77" s="208"/>
+      <c r="C77" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="D77" s="135">
+      <c r="D77" s="122">
         <v>11.39</v>
       </c>
-      <c r="E77" s="135">
+      <c r="E77" s="122">
         <v>20.440000000000001</v>
       </c>
-      <c r="F77" s="130">
+      <c r="F77" s="117">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G77" s="130">
+      <c r="G77" s="117">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="H77" s="131">
+      <c r="H77" s="118">
         <v>2.93E-2</v>
       </c>
     </row>
@@ -19283,27 +19317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="203" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121" t="s">
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="G1" s="200"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
       <c r="L1" s="34"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
@@ -19313,12 +19347,12 @@
       <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="42" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="108" t="s">
@@ -19356,7 +19390,7 @@
       <c r="X2" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146">
+      <c r="A3" s="130">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -19403,7 +19437,7 @@
       <c r="X3" s="29"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146">
+      <c r="A4" s="130">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -19450,7 +19484,7 @@
       <c r="X4" s="29"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146">
+      <c r="A5" s="130">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -19497,7 +19531,7 @@
       <c r="X5" s="29"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146">
+      <c r="A6" s="130">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -19544,7 +19578,7 @@
       <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146">
+      <c r="A7" s="130">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -19591,7 +19625,7 @@
       <c r="X7" s="29"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146">
+      <c r="A8" s="130">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -19638,7 +19672,7 @@
       <c r="X8" s="29"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146">
+      <c r="A9" s="130">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -19685,7 +19719,7 @@
       <c r="X9" s="29"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="146">
+      <c r="A10" s="130">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -19726,7 +19760,7 @@
       <c r="X10" s="29"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="146">
+      <c r="A11" s="130">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -19770,7 +19804,7 @@
       <c r="X11" s="29"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146">
+      <c r="A12" s="130">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -19817,7 +19851,7 @@
       <c r="X12" s="29"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146">
+      <c r="A13" s="130">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -19860,7 +19894,7 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147">
+      <c r="A14" s="131">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -19901,42 +19935,42 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125" t="s">
+      <c r="B15" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="112">
         <f>AVERAGE(C3:C14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="112">
         <f t="shared" ref="D15" si="0">AVERAGE(D3:D14)</f>
         <v>4.1049999999999995</v>
       </c>
-      <c r="E15" s="165">
+      <c r="E15" s="141">
         <f>AVERAGE(E3:E14)</f>
         <v>3.3333333333333361E-3</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="112">
         <f t="shared" ref="F15:I15" si="1">AVERAGE(F3:F14)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="112">
         <f t="shared" si="1"/>
         <v>4.0991666666666662</v>
       </c>
-      <c r="H15" s="165">
+      <c r="H15" s="141">
         <f>AVERAGE(H3:H14)</f>
         <v>8.3333333333333176E-4</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="112">
         <f t="shared" si="1"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="112">
         <f>AVERAGE(J3:J14)</f>
         <v>2.8841666666666672</v>
       </c>
-      <c r="K15" s="165">
+      <c r="K15" s="141">
         <f>AVERAGE(K3:K14)</f>
         <v>4.9166666666666671E-2</v>
       </c>
@@ -19948,75 +19982,66 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="112">
         <f>_xlfn.STDEV.P(C3:C14)</f>
         <v>0.3426814199158682</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="112">
         <f t="shared" ref="D16:K16" si="2">_xlfn.STDEV.P(D3:D14)</f>
         <v>0.27651100038395088</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="112">
         <f>_xlfn.STDEV.P(E3:E14)</f>
         <v>0.18700861536897764</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="112">
         <f t="shared" si="2"/>
         <v>0.25819888974716121</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="112">
         <f t="shared" si="2"/>
         <v>0.21472689372523626</v>
       </c>
-      <c r="H16" s="124">
+      <c r="H16" s="112">
         <f t="shared" si="2"/>
         <v>0.10053675392058811</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="112">
         <f t="shared" si="2"/>
         <v>0.19720265943665388</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="112">
         <f t="shared" si="2"/>
         <v>0.17158371782375567</v>
       </c>
-      <c r="K16" s="124">
+      <c r="K16" s="112">
         <f t="shared" si="2"/>
         <v>9.2777361941849198E-2</v>
       </c>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="167">
+      <c r="E17" s="142">
         <v>0.54</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="167">
+      <c r="H17" s="142">
         <v>0.99</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="167">
+      <c r="K17" s="142">
         <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="168" t="s">
+      <c r="F18" s="144"/>
+      <c r="H18" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="168" t="s">
+      <c r="K18" s="143" t="s">
         <v>201</v>
       </c>
     </row>
@@ -20141,33 +20166,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF7217-6579-4043-9043-94ED9D7FA082}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="123" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201"/>
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20209,29 +20240,29 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="200">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="159">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="160">
         <v>4.71</v>
       </c>
       <c r="D3" s="32">
         <v>-0.11</v>
       </c>
-      <c r="E3" s="200">
+      <c r="E3" s="159">
         <v>3.9</v>
       </c>
-      <c r="F3" s="201">
+      <c r="F3" s="160">
         <v>3.8</v>
       </c>
       <c r="G3" s="32">
         <v>0.1</v>
       </c>
-      <c r="H3" s="200">
+      <c r="H3" s="159">
         <v>2.8</v>
       </c>
-      <c r="I3" s="201">
+      <c r="I3" s="160">
         <v>2.69</v>
       </c>
       <c r="J3" s="32">
@@ -20248,28 +20279,28 @@
       <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="202">
+      <c r="B4" s="161">
         <v>4.3</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="60">
         <v>4.62</v>
       </c>
       <c r="D4" s="30">
         <v>-0.32</v>
       </c>
-      <c r="E4" s="202">
+      <c r="E4" s="161">
         <v>4</v>
       </c>
-      <c r="F4" s="199">
+      <c r="F4" s="60">
         <v>3.91</v>
       </c>
       <c r="G4" s="30">
         <v>0.09</v>
       </c>
-      <c r="H4" s="202">
+      <c r="H4" s="161">
         <v>2.9</v>
       </c>
-      <c r="I4" s="199">
+      <c r="I4" s="60">
         <v>2.76</v>
       </c>
       <c r="J4" s="30">
@@ -20288,28 +20319,28 @@
       <c r="V4" s="29"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="202">
+      <c r="B5" s="161">
         <v>4.2</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="60">
         <v>4.3099999999999996</v>
       </c>
       <c r="D5" s="30">
         <v>-0.11</v>
       </c>
-      <c r="E5" s="202">
+      <c r="E5" s="161">
         <v>4.2</v>
       </c>
-      <c r="F5" s="199">
+      <c r="F5" s="60">
         <v>3.98</v>
       </c>
       <c r="G5" s="30">
         <v>0.22</v>
       </c>
-      <c r="H5" s="202">
+      <c r="H5" s="161">
         <v>3.1</v>
       </c>
-      <c r="I5" s="199">
+      <c r="I5" s="60">
         <v>2.84</v>
       </c>
       <c r="J5" s="30">
@@ -20329,28 +20360,28 @@
       <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="202">
+      <c r="B6" s="161">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="60">
         <v>4.22</v>
       </c>
       <c r="D6" s="30">
         <v>-0.12</v>
       </c>
-      <c r="E6" s="202">
+      <c r="E6" s="161">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="60">
         <v>4.22</v>
       </c>
       <c r="G6" s="30">
         <v>0.18</v>
       </c>
-      <c r="H6" s="202">
+      <c r="H6" s="161">
         <v>3.2</v>
       </c>
-      <c r="I6" s="199">
+      <c r="I6" s="60">
         <v>3.03</v>
       </c>
       <c r="J6" s="30">
@@ -20370,28 +20401,28 @@
       <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="202">
+      <c r="B7" s="161">
         <v>4</v>
       </c>
-      <c r="C7" s="199">
+      <c r="C7" s="60">
         <v>4.1100000000000003</v>
       </c>
       <c r="D7" s="30">
         <v>-0.11</v>
       </c>
-      <c r="E7" s="202">
+      <c r="E7" s="161">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="199">
+      <c r="F7" s="60">
         <v>4.47</v>
       </c>
       <c r="G7" s="30">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="202">
+      <c r="H7" s="161">
         <v>3.2</v>
       </c>
-      <c r="I7" s="199">
+      <c r="I7" s="60">
         <v>3.17</v>
       </c>
       <c r="J7" s="30">
@@ -20411,28 +20442,28 @@
       <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="202">
+      <c r="B8" s="161">
         <v>3.8</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="60">
         <v>4</v>
       </c>
       <c r="D8" s="30">
         <v>-0.2</v>
       </c>
-      <c r="E8" s="202">
+      <c r="E8" s="161">
         <v>4.5</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="60">
         <v>4.43</v>
       </c>
       <c r="G8" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H8" s="202">
+      <c r="H8" s="161">
         <v>3.1</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="60">
         <v>3.17</v>
       </c>
       <c r="J8" s="30">
@@ -20452,28 +20483,28 @@
       <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="202">
+      <c r="B9" s="161">
         <v>3.8</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="60">
         <v>3.73</v>
       </c>
       <c r="D9" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9" s="202">
+      <c r="E9" s="161">
         <v>4.3</v>
       </c>
-      <c r="F9" s="199">
+      <c r="F9" s="60">
         <v>4.5199999999999996</v>
       </c>
       <c r="G9" s="30">
         <v>-0.22</v>
       </c>
-      <c r="H9" s="202">
+      <c r="H9" s="161">
         <v>3.1</v>
       </c>
-      <c r="I9" s="199">
+      <c r="I9" s="60">
         <v>3.05</v>
       </c>
       <c r="J9" s="30">
@@ -20492,28 +20523,28 @@
       <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="202">
+      <c r="B10" s="161">
         <v>3.8</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="60">
         <v>3.77</v>
       </c>
       <c r="D10" s="30">
         <v>0.03</v>
       </c>
-      <c r="E10" s="202">
+      <c r="E10" s="161">
         <v>4.2</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="60">
         <v>4.26</v>
       </c>
       <c r="G10" s="30">
         <v>-0.06</v>
       </c>
-      <c r="H10" s="202">
+      <c r="H10" s="161">
         <v>3</v>
       </c>
-      <c r="I10" s="199">
+      <c r="I10" s="60">
         <v>3.07</v>
       </c>
       <c r="J10" s="30">
@@ -20527,28 +20558,28 @@
       <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="202">
+      <c r="B11" s="161">
         <v>3.8</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="60">
         <v>3.76</v>
       </c>
       <c r="D11" s="30">
         <v>0.04</v>
       </c>
-      <c r="E11" s="202">
+      <c r="E11" s="161">
         <v>4</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="60">
         <v>4.09</v>
       </c>
       <c r="G11" s="30">
         <v>-0.09</v>
       </c>
-      <c r="H11" s="202">
+      <c r="H11" s="161">
         <v>2.7</v>
       </c>
-      <c r="I11" s="199">
+      <c r="I11" s="60">
         <v>2.99</v>
       </c>
       <c r="J11" s="30">
@@ -20565,28 +20596,28 @@
       <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="202">
+      <c r="B12" s="161">
         <v>3.8</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="60">
         <v>3.76</v>
       </c>
       <c r="D12" s="30">
         <v>0.04</v>
       </c>
-      <c r="E12" s="202">
+      <c r="E12" s="161">
         <v>3.8</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="60">
         <v>3.96</v>
       </c>
       <c r="G12" s="30">
         <v>-0.16</v>
       </c>
-      <c r="H12" s="202">
+      <c r="H12" s="161">
         <v>2.7</v>
       </c>
-      <c r="I12" s="199">
+      <c r="I12" s="60">
         <v>2.68</v>
       </c>
       <c r="J12" s="30">
@@ -20606,28 +20637,28 @@
       <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="202">
+      <c r="B13" s="161">
         <v>4.2</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="60">
         <v>3.76</v>
       </c>
       <c r="D13" s="30">
         <v>0.44</v>
       </c>
-      <c r="E13" s="202">
+      <c r="E13" s="161">
         <v>3.8</v>
       </c>
-      <c r="F13" s="199">
+      <c r="F13" s="60">
         <v>3.82</v>
       </c>
       <c r="G13" s="30">
         <v>-0.02</v>
       </c>
-      <c r="H13" s="202">
+      <c r="H13" s="161">
         <v>2.7</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="60">
         <v>2.69</v>
       </c>
       <c r="J13" s="30">
@@ -20647,28 +20678,28 @@
       <c r="V13" s="29"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="203">
+      <c r="B14" s="162">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="204">
+      <c r="C14" s="163">
         <v>4.42</v>
       </c>
       <c r="D14" s="31">
         <v>0.48</v>
       </c>
-      <c r="E14" s="203">
+      <c r="E14" s="162">
         <v>3.7</v>
       </c>
-      <c r="F14" s="204">
+      <c r="F14" s="163">
         <v>3.83</v>
       </c>
       <c r="G14" s="31">
         <v>-0.13</v>
       </c>
-      <c r="H14" s="203">
+      <c r="H14" s="162">
         <v>2.7</v>
       </c>
-      <c r="I14" s="204">
+      <c r="I14" s="163">
         <v>2.71</v>
       </c>
       <c r="J14" s="31">
@@ -20691,31 +20722,31 @@
         <f>AVERAGE(B3:B14)</f>
         <v>4.1083333333333325</v>
       </c>
-      <c r="C15" s="177">
+      <c r="C15" s="149">
         <f>AVERAGE(C3:C14)</f>
         <v>4.0974999999999993</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="149">
         <f t="shared" ref="D15:J15" si="0">AVERAGE(D3:D14)</f>
         <v>1.0833333333333348E-2</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="149">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="149">
         <f>AVERAGE(F3:F14)</f>
         <v>4.107499999999999</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="149">
         <f t="shared" si="0"/>
         <v>-7.4999999999999919E-3</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="149">
         <f t="shared" si="0"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="149">
         <f>AVERAGE(I3:I14)</f>
         <v>2.9041666666666663</v>
       </c>
@@ -20733,34 +20764,516 @@
       <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C16" s="125"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="125"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="125"/>
-      <c r="D17" s="168" t="s">
+      <c r="D16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="J16" s="142"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="169"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="168" t="s">
+      <c r="E17" s="144"/>
+      <c r="G17" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="168" t="s">
+      <c r="J17" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="K17" s="125"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="G59" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="172" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="166" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="167" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="180"/>
+      <c r="C63" s="181">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D63" s="181">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E63" s="182">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="F63" s="181" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="174"/>
+      <c r="C64" s="169">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D64" s="169">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="E64" s="176">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F64" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="174"/>
+      <c r="C65" s="169">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="D65" s="169">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="E65" s="176">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F65" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="174"/>
+      <c r="C66" s="169">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D66" s="169">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E66" s="176">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F66" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="174"/>
+      <c r="C67" s="169">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="D67" s="169">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="E67" s="176">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F67" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="174"/>
+      <c r="C68" s="169">
+        <v>2.6404999999999998</v>
+      </c>
+      <c r="D68" s="169">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="E68" s="176">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="F68" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="174"/>
+      <c r="C69" s="169">
+        <v>12.319800000000001</v>
+      </c>
+      <c r="D69" s="169">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="E69" s="176">
+        <v>0.7016</v>
+      </c>
+      <c r="F69" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="180"/>
+      <c r="C70" s="181">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D70" s="181">
+        <v>5.74E-2</v>
+      </c>
+      <c r="E70" s="182">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F70" s="181" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="174"/>
+      <c r="C71" s="169">
+        <v>0.1061</v>
+      </c>
+      <c r="D71" s="169">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E71" s="176">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="F71" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="174"/>
+      <c r="C72" s="169">
+        <v>0.1113</v>
+      </c>
+      <c r="D72" s="169">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="E72" s="176">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="F72" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G72" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="174"/>
+      <c r="C73" s="169">
+        <v>0.1113</v>
+      </c>
+      <c r="D73" s="169">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="E73" s="176">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="F73" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="G73" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="174"/>
+      <c r="C74" s="169">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="D74" s="169">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E74" s="176">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="F74" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="174"/>
+      <c r="C75" s="169">
+        <v>6.7382999999999997</v>
+      </c>
+      <c r="D75" s="169">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="E75" s="176">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F75" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="174"/>
+      <c r="C76" s="169">
+        <v>12.443099999999999</v>
+      </c>
+      <c r="D76" s="169">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="E76" s="176">
+        <v>0.6502</v>
+      </c>
+      <c r="F76" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="G76" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="180"/>
+      <c r="C77" s="181">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="D77" s="181">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E77" s="182">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F77" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="174"/>
+      <c r="C78" s="169">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="D78" s="169">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="E78" s="176">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F78" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="G78" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="174"/>
+      <c r="C79" s="169">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="D79" s="169">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="E79" s="176">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F79" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="174"/>
+      <c r="C80" s="169">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D80" s="169">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="E80" s="176">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="F80" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="174"/>
+      <c r="C81" s="169">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="D81" s="169">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E81" s="176">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="F81" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" s="170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="174"/>
+      <c r="C82" s="169">
+        <v>4.3925999999999998</v>
+      </c>
+      <c r="D82" s="169">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="E82" s="176">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="F82" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="175"/>
+      <c r="C83" s="171">
+        <v>10.355700000000001</v>
+      </c>
+      <c r="D83" s="171">
+        <v>1.0971</v>
+      </c>
+      <c r="E83" s="177">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F83" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="G83" s="179" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="168"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:G83">
+    <sortCondition ref="A63:A83"/>
+    <sortCondition ref="D63:D83"/>
+    <sortCondition ref="C63:C83"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9813F-053E-4A5D-A426-B3F0DEBC1440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8712629-8B93-4144-A93F-CD4B5A7C6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{D1864E4E-E639-4D70-9438-9F05DEED18C9}"/>
   </bookViews>
@@ -696,9 +696,6 @@
     <t>hónap</t>
   </si>
   <si>
-    <t>Mért</t>
-  </si>
-  <si>
     <t>átlag:</t>
   </si>
   <si>
@@ -898,6 +895,9 @@
   </si>
   <si>
     <t>'23 07</t>
+  </si>
+  <si>
+    <t>valódi adat</t>
   </si>
 </sst>
 </file>
@@ -2606,6 +2606,57 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2614,24 +2665,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,6 +2679,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2675,18 +2738,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2695,57 +2746,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4615,7 +4615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mért</c:v>
+                  <c:v>valódi adat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5119,11 +5119,12 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5185,11 +5186,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5434,7 +5436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mért</c:v>
+                  <c:v>valódi adat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5938,11 +5940,12 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -6004,11 +6007,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -6248,7 +6252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mért</c:v>
+                  <c:v>valódi adat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6751,11 +6755,12 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -6817,11 +6822,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -12481,21 +12487,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="252" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="252" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="274"/>
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13079,19 +13085,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>249</v>
-      </c>
-      <c r="D59" t="s">
-        <v>250</v>
       </c>
       <c r="E59">
         <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H59">
         <v>300</v>
@@ -13100,10 +13106,10 @@
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="149" t="s">
         <v>190</v>
@@ -13115,15 +13121,15 @@
         <v>192</v>
       </c>
       <c r="F62" s="164" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G62" s="153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A63" s="159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B63" s="154"/>
       <c r="C63" s="155">
@@ -13136,15 +13142,15 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="F63" s="152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G63" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A64" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B64" s="157"/>
       <c r="C64" s="158">
@@ -13157,15 +13163,15 @@
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="F64" s="150" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G64" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A65" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" s="157"/>
       <c r="C65" s="158">
@@ -13178,15 +13184,15 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="F65" s="150" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G65" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A66" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B66" s="157"/>
       <c r="C66" s="158">
@@ -13199,10 +13205,10 @@
         <v>4.99E-2</v>
       </c>
       <c r="F66" s="150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G66" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13220,10 +13226,10 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="F67" s="152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G67" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13241,10 +13247,10 @@
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F68" s="150" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G68" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13262,10 +13268,10 @@
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F69" s="150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13283,10 +13289,10 @@
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="F70" s="150" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G70" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13304,10 +13310,10 @@
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="F71" s="152" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G71" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13325,10 +13331,10 @@
         <v>3.4200000000000001E-2</v>
       </c>
       <c r="F72" s="150" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G72" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13346,10 +13352,10 @@
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="F73" s="150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13367,10 +13373,10 @@
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="F74" s="151" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" s="156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13476,7 +13482,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -17586,11 +17592,11 @@
     </row>
     <row r="29" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="252" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="234"/>
-      <c r="C30" s="235"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="254"/>
     </row>
     <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
@@ -17655,8 +17661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A093AE-2E50-418D-93EB-C99F35A216AE}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17683,34 +17689,34 @@
       <c r="A1" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="239" t="s">
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="240" t="s">
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="241"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>202</v>
@@ -17719,10 +17725,10 @@
         <v>203</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H2" s="67" t="s">
         <v>202</v>
@@ -17731,10 +17737,10 @@
         <v>203</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L2" s="67" t="s">
         <v>202</v>
@@ -17744,8 +17750,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
-        <v>273</v>
+      <c r="A3" s="233" t="s">
+        <v>272</v>
       </c>
       <c r="B3" s="72">
         <v>4.5999999999999996</v>
@@ -17785,8 +17791,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="264" t="s">
-        <v>274</v>
+      <c r="A4" s="234" t="s">
+        <v>273</v>
       </c>
       <c r="B4" s="36">
         <v>4.3</v>
@@ -17826,8 +17832,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="263" t="s">
-        <v>275</v>
+      <c r="A5" s="233" t="s">
+        <v>274</v>
       </c>
       <c r="B5" s="72">
         <v>4.2</v>
@@ -17867,8 +17873,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="264" t="s">
-        <v>276</v>
+      <c r="A6" s="234" t="s">
+        <v>275</v>
       </c>
       <c r="B6" s="36">
         <v>4.0999999999999996</v>
@@ -17908,8 +17914,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="263" t="s">
-        <v>277</v>
+      <c r="A7" s="233" t="s">
+        <v>276</v>
       </c>
       <c r="B7" s="72">
         <v>4</v>
@@ -17949,8 +17955,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="264" t="s">
-        <v>279</v>
+      <c r="A8" s="234" t="s">
+        <v>278</v>
       </c>
       <c r="B8" s="36">
         <v>3.8</v>
@@ -17990,8 +17996,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="263" t="s">
-        <v>278</v>
+      <c r="A9" s="233" t="s">
+        <v>277</v>
       </c>
       <c r="B9" s="72">
         <v>3.8</v>
@@ -18031,8 +18037,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="264" t="s">
-        <v>280</v>
+      <c r="A10" s="234" t="s">
+        <v>279</v>
       </c>
       <c r="B10" s="36">
         <v>3.8</v>
@@ -18072,8 +18078,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="263" t="s">
-        <v>281</v>
+      <c r="A11" s="233" t="s">
+        <v>280</v>
       </c>
       <c r="B11" s="72">
         <v>3.8</v>
@@ -18113,8 +18119,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="264" t="s">
-        <v>282</v>
+      <c r="A12" s="234" t="s">
+        <v>281</v>
       </c>
       <c r="B12" s="36">
         <v>3.8</v>
@@ -18154,8 +18160,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="263" t="s">
-        <v>283</v>
+      <c r="A13" s="233" t="s">
+        <v>282</v>
       </c>
       <c r="B13" s="72">
         <v>4.2</v>
@@ -18195,8 +18201,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="265" t="s">
-        <v>284</v>
+      <c r="A14" s="235" t="s">
+        <v>283</v>
       </c>
       <c r="B14" s="33">
         <v>4.9000000000000004</v>
@@ -18237,7 +18243,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="128">
         <f>AVERAGE(B3:B14)</f>
@@ -18290,7 +18296,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="90">
         <f>_xlfn.STDEV.P(B3:B14)</f>
@@ -18343,41 +18349,41 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="236" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="237"/>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="237"/>
-      <c r="I18" s="237"/>
-      <c r="J18" s="238"/>
+      <c r="A18" s="263" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="265"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="136"/>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="239" t="s">
+      <c r="C19" s="260"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="240"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="240" t="s">
+      <c r="F19" s="260"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="240"/>
-      <c r="J19" s="241"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="261"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="137"/>
       <c r="B20" s="138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="139" t="s">
         <v>202</v>
@@ -18386,7 +18392,7 @@
         <v>203</v>
       </c>
       <c r="E20" s="139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="139" t="s">
         <v>202</v>
@@ -18395,7 +18401,7 @@
         <v>203</v>
       </c>
       <c r="H20" s="139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I20" s="139" t="s">
         <v>202</v>
@@ -18838,7 +18844,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="83">
         <f t="shared" ref="B33:D33" si="6">AVERAGE(B21:B32)</f>
@@ -18879,7 +18885,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="36">
         <v>0.03</v>
@@ -18902,7 +18908,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="90">
         <v>0.77</v>
@@ -18928,18 +18934,18 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="245" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="246"/>
-      <c r="F37" s="246"/>
+      <c r="D37" s="258" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="259"/>
+      <c r="F37" s="259"/>
     </row>
     <row r="38" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" s="76" t="s">
         <v>190</v>
@@ -18952,159 +18958,159 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="242" t="s">
+      <c r="A39" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="278" t="s">
+      <c r="B39" s="248" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="249">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D39" s="249">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="E39" s="250">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="256"/>
+      <c r="B40" s="236" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="237">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="D40" s="237">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E40" s="238">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="257"/>
+      <c r="B41" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="279">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="D39" s="279">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="E39" s="280">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="243"/>
-      <c r="B40" s="266" t="s">
+      <c r="C41" s="240">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="D41" s="240">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="E41" s="241">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="251" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="249">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="D42" s="249">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="E42" s="250">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="256"/>
+      <c r="B43" s="242" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="267">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="D40" s="267">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="E40" s="268">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="244"/>
-      <c r="B41" s="269" t="s">
+      <c r="C43" s="243">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="D43" s="243">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E43" s="244">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="257"/>
+      <c r="B44" s="245" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="240">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="D44" s="240">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="E44" s="241">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="255" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="251" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="249">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D45" s="249">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E45" s="250">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="256"/>
+      <c r="B46" s="246" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="270">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="D41" s="270">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="E41" s="271">
-        <v>3.04E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="242" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="281" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="279">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="D42" s="279">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="E42" s="280">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="243"/>
-      <c r="B43" s="272" t="s">
+      <c r="C46" s="243">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D46" s="243">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="E46" s="244">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="257"/>
+      <c r="B47" s="247" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="273">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="D43" s="273">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="E43" s="274">
-        <v>4.0300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="244"/>
-      <c r="B44" s="275" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="270">
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="D44" s="270">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="E44" s="271">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="242" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="281" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="279">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="D45" s="279">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="E45" s="280">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="243"/>
-      <c r="B46" s="276" t="s">
-        <v>237</v>
-      </c>
-      <c r="C46" s="273">
-        <v>1.26E-2</v>
-      </c>
-      <c r="D46" s="273">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="E46" s="274">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="244"/>
-      <c r="B47" s="277" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="270">
+      <c r="C47" s="240">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="D47" s="270">
+      <c r="D47" s="240">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="E47" s="271">
+      <c r="E47" s="241">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19145,32 +19151,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="276" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="253" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="247" t="s">
+      <c r="B1" s="276" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="248"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="250" t="s">
+      <c r="D1" s="271"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="255"/>
-      <c r="B2" s="254"/>
+      <c r="A2" s="278"/>
+      <c r="B2" s="277"/>
       <c r="C2" s="101" t="s">
         <v>196</v>
       </c>
@@ -19713,7 +19719,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="102">
         <f>_xlfn.STDEV.P(C3:C14)</f>
@@ -19778,19 +19784,19 @@
     <row r="35" spans="19:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="19:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S36" s="197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T36" s="197" t="s">
+        <v>267</v>
+      </c>
+      <c r="U36" s="197" t="s">
         <v>268</v>
       </c>
-      <c r="U36" s="197" t="s">
+      <c r="V36" s="197" t="s">
         <v>269</v>
       </c>
-      <c r="V36" s="197" t="s">
-        <v>270</v>
-      </c>
       <c r="W36" s="198" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="19:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -19847,10 +19853,10 @@
     <row r="52" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q53" s="85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R53" s="211" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S53" s="211" t="s">
         <v>190</v>
@@ -19867,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="208" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S54" s="209">
         <v>1.9800000000000002E-2</v>
@@ -19880,26 +19886,26 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="245" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="259"/>
-      <c r="F55" s="245" t="s">
+      <c r="D55" s="258" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="246"/>
-      <c r="H55" s="246"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="258" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="259"/>
+      <c r="H55" s="259"/>
       <c r="Q55" s="36" t="s">
         <v>1</v>
       </c>
       <c r="R55" s="208" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S55" s="209">
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="T55" s="210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U55" s="213">
         <v>4.6899999999999997E-2</v>
@@ -19910,13 +19916,13 @@
         <v>199</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D56" s="113" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F56" s="86" t="s">
         <v>190</v>
@@ -19931,7 +19937,7 @@
         <v>3</v>
       </c>
       <c r="R56" s="214" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S56" s="215">
         <v>1.26E-2</v>
@@ -19944,11 +19950,11 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="256" t="s">
+      <c r="B57" s="266" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="115">
         <v>103.58</v>
@@ -19967,9 +19973,9 @@
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="257"/>
+      <c r="B58" s="267"/>
       <c r="C58" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D58" s="111">
         <v>106.3</v>
@@ -19988,9 +19994,9 @@
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="257"/>
+      <c r="B59" s="267"/>
       <c r="C59" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="111">
         <v>107.52</v>
@@ -20009,9 +20015,9 @@
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="257"/>
+      <c r="B60" s="267"/>
       <c r="C60" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D60" s="111">
         <v>109.28</v>
@@ -20030,9 +20036,9 @@
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="257"/>
+      <c r="B61" s="267"/>
       <c r="C61" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="111">
         <v>109.41</v>
@@ -20051,9 +20057,9 @@
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="257"/>
+      <c r="B62" s="267"/>
       <c r="C62" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D62" s="111">
         <v>114.95</v>
@@ -20072,9 +20078,9 @@
       </c>
     </row>
     <row r="63" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="258"/>
+      <c r="B63" s="268"/>
       <c r="C63" s="110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="112">
         <v>129.30000000000001</v>
@@ -20093,11 +20099,11 @@
       </c>
     </row>
     <row r="64" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="256" t="s">
+      <c r="B64" s="266" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" s="115">
         <v>92.59</v>
@@ -20109,16 +20115,16 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="G64" s="119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H64" s="118">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="257"/>
+      <c r="B65" s="267"/>
       <c r="C65" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" s="111">
         <v>114.77</v>
@@ -20137,9 +20143,9 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="257"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D66" s="111">
         <v>114.81</v>
@@ -20158,9 +20164,9 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="257"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67" s="111">
         <v>114.93</v>
@@ -20179,9 +20185,9 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="257"/>
+      <c r="B68" s="267"/>
       <c r="C68" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68" s="111">
         <v>116.18</v>
@@ -20200,9 +20206,9 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="257"/>
+      <c r="B69" s="267"/>
       <c r="C69" s="109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D69" s="111">
         <v>123.56</v>
@@ -20221,9 +20227,9 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="258"/>
+      <c r="B70" s="268"/>
       <c r="C70" s="110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" s="112">
         <v>123.7</v>
@@ -20242,11 +20248,11 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="256" t="s">
+      <c r="B71" s="266" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D71" s="115">
         <v>-4.47</v>
@@ -20265,9 +20271,9 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="257"/>
+      <c r="B72" s="267"/>
       <c r="C72" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D72" s="111">
         <v>-2.4700000000000002</v>
@@ -20286,9 +20292,9 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="257"/>
+      <c r="B73" s="267"/>
       <c r="C73" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73" s="111">
         <v>-2.4700000000000002</v>
@@ -20307,9 +20313,9 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="257"/>
+      <c r="B74" s="267"/>
       <c r="C74" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="111">
         <v>-0.49</v>
@@ -20328,9 +20334,9 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="257"/>
+      <c r="B75" s="267"/>
       <c r="C75" s="109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="111">
         <v>1.35</v>
@@ -20349,9 +20355,9 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="257"/>
+      <c r="B76" s="267"/>
       <c r="C76" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="111">
         <v>3.54</v>
@@ -20370,9 +20376,9 @@
       </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="258"/>
+      <c r="B77" s="268"/>
       <c r="C77" s="110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D77" s="112">
         <v>11.39</v>
@@ -20392,16 +20398,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20461,18 +20467,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="241"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="66"/>
@@ -20491,21 +20497,21 @@
       <c r="Q2" s="225" t="s">
         <v>199</v>
       </c>
-      <c r="R2" s="260" t="s">
+      <c r="R2" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="260" t="s">
+      <c r="S2" s="280"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="261"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="261" t="s">
+      <c r="V2" s="280"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="262"/>
+      <c r="Y2" s="280"/>
+      <c r="Z2" s="281"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
@@ -20525,7 +20531,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="226" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S3" s="227" t="s">
         <v>202</v>
@@ -20534,7 +20540,7 @@
         <v>203</v>
       </c>
       <c r="U3" s="226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V3" s="227" t="s">
         <v>202</v>
@@ -20543,7 +20549,7 @@
         <v>203</v>
       </c>
       <c r="X3" s="227" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y3" s="227" t="s">
         <v>202</v>
@@ -21072,7 +21078,7 @@
       <c r="L16" s="91"/>
       <c r="M16" s="131"/>
       <c r="Q16" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R16" s="230">
         <v>3.0000000000000002E-2</v>
@@ -21142,27 +21148,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="276" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="253" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="247" t="s">
+      <c r="B1" s="276" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="248"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="250" t="s">
+      <c r="D1" s="271"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274"/>
       <c r="L1" s="34"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
@@ -21172,8 +21178,8 @@
       <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="254"/>
-      <c r="B2" s="254"/>
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
       <c r="C2" s="101" t="s">
         <v>196</v>
       </c>
@@ -21602,7 +21608,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
@@ -21847,7 +21853,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="102">
         <f>_xlfn.STDEV.P(C3:C14)</f>
@@ -21979,18 +21985,18 @@
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="182" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D60" s="182" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E60" s="182" t="s">
         <v>190</v>
@@ -22002,13 +22008,13 @@
         <v>192</v>
       </c>
       <c r="H60" s="182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I60" s="182" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J60" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22029,13 +22035,13 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="H61" s="167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I61" s="167">
         <v>49</v>
       </c>
       <c r="J61" s="168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22056,13 +22062,13 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I62">
         <v>9</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22082,13 +22088,13 @@
         <v>2.23E-2</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I63">
         <v>14</v>
       </c>
       <c r="J63" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22109,13 +22115,13 @@
         <v>2.01E-2</v>
       </c>
       <c r="H64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I64">
         <v>62</v>
       </c>
       <c r="J64" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22136,13 +22142,13 @@
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I65">
         <v>38</v>
       </c>
       <c r="J65" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22163,13 +22169,13 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I66" s="184">
         <v>98</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22190,13 +22196,13 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I67" s="184">
         <v>41</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22217,13 +22223,13 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="H68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I68">
         <v>48</v>
       </c>
       <c r="J68" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22244,13 +22250,13 @@
         <v>3.04E-2</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I69">
         <v>99</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22271,13 +22277,13 @@
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I70">
         <v>60</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22298,13 +22304,13 @@
         <v>0.03</v>
       </c>
       <c r="H71" s="165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I71" s="165">
         <v>82</v>
       </c>
       <c r="J71" s="166" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22325,13 +22331,13 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I72">
         <v>46</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22351,13 +22357,13 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="H73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I73">
         <v>77</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22378,13 +22384,13 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I74">
         <v>42</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22405,13 +22411,13 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="H75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22432,13 +22438,13 @@
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I76">
         <v>58</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22459,13 +22465,13 @@
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I77">
         <v>42</v>
       </c>
       <c r="J77" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22486,13 +22492,13 @@
         <v>3.78E-2</v>
       </c>
       <c r="H78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I78">
         <v>47</v>
       </c>
       <c r="J78" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22513,13 +22519,13 @@
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="H79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I79">
         <v>33</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -22540,13 +22546,13 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="H80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I80">
         <v>9</v>
       </c>
       <c r="J80" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22567,13 +22573,13 @@
         <v>2.7E-2</v>
       </c>
       <c r="H81" s="165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I81" s="165">
         <v>32</v>
       </c>
       <c r="J81" s="166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22594,13 +22600,13 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I82">
         <v>35</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22621,16 +22627,16 @@
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I83">
         <v>77</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22651,13 +22657,13 @@
         <v>2.81E-2</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I84">
         <v>78</v>
       </c>
       <c r="J84" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22678,13 +22684,13 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I85">
         <v>11</v>
       </c>
       <c r="J85" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22704,13 +22710,13 @@
         <v>2.98E-2</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I86">
         <v>75</v>
       </c>
       <c r="J86" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22731,13 +22737,13 @@
         <v>2.87E-2</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I87">
         <v>80</v>
       </c>
       <c r="J87" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22758,13 +22764,13 @@
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I88">
         <v>96</v>
       </c>
       <c r="J88" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -22785,13 +22791,13 @@
         <v>3.04E-2</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I89">
         <v>45</v>
       </c>
       <c r="J89" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -22812,13 +22818,13 @@
         <v>3.95E-2</v>
       </c>
       <c r="H90" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I90" s="65">
         <v>9</v>
       </c>
       <c r="J90" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22897,7 +22903,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="182" t="s">
         <v>190</v>
@@ -22909,13 +22915,13 @@
         <v>192</v>
       </c>
       <c r="E1" s="182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="182" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G1" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -22932,13 +22938,13 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="E2" s="196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="196">
         <v>49</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -22955,13 +22961,13 @@
         <v>0.03</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3">
         <v>82</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -22978,13 +22984,13 @@
         <v>2.7E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4">
         <v>32</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23001,13 +23007,13 @@
         <v>2.01E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5">
         <v>62</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23024,13 +23030,13 @@
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6">
         <v>38</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23047,13 +23053,13 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="184">
         <v>98</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23070,13 +23076,13 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="184">
         <v>41</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23093,13 +23099,13 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9">
         <v>48</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23116,13 +23122,13 @@
         <v>3.04E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10">
         <v>99</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23139,13 +23145,13 @@
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11">
         <v>60</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23162,13 +23168,13 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13">
         <v>46</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23185,13 +23191,13 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14">
         <v>77</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23208,13 +23214,13 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15">
         <v>42</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23231,13 +23237,13 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23254,13 +23260,13 @@
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F17">
         <v>58</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23277,13 +23283,13 @@
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F18">
         <v>42</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23300,13 +23306,13 @@
         <v>3.78E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19">
         <v>47</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23323,13 +23329,13 @@
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20">
         <v>33</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23346,13 +23352,13 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23369,13 +23375,13 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23">
         <v>35</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23392,13 +23398,13 @@
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24">
         <v>77</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23415,13 +23421,13 @@
         <v>2.81E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25">
         <v>78</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23438,13 +23444,13 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26">
         <v>11</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23461,13 +23467,13 @@
         <v>2.98E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27">
         <v>75</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23484,13 +23490,13 @@
         <v>2.87E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28">
         <v>80</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23507,13 +23513,13 @@
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F29">
         <v>96</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -23530,13 +23536,13 @@
         <v>3.04E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30">
         <v>45</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -23553,13 +23559,13 @@
         <v>3.95E-2</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F31" s="65">
         <v>9</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
